--- a/lda.xlsx
+++ b/lda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1082">
   <si>
     <t>id</t>
   </si>
@@ -1729,7 +1729,7 @@
     <t>nice environment with a wide choice of beers</t>
   </si>
   <si>
-    <t>it’s in a great location with windows that open out onto the pavement in nice weather.</t>
+    <t>it's in a great location with windows that open out onto the pavement in nice weather.</t>
   </si>
   <si>
     <t>location is convienient to businesses, hotels and theaters</t>
@@ -1912,1102 +1912,1354 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>place|price</t>
-  </si>
-  <si>
-    <t>price|going</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price|would</t>
-  </si>
-  <si>
-    <t>place|great|value</t>
-  </si>
-  <si>
-    <t>price|plentiful|flavorful|reasonably</t>
-  </si>
-  <si>
-    <t>atmosphere|relax|casual</t>
-  </si>
-  <si>
-    <t>phenomenal|value</t>
-  </si>
-  <si>
-    <t>service|great|price</t>
-  </si>
-  <si>
-    <t>price|quality</t>
-  </si>
-  <si>
-    <t>place|service|great|pizza</t>
-  </si>
-  <si>
-    <t>price|moderate|absolutely|appropriate</t>
-  </si>
-  <si>
-    <t>price|friendly</t>
-  </si>
-  <si>
-    <t>place|staff</t>
-  </si>
-  <si>
-    <t>portion</t>
-  </si>
-  <si>
-    <t>always|times</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>service|price</t>
-  </si>
-  <si>
-    <t>service|always|excellent|thing|decor</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thing|serve|average</t>
-  </si>
-  <si>
-    <t>special|thing|chicken|moderate</t>
-  </si>
-  <si>
-    <t>tasty|never|though</t>
-  </si>
-  <si>
-    <t>place|decor</t>
-  </si>
-  <si>
-    <t>great|roll|spicy|tempura|appetizer</t>
-  </si>
-  <si>
-    <t>service|great</t>
-  </si>
-  <si>
-    <t>service|attentive|friendly</t>
-  </si>
-  <si>
-    <t>relax</t>
-  </si>
-  <si>
-    <t>service|taste</t>
-  </si>
-  <si>
-    <t>waiter|check|letting|little</t>
-  </si>
-  <si>
-    <t>service|notch</t>
-  </si>
-  <si>
-    <t>restaurant|sushi|judge</t>
-  </si>
-  <si>
-    <t>pretty|portion|fresh|sushi</t>
-  </si>
-  <si>
-    <t>price|sushi</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>tasty|fresh|continually</t>
-  </si>
-  <si>
-    <t>dish|almost</t>
-  </si>
-  <si>
-    <t>service|sometimes|times</t>
-  </si>
-  <si>
-    <t>spicy</t>
-  </si>
-  <si>
-    <t>would|pretty|casual</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>service|great|price|evening</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>price|pizza</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>always|great|offer|wine</t>
-  </si>
-  <si>
-    <t>delicious|dish|fresh</t>
-  </si>
-  <si>
-    <t>great|portion</t>
-  </si>
-  <si>
-    <t>always|staff|friendly|never</t>
-  </si>
-  <si>
-    <t>service|excellent|great|delicious|portion|decor</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>place|service|always|great|times|wine</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>always|friendly|people|sometimes|times</t>
-  </si>
-  <si>
-    <t>pizza|atmoshpere</t>
-  </si>
-  <si>
-    <t>phenomenal</t>
-  </si>
-  <si>
-    <t>service|great|friendly</t>
-  </si>
-  <si>
-    <t>service|pizza</t>
-  </si>
-  <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>place|small|fantastic</t>
-  </si>
-  <si>
-    <t>great|price|atmosphere</t>
-  </si>
-  <si>
-    <t>garden|first</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>taste|fresh|pizza</t>
-  </si>
-  <si>
-    <t>service|setting|special|recommend</t>
-  </si>
-  <si>
-    <t>excellent|lobster</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>restaurant|romantic</t>
-  </si>
-  <si>
-    <t>delicious|beautiful</t>
-  </si>
-  <si>
-    <t>staff|attentive</t>
-  </si>
-  <si>
-    <t>especially|special</t>
-  </si>
-  <si>
-    <t>serve|friendly</t>
-  </si>
-  <si>
-    <t>atmosphere|evening</t>
-  </si>
-  <si>
-    <t>delicious|cheap|fresh|pizza</t>
-  </si>
-  <si>
-    <t>would|selection|appetizer</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>restaurant|worst</t>
-  </si>
-  <si>
-    <t>quality|restaurant</t>
-  </si>
-  <si>
-    <t>service|chicken|excpetiona</t>
-  </si>
-  <si>
-    <t>bagel|would|better</t>
-  </si>
-  <si>
-    <t>service|attentive</t>
-  </si>
-  <si>
-    <t>experience|selection|order|roast|though</t>
-  </si>
-  <si>
-    <t>restaurant|though</t>
-  </si>
-  <si>
-    <t>always|restaurant|evening|though</t>
-  </si>
-  <si>
-    <t>fresh|order|though</t>
-  </si>
-  <si>
-    <t>great|several|decor</t>
-  </si>
-  <si>
-    <t>atmosphere|first|order|completely|lobster</t>
-  </si>
-  <si>
-    <t>tomato|delicious</t>
-  </si>
-  <si>
-    <t>drink|serve</t>
-  </si>
-  <si>
-    <t>different|offer|delicious|husband|dish|recommend</t>
-  </si>
-  <si>
-    <t>bagel|small</t>
-  </si>
-  <si>
-    <t>bagel|little|absolutely</t>
-  </si>
-  <si>
-    <t>recommend|fresh|roll|lobster</t>
-  </si>
-  <si>
-    <t>service|recommend</t>
-  </si>
-  <si>
-    <t>staff|absolutely</t>
-  </si>
-  <si>
-    <t>pretty|sushi|average|roll</t>
-  </si>
-  <si>
-    <t>delicious|thing|fantastic</t>
-  </si>
-  <si>
-    <t>service|price|though</t>
-  </si>
-  <si>
-    <t>delicious|fresh|spicy</t>
-  </si>
-  <si>
-    <t>great|people</t>
-  </si>
-  <si>
-    <t>atmosphere</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>great|though</t>
-  </si>
-  <si>
-    <t>price|roll|spicy</t>
-  </si>
-  <si>
-    <t>going|choice|order</t>
-  </si>
-  <si>
-    <t>thing|waiter|atmosphere|things</t>
-  </si>
-  <si>
-    <t>price|dish</t>
-  </si>
-  <si>
-    <t>great|quality</t>
-  </si>
-  <si>
-    <t>tasty</t>
-  </si>
-  <si>
-    <t>serve|pasta|dish|fresh</t>
-  </si>
-  <si>
-    <t>place|staff|delicious|absolutely</t>
-  </si>
-  <si>
-    <t>place|means|simple|serve|dish|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|pizza</t>
-  </si>
-  <si>
-    <t>delicious|little|though</t>
-  </si>
-  <si>
-    <t>better|taste|pizza</t>
-  </si>
-  <si>
-    <t>service|friendly|people</t>
-  </si>
-  <si>
-    <t>place|relax</t>
-  </si>
-  <si>
-    <t>delicious|authentic</t>
-  </si>
-  <si>
-    <t>pasta|pizza</t>
-  </si>
-  <si>
-    <t>taste</t>
-  </si>
-  <si>
-    <t>service|excellent|restaurant|first</t>
-  </si>
-  <si>
-    <t>dish|filet</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>place|service|excellent|pizza|wine</t>
-  </si>
-  <si>
-    <t>place|restaurant</t>
-  </si>
-  <si>
-    <t>place|first|romantic</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>service|delicious|never|fresh</t>
-  </si>
-  <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>family|pizza|almost</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|thing|serve|atmosphere|restaurant</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>music|fresh</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>service|staff|offer</t>
-  </si>
-  <si>
-    <t>lobster</t>
-  </si>
-  <si>
-    <t>spicy|chicken</t>
-  </si>
-  <si>
-    <t>different|always|serve|portion</t>
-  </si>
-  <si>
-    <t>especially|special|wine|selection|tasting</t>
-  </si>
-  <si>
-    <t>great|price|tasting</t>
-  </si>
-  <si>
-    <t>special|order</t>
-  </si>
-  <si>
-    <t>family|never|restaurant</t>
-  </si>
-  <si>
-    <t>pretty|portion</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>service|order|though</t>
-  </si>
-  <si>
-    <t>place|great|pizza</t>
-  </si>
-  <si>
-    <t>great|pizza</t>
-  </si>
-  <si>
-    <t>service|excellent|great|friendly|sushi</t>
-  </si>
-  <si>
-    <t>bagel</t>
-  </si>
-  <si>
-    <t>bagel|always</t>
-  </si>
-  <si>
-    <t>different|great|selection</t>
-  </si>
-  <si>
-    <t>always|fresh</t>
-  </si>
-  <si>
-    <t>taste|restaurant</t>
-  </si>
-  <si>
-    <t>special|thing|atmosphere|sushi</t>
-  </si>
-  <si>
-    <t>thing|fresh</t>
-  </si>
-  <si>
-    <t>service|price|quality|cheap</t>
-  </si>
-  <si>
-    <t>service|wine</t>
-  </si>
-  <si>
-    <t>delicious|special|dish|never</t>
-  </si>
-  <si>
-    <t>vinegar</t>
-  </si>
-  <si>
-    <t>price|serve|wine|mortal</t>
-  </si>
-  <si>
-    <t>service|value</t>
-  </si>
-  <si>
-    <t>service|excellent|attentive|friendly</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|always|great</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>dish|average</t>
-  </si>
-  <si>
-    <t>dish|selection</t>
-  </si>
-  <si>
-    <t>service|decor|though</t>
-  </si>
-  <si>
-    <t>taste|fresh</t>
-  </si>
-  <si>
-    <t>sushi|worst</t>
-  </si>
-  <si>
-    <t>husband|sushi|worst</t>
-  </si>
-  <si>
-    <t>quality|sushi|definitely</t>
-  </si>
-  <si>
-    <t>fresh|slice</t>
-  </si>
-  <si>
-    <t>thing|taste|vinegar|things</t>
-  </si>
-  <si>
-    <t>staff|though</t>
-  </si>
-  <si>
-    <t>service|times</t>
-  </si>
-  <si>
-    <t>would|thing</t>
-  </si>
-  <si>
-    <t>worst|completely|hollondaise</t>
-  </si>
-  <si>
-    <t>drink|atmosphere</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|cheap|portion|small</t>
-  </si>
-  <si>
-    <t>atmosphere|experience</t>
-  </si>
-  <si>
-    <t>price|authentic</t>
-  </si>
-  <si>
-    <t>portion|tasty|appropriate</t>
-  </si>
-  <si>
-    <t>staff|friendly</t>
-  </si>
-  <si>
-    <t>excellent|dish|almost</t>
-  </si>
-  <si>
-    <t>great|lobster</t>
-  </si>
-  <si>
-    <t>price|though</t>
-  </si>
-  <si>
-    <t>price|lobster|though</t>
-  </si>
-  <si>
-    <t>service|delicious|special|notch|husband</t>
-  </si>
-  <si>
-    <t>waiter|attentive</t>
-  </si>
-  <si>
-    <t>recommend|dumplings|chicken</t>
-  </si>
-  <si>
-    <t>cheap|waiter</t>
-  </si>
-  <si>
-    <t>excellent|several</t>
-  </si>
-  <si>
-    <t>always|delicious|special</t>
-  </si>
-  <si>
-    <t>great|would|atmosphere|almost</t>
-  </si>
-  <si>
-    <t>place|great</t>
-  </si>
-  <si>
-    <t>staff|little</t>
-  </si>
-  <si>
-    <t>different|service|thing|several|serve|people</t>
-  </si>
-  <si>
-    <t>thing|almost|things</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>decor</t>
-  </si>
-  <si>
-    <t>great|price|tasty</t>
-  </si>
-  <si>
-    <t>would|recommend|definitely</t>
-  </si>
-  <si>
-    <t>service|experience|restaurant|worst</t>
-  </si>
-  <si>
-    <t>service|excellent|delicious|friendly|dish|atmosphere</t>
-  </si>
-  <si>
-    <t>drink|staff|thing</t>
-  </si>
-  <si>
-    <t>great|price|reasonably</t>
-  </si>
-  <si>
-    <t>staff|caviar</t>
-  </si>
-  <si>
-    <t>staff|relax</t>
-  </si>
-  <si>
-    <t>service|delicious|recommend|fantastic|caviar</t>
-  </si>
-  <si>
-    <t>thing|fresh|order</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>dish|tasty|average</t>
-  </si>
-  <si>
-    <t>would|recommend</t>
-  </si>
-  <si>
-    <t>dish|times|spicy|order</t>
-  </si>
-  <si>
-    <t>place|authentic</t>
-  </si>
-  <si>
-    <t>excellent|never|pizza|spicy</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>fantastic|lobster</t>
-  </si>
-  <si>
-    <t>several|husband|portion</t>
-  </si>
-  <si>
-    <t>delicious|appetizer</t>
-  </si>
-  <si>
-    <t>place|authentic|japanese</t>
-  </si>
-  <si>
-    <t>service|great|setting</t>
-  </si>
-  <si>
-    <t>offer|dish|tasty|fresh|pistachio|whole</t>
-  </si>
-  <si>
-    <t>service|excellent|delicious</t>
-  </si>
-  <si>
-    <t>special|sushi|dumplings|roll|choice|tempura</t>
-  </si>
-  <si>
-    <t>service|excellent</t>
-  </si>
-  <si>
-    <t>waiter</t>
-  </si>
-  <si>
-    <t>drink|thing|dish|suggest|order</t>
-  </si>
-  <si>
-    <t>great|waiter|recommend|experience</t>
-  </si>
-  <si>
-    <t>service|great|fantastic</t>
-  </si>
-  <si>
-    <t>great|filet|appetizer</t>
-  </si>
-  <si>
-    <t>service|friendly</t>
-  </si>
-  <si>
-    <t>staff|friendly|fresh</t>
-  </si>
-  <si>
-    <t>price|better|pizza</t>
-  </si>
-  <si>
-    <t>recommend|pizza</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service|great|people</t>
-  </si>
-  <si>
-    <t>first|sushi|little</t>
-  </si>
-  <si>
-    <t>service|excellent|great|thing|decor</t>
-  </si>
-  <si>
-    <t>delicious|sushi</t>
-  </si>
-  <si>
-    <t>roll|creative</t>
-  </si>
-  <si>
-    <t>service|always|attentive</t>
-  </si>
-  <si>
-    <t>people|restaurant|beautiful|thalia</t>
-  </si>
-  <si>
-    <t>order|appetizer</t>
-  </si>
-  <si>
-    <t>cheap|authentic</t>
-  </si>
-  <si>
-    <t>taste|dish|appetizer</t>
-  </si>
-  <si>
-    <t>simple|delicious|atmosphere</t>
-  </si>
-  <si>
-    <t>place|great|garden|relax</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>price|taste</t>
-  </si>
-  <si>
-    <t>service|atmosphere</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>restaurant|beautiful</t>
-  </si>
-  <si>
-    <t>especially|drink|delicious|special|dish</t>
-  </si>
-  <si>
-    <t>great|experience|sushi</t>
-  </si>
-  <si>
-    <t>bagel|great|tasty|selection</t>
-  </si>
-  <si>
-    <t>thing|pizza</t>
-  </si>
-  <si>
-    <t>delicious|pizza</t>
-  </si>
-  <si>
-    <t>slice</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>great|music</t>
-  </si>
-  <si>
-    <t>especially|special|pizza|slice</t>
-  </si>
-  <si>
-    <t>price|moderate</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>delicious|thing|appetizer</t>
-  </si>
-  <si>
-    <t>caviar</t>
-  </si>
-  <si>
-    <t>especially|tomato|special|spicy</t>
-  </si>
-  <si>
-    <t>great|shanty|drink|glass|music|setting|recommend|completely</t>
-  </si>
-  <si>
-    <t>music|taste</t>
-  </si>
-  <si>
-    <t>staff|restaurant</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>setting|casual|romantic</t>
-  </si>
-  <si>
-    <t>excellent|special|wine</t>
-  </si>
-  <si>
-    <t>great|thing|restaurant</t>
-  </si>
-  <si>
-    <t>delicious|chicken</t>
-  </si>
-  <si>
-    <t>great|dumplings</t>
-  </si>
-  <si>
-    <t>place|service|would|serve|better</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>bagel|especially|delicious|special</t>
-  </si>
-  <si>
-    <t>great|price|though</t>
-  </si>
-  <si>
-    <t>thing|though</t>
-  </si>
-  <si>
-    <t>place|excellent|staff</t>
-  </si>
-  <si>
-    <t>place|quality|cheap</t>
-  </si>
-  <si>
-    <t>place|service|great|never|romantic</t>
-  </si>
-  <si>
-    <t>bagel|special|experience|little</t>
-  </si>
-  <si>
-    <t>bagel|great</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>place|beautiful</t>
-  </si>
-  <si>
-    <t>small|chicken</t>
-  </si>
-  <si>
-    <t>portion|family|restaurant</t>
-  </si>
-  <si>
-    <t>especially|excellent|special|pasta</t>
-  </si>
-  <si>
-    <t>price|reasonably|wine</t>
-  </si>
-  <si>
-    <t>service|great|decor</t>
-  </si>
-  <si>
-    <t>excellent|great</t>
-  </si>
-  <si>
-    <t>excellent|plentiful</t>
-  </si>
-  <si>
-    <t>service|thing</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>special|pasta|taste</t>
-  </si>
-  <si>
-    <t>different|dish|recommend</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>service|friendly|tasty</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|price|wine</t>
-  </si>
-  <si>
-    <t>service|great|better|atmosphere</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>service|friendly|never</t>
-  </si>
-  <si>
-    <t>pizza|little</t>
-  </si>
-  <si>
-    <t>price|thing</t>
-  </si>
-  <si>
-    <t>service|excellent|setting|atmosphere</t>
-  </si>
-  <si>
-    <t>always|friendly|people</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thing|taste|chicken|penne|things</t>
-  </si>
-  <si>
-    <t>pasta|fresh|pizza</t>
-  </si>
-  <si>
-    <t>place|roll</t>
-  </si>
-  <si>
-    <t>simple|recommend|roll</t>
-  </si>
-  <si>
-    <t>service|excellent|decor</t>
-  </si>
-  <si>
-    <t>portion|sushi</t>
-  </si>
-  <si>
-    <t>excellent|serve|decor|dumplings</t>
-  </si>
-  <si>
-    <t>simple|decor</t>
-  </si>
-  <si>
-    <t>portion|small</t>
-  </si>
-  <si>
-    <t>great|price</t>
-  </si>
-  <si>
-    <t>dumplings|slice|roast</t>
-  </si>
-  <si>
-    <t>always|dish|never</t>
-  </si>
-  <si>
-    <t>delicious|tasting</t>
-  </si>
-  <si>
-    <t>price|tasting</t>
-  </si>
-  <si>
-    <t>service|great|price|music</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>service|always|drink|pretty</t>
-  </si>
-  <si>
-    <t>atmosphere|relax</t>
-  </si>
-  <si>
-    <t>waiter|wine</t>
-  </si>
-  <si>
-    <t>drink|would|waiter|order</t>
-  </si>
-  <si>
-    <t>service|price|staff|restaurant</t>
-  </si>
-  <si>
-    <t>service|offer</t>
-  </si>
-  <si>
-    <t>serve|attentive|friendly</t>
-  </si>
-  <si>
-    <t>service|excellent|great|relax</t>
-  </si>
-  <si>
-    <t>place|service|would|relax|though</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>always|never</t>
-  </si>
-  <si>
-    <t>location|place|first</t>
-  </si>
-  <si>
-    <t>pretty|pizza</t>
-  </si>
-  <si>
-    <t>portion|family|penne</t>
-  </si>
-  <si>
-    <t>means|would|pasta|pretty|tasty|first|pizza|penne|slice|little</t>
-  </si>
-  <si>
-    <t>service|decor|wine|selection</t>
-  </si>
-  <si>
-    <t>going|fantastic|definitely</t>
-  </si>
-  <si>
-    <t>service|great|staff|thing|things</t>
-  </si>
-  <si>
-    <t>always|family|little|though</t>
-  </si>
-  <si>
-    <t>garden|amaze|average|pizza|fantastic</t>
-  </si>
-  <si>
-    <t>dumplings</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>location|great</t>
-  </si>
-  <si>
-    <t>place|atmosphere|small</t>
-  </si>
-  <si>
-    <t>place|great|atmosphere</t>
-  </si>
-  <si>
-    <t>place|experience|value|worst</t>
-  </si>
-  <si>
-    <t>place|fantastic</t>
-  </si>
-  <si>
-    <t>great|decor|atmosphere|restaurant</t>
-  </si>
-  <si>
-    <t>great|restaurant</t>
+    <t>price|place|time|u|rice|</t>
+  </si>
+  <si>
+    <t>food|high|price|pay|going|view|u|rice|</t>
+  </si>
+  <si>
+    <t>food|high|price|bad|rice|</t>
+  </si>
+  <si>
+    <t>food|price|rice|</t>
+  </si>
+  <si>
+    <t>food|high|price|would|good|u|rice|</t>
+  </si>
+  <si>
+    <t>great|place|u|value|</t>
+  </si>
+  <si>
+    <t>food|price|reasonably|flavorful|plentiful|u|rice|</t>
+  </si>
+  <si>
+    <t>relaxed|atmosphere|casual|u|</t>
+  </si>
+  <si>
+    <t>price|u|rice||amazing</t>
+  </si>
+  <si>
+    <t>u|value||amazing</t>
+  </si>
+  <si>
+    <t>high|price|u|rice|</t>
+  </si>
+  <si>
+    <t>food|price|service|great|good|rice|</t>
+  </si>
+  <si>
+    <t>food|price|bad|u|rice|</t>
+  </si>
+  <si>
+    <t>service|great|place|pizza||amazing</t>
+  </si>
+  <si>
+    <t>food|high|price|u|rice|</t>
+  </si>
+  <si>
+    <t>price|u|rice|</t>
+  </si>
+  <si>
+    <t>price|friendly|u|id|rice|</t>
+  </si>
+  <si>
+    <t>place|like|staff|u|</t>
+  </si>
+  <si>
+    <t>food|portion|u|salty|</t>
+  </si>
+  <si>
+    <t>food|always|way|good|time|u|</t>
+  </si>
+  <si>
+    <t>always|duck|world|way|u||amazing</t>
+  </si>
+  <si>
+    <t>u|</t>
+  </si>
+  <si>
+    <t>price|service|u|rice|</t>
+  </si>
+  <si>
+    <t>always|service|decor|way|cool|u||ever</t>
+  </si>
+  <si>
+    <t>duck|u|</t>
+  </si>
+  <si>
+    <t>food|u||ever</t>
+  </si>
+  <si>
+    <t>tasty|u|though||ever</t>
+  </si>
+  <si>
+    <t>really|place|decor|u|</t>
+  </si>
+  <si>
+    <t>great|good|u|</t>
+  </si>
+  <si>
+    <t>service|great|u|id|</t>
+  </si>
+  <si>
+    <t>food|bad|</t>
+  </si>
+  <si>
+    <t>friendly|service|attentive|</t>
+  </si>
+  <si>
+    <t>relaxed|</t>
+  </si>
+  <si>
+    <t>service|bad|taste|u||ever</t>
+  </si>
+  <si>
+    <t>like|bad|u|little|id|</t>
+  </si>
+  <si>
+    <t>food|u|</t>
+  </si>
+  <si>
+    <t>service|</t>
+  </si>
+  <si>
+    <t>sea|sushi|u|</t>
+  </si>
+  <si>
+    <t>portion|sushi|u|one|</t>
+  </si>
+  <si>
+    <t>fish|try|good|id|rice|</t>
+  </si>
+  <si>
+    <t>price|sushi|u|rice|</t>
+  </si>
+  <si>
+    <t>food|service|</t>
+  </si>
+  <si>
+    <t>get|u||menu|ever</t>
+  </si>
+  <si>
+    <t>food|tasty|u|</t>
+  </si>
+  <si>
+    <t>get|bad|u|dish|</t>
+  </si>
+  <si>
+    <t>food|good|</t>
+  </si>
+  <si>
+    <t>like|u|</t>
+  </si>
+  <si>
+    <t>service|nice|time|</t>
+  </si>
+  <si>
+    <t>food|like|u|bland|</t>
+  </si>
+  <si>
+    <t>casual|best|nice|would|u|lunch|</t>
+  </si>
+  <si>
+    <t>view|u|id||ever</t>
+  </si>
+  <si>
+    <t>food|price|service|great|u|rice|even|</t>
+  </si>
+  <si>
+    <t>terrible|</t>
+  </si>
+  <si>
+    <t>u|small|</t>
+  </si>
+  <si>
+    <t>get|u|</t>
+  </si>
+  <si>
+    <t>food|way|french|u|</t>
+  </si>
+  <si>
+    <t>pizza|u|even|</t>
+  </si>
+  <si>
+    <t>price|pizza|rice|</t>
+  </si>
+  <si>
+    <t>get|good|pizza|u|one|even|</t>
+  </si>
+  <si>
+    <t>|worst</t>
+  </si>
+  <si>
+    <t>food|always|great|way|sea|good|u|wine||menu|ever|amazing</t>
+  </si>
+  <si>
+    <t>really|u|dish|</t>
+  </si>
+  <si>
+    <t>portion|great|best|u|id||ever</t>
+  </si>
+  <si>
+    <t>always|friendly|staff|way|u||ever</t>
+  </si>
+  <si>
+    <t>food|portion|service|great|decor|u|</t>
+  </si>
+  <si>
+    <t>place|</t>
+  </si>
+  <si>
+    <t>u|hostess|</t>
+  </si>
+  <si>
+    <t>food|bland|</t>
+  </si>
+  <si>
+    <t>food|always|service|great|place|way|time|wine|</t>
+  </si>
+  <si>
+    <t>get|would|u|</t>
+  </si>
+  <si>
+    <t>service|fast|great|</t>
+  </si>
+  <si>
+    <t>get|always|friendly|new|way|time|u|</t>
+  </si>
+  <si>
+    <t>like|pizza|u|</t>
+  </si>
+  <si>
+    <t>way|pizza|u|</t>
+  </si>
+  <si>
+    <t>good|view|u|lunch|</t>
+  </si>
+  <si>
+    <t>food|u|id|</t>
+  </si>
+  <si>
+    <t>friendly|service|great|</t>
+  </si>
+  <si>
+    <t>service|bad|pizza|</t>
+  </si>
+  <si>
+    <t>new|best|sushi|u|</t>
+  </si>
+  <si>
+    <t>food|place|u|small|</t>
+  </si>
+  <si>
+    <t>price|atmosphere|great|u|rice|</t>
+  </si>
+  <si>
+    <t>food|service|u||amazing</t>
+  </si>
+  <si>
+    <t>great|u|</t>
+  </si>
+  <si>
+    <t>u|id|</t>
+  </si>
+  <si>
+    <t>food|best|french|good|u|</t>
+  </si>
+  <si>
+    <t>like|best|taste|pizza|u|</t>
+  </si>
+  <si>
+    <t>food|great|view|u|</t>
+  </si>
+  <si>
+    <t>high|service|nice|id|</t>
+  </si>
+  <si>
+    <t>u|salty|</t>
+  </si>
+  <si>
+    <t>always|way|good|u|</t>
+  </si>
+  <si>
+    <t>staff|attentive|u|</t>
+  </si>
+  <si>
+    <t>u||ever</t>
+  </si>
+  <si>
+    <t>friendly|u|</t>
+  </si>
+  <si>
+    <t>bad|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|world|way|cool|u|id|even|</t>
+  </si>
+  <si>
+    <t>service|u|</t>
+  </si>
+  <si>
+    <t>food|service|bad|</t>
+  </si>
+  <si>
+    <t>pizza|u|</t>
+  </si>
+  <si>
+    <t>get|nice|would|u||menu|selection</t>
+  </si>
+  <si>
+    <t>best|staff|u|</t>
+  </si>
+  <si>
+    <t>food|fast|u||worst</t>
+  </si>
+  <si>
+    <t>staff|</t>
+  </si>
+  <si>
+    <t>bagel|better|would|u|</t>
+  </si>
+  <si>
+    <t>service|attentive|good|u|</t>
+  </si>
+  <si>
+    <t>food|get|good|u|id|though||selection</t>
+  </si>
+  <si>
+    <t>pleasant|french|u|though|</t>
+  </si>
+  <si>
+    <t>always|way|sea|u|though|even|</t>
+  </si>
+  <si>
+    <t>food|good|u|id|though|</t>
+  </si>
+  <si>
+    <t>great|decor|id||ever</t>
+  </si>
+  <si>
+    <t>atmosphere|time|</t>
+  </si>
+  <si>
+    <t>best|</t>
+  </si>
+  <si>
+    <t>food|really|cool|served|u|drink|</t>
+  </si>
+  <si>
+    <t>place|decor|good|u|id|</t>
+  </si>
+  <si>
+    <t>food|u|dish|</t>
+  </si>
+  <si>
+    <t>great|u|dinner|</t>
+  </si>
+  <si>
+    <t>bagel|small|</t>
+  </si>
+  <si>
+    <t>get|cream|bagel|u|little|</t>
+  </si>
+  <si>
+    <t>food|service|time|u|</t>
+  </si>
+  <si>
+    <t>high|u|</t>
+  </si>
+  <si>
+    <t>fish|pizza|u|</t>
+  </si>
+  <si>
+    <t>food|high|service|u|</t>
+  </si>
+  <si>
+    <t>staff|u|</t>
+  </si>
+  <si>
+    <t>really|u|bland|</t>
+  </si>
+  <si>
+    <t>sushi|u|id|</t>
+  </si>
+  <si>
+    <t>price|service|u|though|rice|</t>
+  </si>
+  <si>
+    <t>fish||amazing</t>
+  </si>
+  <si>
+    <t>great|</t>
+  </si>
+  <si>
+    <t>atmosphere|like|u|id|</t>
+  </si>
+  <si>
+    <t>good|u|though|</t>
+  </si>
+  <si>
+    <t>bad|</t>
+  </si>
+  <si>
+    <t>great|u|though|</t>
+  </si>
+  <si>
+    <t>really|sushi|good|u|</t>
+  </si>
+  <si>
+    <t>price|best|u|rice|</t>
+  </si>
+  <si>
+    <t>good|u|</t>
+  </si>
+  <si>
+    <t>food|going|u||menu|limited|ever</t>
+  </si>
+  <si>
+    <t>food|price|service|great|rice|</t>
+  </si>
+  <si>
+    <t>atmosphere|fast|u|</t>
+  </si>
+  <si>
+    <t>price|dish|rice|</t>
+  </si>
+  <si>
+    <t>high|great|u|</t>
+  </si>
+  <si>
+    <t>nice|tasty|goat|u|</t>
+  </si>
+  <si>
+    <t>served|time|dish|</t>
+  </si>
+  <si>
+    <t>food|place|staff|u|</t>
+  </si>
+  <si>
+    <t>u|even|</t>
+  </si>
+  <si>
+    <t>food|get|service|bad|good|time|</t>
+  </si>
+  <si>
+    <t>atmosphere|place|served|u|wine|dish|</t>
+  </si>
+  <si>
+    <t>place|nice|good|pizza|</t>
+  </si>
+  <si>
+    <t>goat|u|little|though|</t>
+  </si>
+  <si>
+    <t>better|taste|pizza|u|</t>
+  </si>
+  <si>
+    <t>friendly|service|u|</t>
+  </si>
+  <si>
+    <t>place|nice|</t>
+  </si>
+  <si>
+    <t>pizza|terrific|</t>
+  </si>
+  <si>
+    <t>service|u|impeccable|</t>
+  </si>
+  <si>
+    <t>food|pay|u|</t>
+  </si>
+  <si>
+    <t>like|taste|u|</t>
+  </si>
+  <si>
+    <t>service|great|</t>
+  </si>
+  <si>
+    <t>food|service|view|time|u|</t>
+  </si>
+  <si>
+    <t>u|dish|</t>
+  </si>
+  <si>
+    <t>like|</t>
+  </si>
+  <si>
+    <t>sushi|u||amazing</t>
+  </si>
+  <si>
+    <t>place|good|</t>
+  </si>
+  <si>
+    <t>place|good|u||ever</t>
+  </si>
+  <si>
+    <t>really|service|place|pizza|u|wine|</t>
+  </si>
+  <si>
+    <t>place|try|nice|u|one||ever</t>
+  </si>
+  <si>
+    <t>place|sea|view|</t>
+  </si>
+  <si>
+    <t>u|one|bland|</t>
+  </si>
+  <si>
+    <t>fish|one|</t>
+  </si>
+  <si>
+    <t>one|</t>
+  </si>
+  <si>
+    <t>service|fish|bad|u||ever</t>
+  </si>
+  <si>
+    <t>way|pizza|</t>
+  </si>
+  <si>
+    <t>service|place|cool|u|</t>
+  </si>
+  <si>
+    <t>food|atmosphere|service|great|try|pleasant|u|</t>
+  </si>
+  <si>
+    <t>food|</t>
+  </si>
+  <si>
+    <t>service|staff|u|impeccable||menu</t>
+  </si>
+  <si>
+    <t>new|try|u|</t>
+  </si>
+  <si>
+    <t>service|view|u|</t>
+  </si>
+  <si>
+    <t>service|staff|impeccable|</t>
+  </si>
+  <si>
+    <t>new|good|u|</t>
+  </si>
+  <si>
+    <t>good|</t>
+  </si>
+  <si>
+    <t>food|get|like|u|</t>
+  </si>
+  <si>
+    <t>food|service|terrific|</t>
+  </si>
+  <si>
+    <t>always|portion|way|u|</t>
+  </si>
+  <si>
+    <t>food|get|u|wine||menu|selection|amazing</t>
+  </si>
+  <si>
+    <t>food|price|get|great|like|good|u|rice||menu</t>
+  </si>
+  <si>
+    <t>u||menu|limited</t>
+  </si>
+  <si>
+    <t>u|one|</t>
+  </si>
+  <si>
+    <t>place|u|</t>
+  </si>
+  <si>
+    <t>food|great|u|</t>
+  </si>
+  <si>
+    <t>really|portion|</t>
+  </si>
+  <si>
+    <t>new|staff|</t>
+  </si>
+  <si>
+    <t>food|portion|good|u|</t>
+  </si>
+  <si>
+    <t>really|</t>
+  </si>
+  <si>
+    <t>food|get|service|u|though|</t>
+  </si>
+  <si>
+    <t>great|place|pizza|u|lunch|</t>
+  </si>
+  <si>
+    <t>great|pizza|</t>
+  </si>
+  <si>
+    <t>fast|</t>
+  </si>
+  <si>
+    <t>friendly|service|fast|great|sea|sushi|u|</t>
+  </si>
+  <si>
+    <t>best|bagel|id|</t>
+  </si>
+  <si>
+    <t>always|bagel|way|u|size|id|</t>
+  </si>
+  <si>
+    <t>great|cream|u||selection</t>
+  </si>
+  <si>
+    <t>always|way|</t>
+  </si>
+  <si>
+    <t>service|great|nice|u|</t>
+  </si>
+  <si>
+    <t>food|like|taste|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|like|sushi|u|</t>
+  </si>
+  <si>
+    <t>food|u|one||menu|limited|ever</t>
+  </si>
+  <si>
+    <t>food|price|service|u|rice|</t>
+  </si>
+  <si>
+    <t>|ever|worst</t>
+  </si>
+  <si>
+    <t>service|good|wine|</t>
+  </si>
+  <si>
+    <t>food|u|dish||menu|ever</t>
+  </si>
+  <si>
+    <t>sea|u|one|</t>
+  </si>
+  <si>
+    <t>food|price|u|wine|rice|</t>
+  </si>
+  <si>
+    <t>food|service|time|u|value||ever</t>
+  </si>
+  <si>
+    <t>best|pizza|</t>
+  </si>
+  <si>
+    <t>great|staff|</t>
+  </si>
+  <si>
+    <t>always|service|great|way|</t>
+  </si>
+  <si>
+    <t>u|hostess|id||ever</t>
+  </si>
+  <si>
+    <t>best|u|dish|</t>
+  </si>
+  <si>
+    <t>get|u|dish||selection</t>
+  </si>
+  <si>
+    <t>service|decor|nice|u|though|</t>
+  </si>
+  <si>
+    <t>food|id|</t>
+  </si>
+  <si>
+    <t>fish|taste|rice|</t>
+  </si>
+  <si>
+    <t>sushi|u||ever|worst</t>
+  </si>
+  <si>
+    <t>sushi|u|one||worst</t>
+  </si>
+  <si>
+    <t>sushi|u|</t>
+  </si>
+  <si>
+    <t>fish|u|rice||menu|limited</t>
+  </si>
+  <si>
+    <t>really|fish|taste|u|rice|even|salty|</t>
+  </si>
+  <si>
+    <t>nice|staff|u|though|</t>
+  </si>
+  <si>
+    <t>service|time|u|</t>
+  </si>
+  <si>
+    <t>would|u|dinner|</t>
+  </si>
+  <si>
+    <t>u||worst</t>
+  </si>
+  <si>
+    <t>way|u|</t>
+  </si>
+  <si>
+    <t>service|attentive|</t>
+  </si>
+  <si>
+    <t>food|atmosphere|drink|</t>
+  </si>
+  <si>
+    <t>price|try|u|rice|</t>
+  </si>
+  <si>
+    <t>food|portion|great|u|small|</t>
+  </si>
+  <si>
+    <t>like|id|</t>
+  </si>
+  <si>
+    <t>atmosphere|u|</t>
+  </si>
+  <si>
+    <t>sea|u|</t>
+  </si>
+  <si>
+    <t>great|nice|staff|u|</t>
+  </si>
+  <si>
+    <t>food|portion|tasty|size|</t>
+  </si>
+  <si>
+    <t>fish|</t>
+  </si>
+  <si>
+    <t>friendly|staff|</t>
+  </si>
+  <si>
+    <t>u|dish||menu|limited</t>
+  </si>
+  <si>
+    <t>great|good|</t>
+  </si>
+  <si>
+    <t>service|good|u|</t>
+  </si>
+  <si>
+    <t>food|high|price|sea|good|u|though|rice|even|</t>
+  </si>
+  <si>
+    <t>price|good|u|though|rice|</t>
+  </si>
+  <si>
+    <t>food|service|u|</t>
+  </si>
+  <si>
+    <t>attentive|u|</t>
+  </si>
+  <si>
+    <t>food|place|view|u|</t>
+  </si>
+  <si>
+    <t>fish|u|</t>
+  </si>
+  <si>
+    <t>food|nice|</t>
+  </si>
+  <si>
+    <t>always|try|way|sea|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|great|would|view|u|</t>
+  </si>
+  <si>
+    <t>food|great|place|good|</t>
+  </si>
+  <si>
+    <t>like|staff|u|little|</t>
+  </si>
+  <si>
+    <t>terrible|service|served||ever</t>
+  </si>
+  <si>
+    <t>way|u|dinner|</t>
+  </si>
+  <si>
+    <t>good|pizza|</t>
+  </si>
+  <si>
+    <t>decor|</t>
+  </si>
+  <si>
+    <t>food|price|really|great|tasty|u|rice|</t>
+  </si>
+  <si>
+    <t>like|sea|would|u|</t>
+  </si>
+  <si>
+    <t>service|u||ever|worst</t>
+  </si>
+  <si>
+    <t>friendly|atmosphere|service|good|u|dish|</t>
+  </si>
+  <si>
+    <t>food|staff|u|drink||ever</t>
+  </si>
+  <si>
+    <t>food|price|great|reasonably|rice|</t>
+  </si>
+  <si>
+    <t>try|nice|u|id|</t>
+  </si>
+  <si>
+    <t>really|nice|staff|u|</t>
+  </si>
+  <si>
+    <t>like|staff|u||ever</t>
+  </si>
+  <si>
+    <t>relaxed|staff|time|u|id|</t>
+  </si>
+  <si>
+    <t>high|service|u|one|</t>
+  </si>
+  <si>
+    <t>|ever</t>
+  </si>
+  <si>
+    <t>friendly|staff|u|</t>
+  </si>
+  <si>
+    <t>cool|u|</t>
+  </si>
+  <si>
+    <t>nice|u||selection</t>
+  </si>
+  <si>
+    <t>food|tasty|u|dish|</t>
+  </si>
+  <si>
+    <t>service|good|</t>
+  </si>
+  <si>
+    <t>nice||ever</t>
+  </si>
+  <si>
+    <t>food|would|u|</t>
+  </si>
+  <si>
+    <t>like|u|id|</t>
+  </si>
+  <si>
+    <t>food|really|place|u|</t>
+  </si>
+  <si>
+    <t>food|way|time|u|dish|</t>
+  </si>
+  <si>
+    <t>place|good|u|</t>
+  </si>
+  <si>
+    <t>food|u|lunch|</t>
+  </si>
+  <si>
+    <t>nice|pizza|u||ever</t>
+  </si>
+  <si>
+    <t>pleasant|u|personal|</t>
+  </si>
+  <si>
+    <t>portion|best|french|u|id|even||ever</t>
+  </si>
+  <si>
+    <t>food|get|place|u|</t>
+  </si>
+  <si>
+    <t>food|service|great|good|u|size||menu</t>
+  </si>
+  <si>
+    <t>cream|best|tasty|u|dish||ever|amazing</t>
+  </si>
+  <si>
+    <t>fast|best|</t>
+  </si>
+  <si>
+    <t>sushi|u||ever</t>
+  </si>
+  <si>
+    <t>food|terrible|good|u|</t>
+  </si>
+  <si>
+    <t>nice|</t>
+  </si>
+  <si>
+    <t>food|new|good|u|drink|dish|</t>
+  </si>
+  <si>
+    <t>food|service|great|</t>
+  </si>
+  <si>
+    <t>really|great|like|good|u|id|</t>
+  </si>
+  <si>
+    <t>food|friendly|service|u|</t>
+  </si>
+  <si>
+    <t>fish|u||menu</t>
+  </si>
+  <si>
+    <t>really|fish|</t>
+  </si>
+  <si>
+    <t>price|better|pizza|rice|even|terrific|</t>
+  </si>
+  <si>
+    <t>high|pizza|</t>
+  </si>
+  <si>
+    <t>food|service|best|u||ever</t>
+  </si>
+  <si>
+    <t>food|service|great|place|u|id|</t>
+  </si>
+  <si>
+    <t>sushi|time|u|little|bland|</t>
+  </si>
+  <si>
+    <t>service|great|decor|u|</t>
+  </si>
+  <si>
+    <t>food|world|sushi|u|</t>
+  </si>
+  <si>
+    <t>always|service|best|way|attentive|u|</t>
+  </si>
+  <si>
+    <t>bland|small|</t>
+  </si>
+  <si>
+    <t>u||menu</t>
+  </si>
+  <si>
+    <t>like|way|taste|u|dish|</t>
+  </si>
+  <si>
+    <t>food|atmosphere|nice|u|</t>
+  </si>
+  <si>
+    <t>staff|attentive|</t>
+  </si>
+  <si>
+    <t>really|like|mahi|u|</t>
+  </si>
+  <si>
+    <t>food|great|place|good|u|id|even|</t>
+  </si>
+  <si>
+    <t>bad|u|one|</t>
+  </si>
+  <si>
+    <t>service|bad|u|</t>
+  </si>
+  <si>
+    <t>u|one|personal|drink|</t>
+  </si>
+  <si>
+    <t>price|way|taste|rice|</t>
+  </si>
+  <si>
+    <t>food|atmosphere|service|u|</t>
+  </si>
+  <si>
+    <t>food|best||ever</t>
+  </si>
+  <si>
+    <t>place|u|id|</t>
+  </si>
+  <si>
+    <t>food|good|u|drink|dish|</t>
+  </si>
+  <si>
+    <t>great|place|u|</t>
+  </si>
+  <si>
+    <t>great|sushi|u|</t>
+  </si>
+  <si>
+    <t>really|great|bagel|tasty|good||ever|selection</t>
+  </si>
+  <si>
+    <t>pizza|u|one|</t>
+  </si>
+  <si>
+    <t>nice|pizza|u|one|</t>
+  </si>
+  <si>
+    <t>world|cream|u|</t>
+  </si>
+  <si>
+    <t>bad|u|rice|</t>
+  </si>
+  <si>
+    <t>sea|sushi|u|bland|rice|</t>
+  </si>
+  <si>
+    <t>service|fast|good|</t>
+  </si>
+  <si>
+    <t>food|great|</t>
+  </si>
+  <si>
+    <t>place|u|even|</t>
+  </si>
+  <si>
+    <t>pay|great|like|u|</t>
+  </si>
+  <si>
+    <t>pizza|</t>
+  </si>
+  <si>
+    <t>great||ever</t>
+  </si>
+  <si>
+    <t>try|u||menu</t>
+  </si>
+  <si>
+    <t>food|service|good|u|</t>
+  </si>
+  <si>
+    <t>try|good|u|id|</t>
+  </si>
+  <si>
+    <t>pleasant|staff|way|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|best|u|</t>
+  </si>
+  <si>
+    <t>get|great|u|drink|</t>
+  </si>
+  <si>
+    <t>taste|good|u|</t>
+  </si>
+  <si>
+    <t>great|u|id|</t>
+  </si>
+  <si>
+    <t>food|better|</t>
+  </si>
+  <si>
+    <t>casual|u|</t>
+  </si>
+  <si>
+    <t>cream|try|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|like|u|</t>
+  </si>
+  <si>
+    <t>one|wine|</t>
+  </si>
+  <si>
+    <t>service|place|better|served|would|u|</t>
+  </si>
+  <si>
+    <t>terrible|u|</t>
+  </si>
+  <si>
+    <t>bagel|u|</t>
+  </si>
+  <si>
+    <t>price|great|u|though|rice|</t>
+  </si>
+  <si>
+    <t>friendly|service|fast|</t>
+  </si>
+  <si>
+    <t>food|best|u|id|though|</t>
+  </si>
+  <si>
+    <t>place|like|staff|time|u|</t>
+  </si>
+  <si>
+    <t>food|place|</t>
+  </si>
+  <si>
+    <t>service|great|place|u|dinner||ever</t>
+  </si>
+  <si>
+    <t>really|bagel|u|little|</t>
+  </si>
+  <si>
+    <t>great|bagel|way|one|</t>
+  </si>
+  <si>
+    <t>food|u||amazing</t>
+  </si>
+  <si>
+    <t>best|u||ever</t>
+  </si>
+  <si>
+    <t>attentive|</t>
+  </si>
+  <si>
+    <t>good|small|</t>
+  </si>
+  <si>
+    <t>get|friendly|service|u|one||ever</t>
+  </si>
+  <si>
+    <t>portion|world|u|one|</t>
+  </si>
+  <si>
+    <t>price|reasonably|u|wine|rice|</t>
+  </si>
+  <si>
+    <t>food|service|great|decor|</t>
+  </si>
+  <si>
+    <t>food|great|cool|</t>
+  </si>
+  <si>
+    <t>plentiful|u|</t>
+  </si>
+  <si>
+    <t>food|sea|taste|u|</t>
+  </si>
+  <si>
+    <t>place|best|</t>
+  </si>
+  <si>
+    <t>dish|id|rice|</t>
+  </si>
+  <si>
+    <t>high|world|u|id||ever</t>
+  </si>
+  <si>
+    <t>food|friendly|service|tasty|u|</t>
+  </si>
+  <si>
+    <t>food|friendly|service|fast|best|tasty|u|</t>
+  </si>
+  <si>
+    <t>like||ever</t>
+  </si>
+  <si>
+    <t>friendly|sea|u|terrific|</t>
+  </si>
+  <si>
+    <t>food|price|great|good|wine|rice|</t>
+  </si>
+  <si>
+    <t>food|atmosphere|service|great|better|u|</t>
+  </si>
+  <si>
+    <t>food|good|time|</t>
+  </si>
+  <si>
+    <t>get|friendly|service||ever</t>
+  </si>
+  <si>
+    <t>food|u|bland|</t>
+  </si>
+  <si>
+    <t>pizza|little|</t>
+  </si>
+  <si>
+    <t>price|good|u|rice||ever</t>
+  </si>
+  <si>
+    <t>atmosphere|service|like||ever</t>
+  </si>
+  <si>
+    <t>always|friendly|way|</t>
+  </si>
+  <si>
+    <t>food|good|u|</t>
+  </si>
+  <si>
+    <t>best||ever</t>
+  </si>
+  <si>
+    <t>atmosphere|good|u|</t>
+  </si>
+  <si>
+    <t>fish|sea|taste|goat|u|one|bland||ever</t>
+  </si>
+  <si>
+    <t>atmosphere|service|pleasant|nice|good|</t>
+  </si>
+  <si>
+    <t>food|pizza|u||amazing</t>
+  </si>
+  <si>
+    <t>friendly|service|fast|best|u|</t>
+  </si>
+  <si>
+    <t>nice|u|</t>
+  </si>
+  <si>
+    <t>place|try||amazing</t>
+  </si>
+  <si>
+    <t>really|u|</t>
+  </si>
+  <si>
+    <t>food|good||ever</t>
+  </si>
+  <si>
+    <t>food|best|one|</t>
+  </si>
+  <si>
+    <t>food|service|decor|nice|good|u|</t>
+  </si>
+  <si>
+    <t>best|u|rice|</t>
+  </si>
+  <si>
+    <t>food|best|</t>
+  </si>
+  <si>
+    <t>atmosphere|service|best|</t>
+  </si>
+  <si>
+    <t>try|sea|u|id|</t>
+  </si>
+  <si>
+    <t>portion|sushi|good|u|size|</t>
+  </si>
+  <si>
+    <t>decor|served|u|id|</t>
+  </si>
+  <si>
+    <t>great|u||ever</t>
+  </si>
+  <si>
+    <t>decor|u|</t>
+  </si>
+  <si>
+    <t>food|portion|good|u|small|</t>
+  </si>
+  <si>
+    <t>food|price|great|rice|</t>
+  </si>
+  <si>
+    <t>food|service|great|one|</t>
+  </si>
+  <si>
+    <t>get|always|way|dish||ever</t>
+  </si>
+  <si>
+    <t>like|try|u|</t>
+  </si>
+  <si>
+    <t>food|price|good|rice|</t>
+  </si>
+  <si>
+    <t>food|price|service|great|good|u|rice|</t>
+  </si>
+  <si>
+    <t>always|service|way|good|drink|</t>
+  </si>
+  <si>
+    <t>relaxed|atmosphere|nice|</t>
+  </si>
+  <si>
+    <t>tasty|</t>
+  </si>
+  <si>
+    <t>sea|u|wine|id|</t>
+  </si>
+  <si>
+    <t>get|would|u|one|drink|even|</t>
+  </si>
+  <si>
+    <t>food|price|service|staff|good|u|rice|</t>
+  </si>
+  <si>
+    <t>food|price|service|new|u|id|though|rice|</t>
+  </si>
+  <si>
+    <t>service|u|personal|</t>
+  </si>
+  <si>
+    <t>friendly|attentive|u|</t>
+  </si>
+  <si>
+    <t>food|relaxed|service|great|</t>
+  </si>
+  <si>
+    <t>food|new|like|good|view|even|terrific|</t>
+  </si>
+  <si>
+    <t>high|would|u|</t>
+  </si>
+  <si>
+    <t>service|place|like|would|good|u|though|</t>
+  </si>
+  <si>
+    <t>u|size|personal|</t>
+  </si>
+  <si>
+    <t>always|way|u||ever</t>
+  </si>
+  <si>
+    <t>place|nice|u|</t>
+  </si>
+  <si>
+    <t>good|pizza|u|</t>
+  </si>
+  <si>
+    <t>food|portion|u|size|</t>
+  </si>
+  <si>
+    <t>cream|would|tasty|pizza|u|little|</t>
+  </si>
+  <si>
+    <t>service|decor|good|u|wine||selection</t>
+  </si>
+  <si>
+    <t>atmosphere|like|</t>
+  </si>
+  <si>
+    <t>going|u|</t>
+  </si>
+  <si>
+    <t>service|great|staff|good|u|</t>
+  </si>
+  <si>
+    <t>always|way|u|little|though|even||amazing</t>
+  </si>
+  <si>
+    <t>new|best|pizza|u||menu</t>
+  </si>
+  <si>
+    <t>nice|view|</t>
+  </si>
+  <si>
+    <t>nice|id|</t>
+  </si>
+  <si>
+    <t>great|nice|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|</t>
+  </si>
+  <si>
+    <t>new|u|</t>
+  </si>
+  <si>
+    <t>atmosphere|place|small||amazing</t>
+  </si>
+  <si>
+    <t>atmosphere|great|place|nice|</t>
+  </si>
+  <si>
+    <t>new|place|u|value||worst</t>
+  </si>
+  <si>
+    <t>atmosphere||amazing</t>
+  </si>
+  <si>
+    <t>atmosphere|great|decor|u|</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +4195,7 @@
         <v>585</v>
       </c>
       <c r="E34" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3960,7 +4212,7 @@
         <v>584</v>
       </c>
       <c r="E35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3977,7 +4229,7 @@
         <v>586</v>
       </c>
       <c r="E36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3994,7 +4246,7 @@
         <v>587</v>
       </c>
       <c r="E37" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4011,7 +4263,7 @@
         <v>588</v>
       </c>
       <c r="E38" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4028,7 +4280,7 @@
         <v>586</v>
       </c>
       <c r="E39" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4045,7 +4297,7 @@
         <v>587</v>
       </c>
       <c r="E40" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4062,7 +4314,7 @@
         <v>588</v>
       </c>
       <c r="E41" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4079,7 +4331,7 @@
         <v>586</v>
       </c>
       <c r="E42" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4096,7 +4348,7 @@
         <v>587</v>
       </c>
       <c r="E43" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4113,7 +4365,7 @@
         <v>588</v>
       </c>
       <c r="E44" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4130,7 +4382,7 @@
         <v>586</v>
       </c>
       <c r="E45" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4147,7 +4399,7 @@
         <v>587</v>
       </c>
       <c r="E46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4164,7 +4416,7 @@
         <v>588</v>
       </c>
       <c r="E47" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4181,7 +4433,7 @@
         <v>586</v>
       </c>
       <c r="E48" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4198,7 +4450,7 @@
         <v>587</v>
       </c>
       <c r="E49" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4215,7 +4467,7 @@
         <v>588</v>
       </c>
       <c r="E50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4232,7 +4484,7 @@
         <v>586</v>
       </c>
       <c r="E51" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4249,7 +4501,7 @@
         <v>587</v>
       </c>
       <c r="E52" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4266,7 +4518,7 @@
         <v>588</v>
       </c>
       <c r="E53" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4283,7 +4535,7 @@
         <v>586</v>
       </c>
       <c r="E54" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4300,7 +4552,7 @@
         <v>587</v>
       </c>
       <c r="E55" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4317,7 +4569,7 @@
         <v>588</v>
       </c>
       <c r="E56" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4334,7 +4586,7 @@
         <v>586</v>
       </c>
       <c r="E57" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4351,7 +4603,7 @@
         <v>587</v>
       </c>
       <c r="E58" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4368,7 +4620,7 @@
         <v>588</v>
       </c>
       <c r="E59" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4385,7 +4637,7 @@
         <v>586</v>
       </c>
       <c r="E60" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4402,7 +4654,7 @@
         <v>587</v>
       </c>
       <c r="E61" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4419,7 +4671,7 @@
         <v>588</v>
       </c>
       <c r="E62" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4436,7 +4688,7 @@
         <v>586</v>
       </c>
       <c r="E63" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4453,7 +4705,7 @@
         <v>587</v>
       </c>
       <c r="E64" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4470,7 +4722,7 @@
         <v>588</v>
       </c>
       <c r="E65" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4487,7 +4739,7 @@
         <v>586</v>
       </c>
       <c r="E66" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4504,7 +4756,7 @@
         <v>587</v>
       </c>
       <c r="E67" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4521,7 +4773,7 @@
         <v>588</v>
       </c>
       <c r="E68" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4538,7 +4790,7 @@
         <v>586</v>
       </c>
       <c r="E69" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4555,7 +4807,7 @@
         <v>587</v>
       </c>
       <c r="E70" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4572,7 +4824,7 @@
         <v>588</v>
       </c>
       <c r="E71" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4589,7 +4841,7 @@
         <v>586</v>
       </c>
       <c r="E72" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4606,7 +4858,7 @@
         <v>587</v>
       </c>
       <c r="E73" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4623,7 +4875,7 @@
         <v>588</v>
       </c>
       <c r="E74" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4640,7 +4892,7 @@
         <v>586</v>
       </c>
       <c r="E75" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4657,7 +4909,7 @@
         <v>587</v>
       </c>
       <c r="E76" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4674,7 +4926,7 @@
         <v>588</v>
       </c>
       <c r="E77" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4691,7 +4943,7 @@
         <v>586</v>
       </c>
       <c r="E78" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4708,7 +4960,7 @@
         <v>587</v>
       </c>
       <c r="E79" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4725,7 +4977,7 @@
         <v>588</v>
       </c>
       <c r="E80" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4742,7 +4994,7 @@
         <v>586</v>
       </c>
       <c r="E81" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4759,7 +5011,7 @@
         <v>587</v>
       </c>
       <c r="E82" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4776,7 +5028,7 @@
         <v>588</v>
       </c>
       <c r="E83" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4793,7 +5045,7 @@
         <v>586</v>
       </c>
       <c r="E84" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4810,7 +5062,7 @@
         <v>587</v>
       </c>
       <c r="E85" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4827,7 +5079,7 @@
         <v>588</v>
       </c>
       <c r="E86" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4844,7 +5096,7 @@
         <v>586</v>
       </c>
       <c r="E87" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4861,7 +5113,7 @@
         <v>587</v>
       </c>
       <c r="E88" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4878,7 +5130,7 @@
         <v>588</v>
       </c>
       <c r="E89" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4895,7 +5147,7 @@
         <v>586</v>
       </c>
       <c r="E90" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4912,7 +5164,7 @@
         <v>587</v>
       </c>
       <c r="E91" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4929,7 +5181,7 @@
         <v>588</v>
       </c>
       <c r="E92" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4946,7 +5198,7 @@
         <v>586</v>
       </c>
       <c r="E93" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4963,7 +5215,7 @@
         <v>587</v>
       </c>
       <c r="E94" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4980,7 +5232,7 @@
         <v>588</v>
       </c>
       <c r="E95" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4997,7 +5249,7 @@
         <v>586</v>
       </c>
       <c r="E96" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5014,7 +5266,7 @@
         <v>587</v>
       </c>
       <c r="E97" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5031,7 +5283,7 @@
         <v>588</v>
       </c>
       <c r="E98" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5048,7 +5300,7 @@
         <v>586</v>
       </c>
       <c r="E99" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5065,7 +5317,7 @@
         <v>587</v>
       </c>
       <c r="E100" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5082,7 +5334,7 @@
         <v>588</v>
       </c>
       <c r="E101" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5099,7 +5351,7 @@
         <v>586</v>
       </c>
       <c r="E102" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5116,7 +5368,7 @@
         <v>587</v>
       </c>
       <c r="E103" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5133,7 +5385,7 @@
         <v>588</v>
       </c>
       <c r="E104" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5150,7 +5402,7 @@
         <v>586</v>
       </c>
       <c r="E105" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5167,7 +5419,7 @@
         <v>587</v>
       </c>
       <c r="E106" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5184,7 +5436,7 @@
         <v>588</v>
       </c>
       <c r="E107" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5201,7 +5453,7 @@
         <v>586</v>
       </c>
       <c r="E108" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5218,7 +5470,7 @@
         <v>587</v>
       </c>
       <c r="E109" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5235,7 +5487,7 @@
         <v>588</v>
       </c>
       <c r="E110" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5252,7 +5504,7 @@
         <v>586</v>
       </c>
       <c r="E111" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5269,7 +5521,7 @@
         <v>587</v>
       </c>
       <c r="E112" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5286,7 +5538,7 @@
         <v>588</v>
       </c>
       <c r="E113" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5303,7 +5555,7 @@
         <v>586</v>
       </c>
       <c r="E114" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5320,7 +5572,7 @@
         <v>587</v>
       </c>
       <c r="E115" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5337,7 +5589,7 @@
         <v>588</v>
       </c>
       <c r="E116" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5354,7 +5606,7 @@
         <v>584</v>
       </c>
       <c r="E117" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5371,7 +5623,7 @@
         <v>584</v>
       </c>
       <c r="E118" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5388,7 +5640,7 @@
         <v>589</v>
       </c>
       <c r="E119" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5405,7 +5657,7 @@
         <v>590</v>
       </c>
       <c r="E120" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5422,7 +5674,7 @@
         <v>591</v>
       </c>
       <c r="E121" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5439,7 +5691,7 @@
         <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5456,7 +5708,7 @@
         <v>591</v>
       </c>
       <c r="E123" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5473,7 +5725,7 @@
         <v>583</v>
       </c>
       <c r="E124" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5490,7 +5742,7 @@
         <v>583</v>
       </c>
       <c r="E125" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5507,7 +5759,7 @@
         <v>583</v>
       </c>
       <c r="E126" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5524,7 +5776,7 @@
         <v>583</v>
       </c>
       <c r="E127" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5541,7 +5793,7 @@
         <v>583</v>
       </c>
       <c r="E128" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5558,7 +5810,7 @@
         <v>583</v>
       </c>
       <c r="E129" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5575,7 +5827,7 @@
         <v>583</v>
       </c>
       <c r="E130" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5592,7 +5844,7 @@
         <v>583</v>
       </c>
       <c r="E131" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5609,7 +5861,7 @@
         <v>583</v>
       </c>
       <c r="E132" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5626,7 +5878,7 @@
         <v>583</v>
       </c>
       <c r="E133" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5643,7 +5895,7 @@
         <v>583</v>
       </c>
       <c r="E134" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5660,7 +5912,7 @@
         <v>583</v>
       </c>
       <c r="E135" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5677,7 +5929,7 @@
         <v>583</v>
       </c>
       <c r="E136" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5694,7 +5946,7 @@
         <v>593</v>
       </c>
       <c r="E137" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5711,7 +5963,7 @@
         <v>594</v>
       </c>
       <c r="E138" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5728,7 +5980,7 @@
         <v>595</v>
       </c>
       <c r="E139" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5745,7 +5997,7 @@
         <v>596</v>
       </c>
       <c r="E140" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5762,7 +6014,7 @@
         <v>595</v>
       </c>
       <c r="E141" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5779,7 +6031,7 @@
         <v>595</v>
       </c>
       <c r="E142" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5796,7 +6048,7 @@
         <v>597</v>
       </c>
       <c r="E143" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5813,7 +6065,7 @@
         <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5830,7 +6082,7 @@
         <v>596</v>
       </c>
       <c r="E145" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5847,7 +6099,7 @@
         <v>595</v>
       </c>
       <c r="E146" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5864,7 +6116,7 @@
         <v>596</v>
       </c>
       <c r="E147" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5881,7 +6133,7 @@
         <v>595</v>
       </c>
       <c r="E148" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5898,7 +6150,7 @@
         <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5915,7 +6167,7 @@
         <v>595</v>
       </c>
       <c r="E150" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5932,7 +6184,7 @@
         <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5948,6 +6200,9 @@
       <c r="D152" t="s">
         <v>596</v>
       </c>
+      <c r="E152" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1">
@@ -5963,7 +6218,7 @@
         <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5980,7 +6235,7 @@
         <v>588</v>
       </c>
       <c r="E154" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5997,7 +6252,7 @@
         <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6014,7 +6269,7 @@
         <v>594</v>
       </c>
       <c r="E156" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6030,6 +6285,9 @@
       <c r="D157" t="s">
         <v>596</v>
       </c>
+      <c r="E157" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1">
@@ -6045,7 +6303,7 @@
         <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6062,7 +6320,7 @@
         <v>596</v>
       </c>
       <c r="E159" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6079,7 +6337,7 @@
         <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6095,6 +6353,9 @@
       <c r="D161" t="s">
         <v>596</v>
       </c>
+      <c r="E161" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
@@ -6110,7 +6371,7 @@
         <v>596</v>
       </c>
       <c r="E162" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6127,7 +6388,7 @@
         <v>600</v>
       </c>
       <c r="E163" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6144,7 +6405,7 @@
         <v>601</v>
       </c>
       <c r="E164" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6161,7 +6422,7 @@
         <v>601</v>
       </c>
       <c r="E165" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6178,7 +6439,7 @@
         <v>596</v>
       </c>
       <c r="E166" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6194,6 +6455,9 @@
       <c r="D167" t="s">
         <v>596</v>
       </c>
+      <c r="E167" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1">
@@ -6208,6 +6472,9 @@
       <c r="D168" t="s">
         <v>602</v>
       </c>
+      <c r="E168" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1">
@@ -6223,7 +6490,7 @@
         <v>594</v>
       </c>
       <c r="E169" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6240,7 +6507,7 @@
         <v>596</v>
       </c>
       <c r="E170" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6257,7 +6524,7 @@
         <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6274,7 +6541,7 @@
         <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6291,7 +6558,7 @@
         <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6307,6 +6574,9 @@
       <c r="D174" t="s">
         <v>596</v>
       </c>
+      <c r="E174" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
@@ -6322,7 +6592,7 @@
         <v>588</v>
       </c>
       <c r="E175" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6339,7 +6609,7 @@
         <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6356,7 +6626,7 @@
         <v>604</v>
       </c>
       <c r="E177" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6373,7 +6643,7 @@
         <v>595</v>
       </c>
       <c r="E178" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6390,7 +6660,7 @@
         <v>595</v>
       </c>
       <c r="E179" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6407,7 +6677,7 @@
         <v>601</v>
       </c>
       <c r="E180" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6424,7 +6694,7 @@
         <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6441,7 +6711,7 @@
         <v>601</v>
       </c>
       <c r="E182" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6458,7 +6728,7 @@
         <v>596</v>
       </c>
       <c r="E183" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6475,7 +6745,7 @@
         <v>595</v>
       </c>
       <c r="E184" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6491,6 +6761,9 @@
       <c r="D185" t="s">
         <v>595</v>
       </c>
+      <c r="E185" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1">
@@ -6506,7 +6779,7 @@
         <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6523,7 +6796,7 @@
         <v>605</v>
       </c>
       <c r="E187" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6540,7 +6813,7 @@
         <v>588</v>
       </c>
       <c r="E188" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6556,6 +6829,9 @@
       <c r="D189" t="s">
         <v>594</v>
       </c>
+      <c r="E189" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1">
@@ -6570,6 +6846,9 @@
       <c r="D190" t="s">
         <v>596</v>
       </c>
+      <c r="E190" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1">
@@ -6585,7 +6864,7 @@
         <v>606</v>
       </c>
       <c r="E191" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6602,7 +6881,7 @@
         <v>594</v>
       </c>
       <c r="E192" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6619,7 +6898,7 @@
         <v>594</v>
       </c>
       <c r="E193" t="s">
-        <v>658</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6636,7 +6915,7 @@
         <v>594</v>
       </c>
       <c r="E194" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6653,7 +6932,7 @@
         <v>607</v>
       </c>
       <c r="E195" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6670,7 +6949,7 @@
         <v>596</v>
       </c>
       <c r="E196" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6686,6 +6965,9 @@
       <c r="D197" t="s">
         <v>596</v>
       </c>
+      <c r="E197" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1">
@@ -6700,6 +6982,9 @@
       <c r="D198" t="s">
         <v>595</v>
       </c>
+      <c r="E198" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1">
@@ -6715,7 +7000,7 @@
         <v>597</v>
       </c>
       <c r="E199" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6732,7 +7017,7 @@
         <v>594</v>
       </c>
       <c r="E200" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6749,7 +7034,7 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6766,7 +7051,7 @@
         <v>594</v>
       </c>
       <c r="E202" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6783,7 +7068,7 @@
         <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6800,7 +7085,7 @@
         <v>608</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6817,7 +7102,7 @@
         <v>588</v>
       </c>
       <c r="E205" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6833,9 +7118,6 @@
       <c r="D206" t="s">
         <v>588</v>
       </c>
-      <c r="E206" t="s">
-        <v>698</v>
-      </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1">
@@ -6851,7 +7133,7 @@
         <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6868,7 +7150,7 @@
         <v>596</v>
       </c>
       <c r="E208" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6885,7 +7167,7 @@
         <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6901,6 +7183,9 @@
       <c r="D210" t="s">
         <v>608</v>
       </c>
+      <c r="E210" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1">
@@ -6916,7 +7201,7 @@
         <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6933,7 +7218,7 @@
         <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6950,7 +7235,7 @@
         <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6967,7 +7252,7 @@
         <v>595</v>
       </c>
       <c r="E214" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6984,7 +7269,7 @@
         <v>594</v>
       </c>
       <c r="E215" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7001,7 +7286,7 @@
         <v>601</v>
       </c>
       <c r="E216" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7018,7 +7303,7 @@
         <v>588</v>
       </c>
       <c r="E217" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7035,7 +7320,7 @@
         <v>588</v>
       </c>
       <c r="E218" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7052,7 +7337,7 @@
         <v>595</v>
       </c>
       <c r="E219" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7069,7 +7354,7 @@
         <v>594</v>
       </c>
       <c r="E220" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7086,7 +7371,7 @@
         <v>609</v>
       </c>
       <c r="E221" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7103,7 +7388,7 @@
         <v>594</v>
       </c>
       <c r="E222" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7119,6 +7404,9 @@
       <c r="D223" t="s">
         <v>596</v>
       </c>
+      <c r="E223" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1">
@@ -7133,6 +7421,9 @@
       <c r="D224" t="s">
         <v>595</v>
       </c>
+      <c r="E224" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1">
@@ -7148,7 +7439,7 @@
         <v>588</v>
       </c>
       <c r="E225" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7165,7 +7456,7 @@
         <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7182,7 +7473,7 @@
         <v>597</v>
       </c>
       <c r="E227" t="s">
-        <v>667</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7199,7 +7490,7 @@
         <v>595</v>
       </c>
       <c r="E228" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7216,7 +7507,7 @@
         <v>596</v>
       </c>
       <c r="E229" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7233,7 +7524,7 @@
         <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7250,7 +7541,7 @@
         <v>596</v>
       </c>
       <c r="E231" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7267,7 +7558,7 @@
         <v>596</v>
       </c>
       <c r="E232" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7284,7 +7575,7 @@
         <v>611</v>
       </c>
       <c r="E233" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7301,7 +7592,7 @@
         <v>594</v>
       </c>
       <c r="E234" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7318,7 +7609,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7335,7 +7626,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7352,7 +7643,7 @@
         <v>595</v>
       </c>
       <c r="E237" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7369,7 +7660,7 @@
         <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7386,7 +7677,7 @@
         <v>594</v>
       </c>
       <c r="E239" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7403,7 +7694,7 @@
         <v>595</v>
       </c>
       <c r="E240" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7420,7 +7711,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7437,7 +7728,7 @@
         <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7453,6 +7744,9 @@
       <c r="D243" t="s">
         <v>596</v>
       </c>
+      <c r="E243" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1">
@@ -7468,7 +7762,7 @@
         <v>595</v>
       </c>
       <c r="E244" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7485,7 +7779,7 @@
         <v>594</v>
       </c>
       <c r="E245" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7502,7 +7796,7 @@
         <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7519,7 +7813,7 @@
         <v>601</v>
       </c>
       <c r="E247" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7536,7 +7830,7 @@
         <v>588</v>
       </c>
       <c r="E248" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7553,7 +7847,7 @@
         <v>596</v>
       </c>
       <c r="E249" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7570,7 +7864,7 @@
         <v>596</v>
       </c>
       <c r="E250" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7587,7 +7881,7 @@
         <v>600</v>
       </c>
       <c r="E251" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7604,7 +7898,7 @@
         <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7621,7 +7915,7 @@
         <v>601</v>
       </c>
       <c r="E253" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7638,7 +7932,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7655,7 +7949,7 @@
         <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7671,6 +7965,9 @@
       <c r="D256" t="s">
         <v>596</v>
       </c>
+      <c r="E256" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1">
@@ -7686,7 +7983,7 @@
         <v>601</v>
       </c>
       <c r="E257" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7703,7 +8000,7 @@
         <v>596</v>
       </c>
       <c r="E258" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7720,7 +8017,7 @@
         <v>594</v>
       </c>
       <c r="E259" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7737,7 +8034,7 @@
         <v>596</v>
       </c>
       <c r="E260" t="s">
-        <v>735</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7754,7 +8051,7 @@
         <v>596</v>
       </c>
       <c r="E261" t="s">
-        <v>652</v>
+        <v>757</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7771,7 +8068,7 @@
         <v>588</v>
       </c>
       <c r="E262" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7788,7 +8085,7 @@
         <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7805,7 +8102,7 @@
         <v>588</v>
       </c>
       <c r="E264" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7821,6 +8118,9 @@
       <c r="D265" t="s">
         <v>596</v>
       </c>
+      <c r="E265" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1">
@@ -7836,7 +8136,7 @@
         <v>596</v>
       </c>
       <c r="E266" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7852,6 +8152,9 @@
       <c r="D267" t="s">
         <v>596</v>
       </c>
+      <c r="E267" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1">
@@ -7867,7 +8170,7 @@
         <v>595</v>
       </c>
       <c r="E268" t="s">
-        <v>695</v>
+        <v>763</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7884,7 +8187,7 @@
         <v>601</v>
       </c>
       <c r="E269" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7900,6 +8203,9 @@
       <c r="D270" t="s">
         <v>596</v>
       </c>
+      <c r="E270" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1">
@@ -7915,7 +8221,7 @@
         <v>595</v>
       </c>
       <c r="E271" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7932,7 +8238,7 @@
         <v>600</v>
       </c>
       <c r="E272" t="s">
-        <v>640</v>
+        <v>767</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7949,7 +8255,7 @@
         <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7966,7 +8272,7 @@
         <v>601</v>
       </c>
       <c r="E274" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7983,7 +8289,7 @@
         <v>594</v>
       </c>
       <c r="E275" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8000,7 +8306,7 @@
         <v>595</v>
       </c>
       <c r="E276" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8017,7 +8323,7 @@
         <v>596</v>
       </c>
       <c r="E277" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8034,7 +8340,7 @@
         <v>613</v>
       </c>
       <c r="E278" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8050,6 +8356,9 @@
       <c r="D279" t="s">
         <v>594</v>
       </c>
+      <c r="E279" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
@@ -8065,7 +8374,7 @@
         <v>614</v>
       </c>
       <c r="E280" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8082,7 +8391,7 @@
         <v>615</v>
       </c>
       <c r="E281" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8099,7 +8408,7 @@
         <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8116,7 +8425,7 @@
         <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8133,7 +8442,7 @@
         <v>596</v>
       </c>
       <c r="E284" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8150,7 +8459,7 @@
         <v>616</v>
       </c>
       <c r="E285" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8167,7 +8476,7 @@
         <v>588</v>
       </c>
       <c r="E286" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8184,7 +8493,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="s">
-        <v>754</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8201,7 +8510,7 @@
         <v>595</v>
       </c>
       <c r="E288" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8218,7 +8527,7 @@
         <v>610</v>
       </c>
       <c r="E289" t="s">
-        <v>667</v>
+        <v>783</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8234,6 +8543,9 @@
       <c r="D290" t="s">
         <v>596</v>
       </c>
+      <c r="E290" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1">
@@ -8249,7 +8561,7 @@
         <v>595</v>
       </c>
       <c r="E291" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8266,7 +8578,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8283,7 +8595,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8300,7 +8612,7 @@
         <v>596</v>
       </c>
       <c r="E294" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8316,6 +8628,9 @@
       <c r="D295" t="s">
         <v>588</v>
       </c>
+      <c r="E295" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1">
@@ -8331,7 +8646,7 @@
         <v>596</v>
       </c>
       <c r="E296" t="s">
-        <v>695</v>
+        <v>790</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8347,9 +8662,6 @@
       <c r="D297" t="s">
         <v>588</v>
       </c>
-      <c r="E297" t="s">
-        <v>759</v>
-      </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1">
@@ -8365,7 +8677,7 @@
         <v>596</v>
       </c>
       <c r="E298" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8382,7 +8694,7 @@
         <v>588</v>
       </c>
       <c r="E299" t="s">
-        <v>687</v>
+        <v>792</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8399,7 +8711,7 @@
         <v>617</v>
       </c>
       <c r="E300" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8416,7 +8728,7 @@
         <v>588</v>
       </c>
       <c r="E301" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8433,7 +8745,7 @@
         <v>588</v>
       </c>
       <c r="E302" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8450,7 +8762,7 @@
         <v>594</v>
       </c>
       <c r="E303" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8466,6 +8778,9 @@
       <c r="D304" t="s">
         <v>595</v>
       </c>
+      <c r="E304" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1">
@@ -8480,6 +8795,9 @@
       <c r="D305" t="s">
         <v>596</v>
       </c>
+      <c r="E305" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1">
@@ -8495,7 +8813,7 @@
         <v>596</v>
       </c>
       <c r="E306" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8512,7 +8830,7 @@
         <v>597</v>
       </c>
       <c r="E307" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8529,7 +8847,7 @@
         <v>596</v>
       </c>
       <c r="E308" t="s">
-        <v>765</v>
+        <v>653</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8546,7 +8864,7 @@
         <v>596</v>
       </c>
       <c r="E309" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8563,7 +8881,7 @@
         <v>598</v>
       </c>
       <c r="E310" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8580,7 +8898,7 @@
         <v>618</v>
       </c>
       <c r="E311" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8597,7 +8915,7 @@
         <v>596</v>
       </c>
       <c r="E312" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8614,7 +8932,7 @@
         <v>588</v>
       </c>
       <c r="E313" t="s">
-        <v>770</v>
+        <v>653</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8631,7 +8949,7 @@
         <v>616</v>
       </c>
       <c r="E314" t="s">
-        <v>771</v>
+        <v>804</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8648,7 +8966,7 @@
         <v>607</v>
       </c>
       <c r="E315" t="s">
-        <v>677</v>
+        <v>805</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8665,7 +8983,7 @@
         <v>619</v>
       </c>
       <c r="E316" t="s">
-        <v>663</v>
+        <v>806</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8682,7 +9000,7 @@
         <v>594</v>
       </c>
       <c r="E317" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8699,7 +9017,7 @@
         <v>595</v>
       </c>
       <c r="E318" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8715,6 +9033,9 @@
       <c r="D319" t="s">
         <v>596</v>
       </c>
+      <c r="E319" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1">
@@ -8729,6 +9050,9 @@
       <c r="D320" t="s">
         <v>596</v>
       </c>
+      <c r="E320" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1">
@@ -8744,7 +9068,7 @@
         <v>596</v>
       </c>
       <c r="E321" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8761,7 +9085,7 @@
         <v>597</v>
       </c>
       <c r="E322" t="s">
-        <v>667</v>
+        <v>811</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8778,7 +9102,7 @@
         <v>596</v>
       </c>
       <c r="E323" t="s">
-        <v>775</v>
+        <v>812</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8795,7 +9119,7 @@
         <v>601</v>
       </c>
       <c r="E324" t="s">
-        <v>776</v>
+        <v>813</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8812,7 +9136,7 @@
         <v>601</v>
       </c>
       <c r="E325" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8828,6 +9152,9 @@
       <c r="D326" t="s">
         <v>596</v>
       </c>
+      <c r="E326" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1">
@@ -8843,7 +9170,7 @@
         <v>596</v>
       </c>
       <c r="E327" t="s">
-        <v>778</v>
+        <v>816</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8860,7 +9187,7 @@
         <v>588</v>
       </c>
       <c r="E328" t="s">
-        <v>687</v>
+        <v>817</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8877,7 +9204,7 @@
         <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8894,7 +9221,7 @@
         <v>596</v>
       </c>
       <c r="E330" t="s">
-        <v>699</v>
+        <v>818</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8911,7 +9238,7 @@
         <v>596</v>
       </c>
       <c r="E331" t="s">
-        <v>646</v>
+        <v>819</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8928,7 +9255,7 @@
         <v>594</v>
       </c>
       <c r="E332" t="s">
-        <v>712</v>
+        <v>820</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8945,7 +9272,7 @@
         <v>595</v>
       </c>
       <c r="E333" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8962,7 +9289,7 @@
         <v>588</v>
       </c>
       <c r="E334" t="s">
-        <v>687</v>
+        <v>817</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8979,7 +9306,7 @@
         <v>588</v>
       </c>
       <c r="E335" t="s">
-        <v>781</v>
+        <v>822</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8996,7 +9323,7 @@
         <v>594</v>
       </c>
       <c r="E336" t="s">
-        <v>782</v>
+        <v>823</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9013,7 +9340,7 @@
         <v>596</v>
       </c>
       <c r="E337" t="s">
-        <v>783</v>
+        <v>824</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9030,7 +9357,7 @@
         <v>594</v>
       </c>
       <c r="E338" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9047,7 +9374,7 @@
         <v>596</v>
       </c>
       <c r="E339" t="s">
-        <v>784</v>
+        <v>825</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9063,6 +9390,9 @@
       <c r="D340" t="s">
         <v>594</v>
       </c>
+      <c r="E340" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1">
@@ -9078,7 +9408,7 @@
         <v>620</v>
       </c>
       <c r="E341" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9095,7 +9425,7 @@
         <v>596</v>
       </c>
       <c r="E342" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9112,7 +9442,7 @@
         <v>595</v>
       </c>
       <c r="E343" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9129,7 +9459,7 @@
         <v>595</v>
       </c>
       <c r="E344" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9146,7 +9476,7 @@
         <v>596</v>
       </c>
       <c r="E345" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9162,6 +9492,9 @@
       <c r="D346" t="s">
         <v>596</v>
       </c>
+      <c r="E346" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1">
@@ -9177,7 +9510,7 @@
         <v>610</v>
       </c>
       <c r="E347" t="s">
-        <v>658</v>
+        <v>832</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9194,7 +9527,7 @@
         <v>607</v>
       </c>
       <c r="E348" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9210,6 +9543,9 @@
       <c r="D349" t="s">
         <v>596</v>
       </c>
+      <c r="E349" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1">
@@ -9225,7 +9561,7 @@
         <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9242,7 +9578,7 @@
         <v>596</v>
       </c>
       <c r="E351" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9273,7 +9609,7 @@
         <v>597</v>
       </c>
       <c r="E353" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9289,6 +9625,9 @@
       <c r="D354" t="s">
         <v>596</v>
       </c>
+      <c r="E354" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
@@ -9304,7 +9643,7 @@
         <v>596</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>837</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9321,7 +9660,7 @@
         <v>600</v>
       </c>
       <c r="E356" t="s">
-        <v>794</v>
+        <v>838</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9338,7 +9677,7 @@
         <v>604</v>
       </c>
       <c r="E357" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9355,7 +9694,7 @@
         <v>595</v>
       </c>
       <c r="E358" t="s">
-        <v>796</v>
+        <v>840</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9372,7 +9711,7 @@
         <v>604</v>
       </c>
       <c r="E359" t="s">
-        <v>797</v>
+        <v>841</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9389,7 +9728,7 @@
         <v>600</v>
       </c>
       <c r="E360" t="s">
-        <v>798</v>
+        <v>842</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9405,6 +9744,9 @@
       <c r="D361" t="s">
         <v>596</v>
       </c>
+      <c r="E361" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1">
@@ -9420,7 +9762,7 @@
         <v>594</v>
       </c>
       <c r="E362" t="s">
-        <v>799</v>
+        <v>663</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9437,7 +9779,7 @@
         <v>596</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>843</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9454,7 +9796,7 @@
         <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>800</v>
+        <v>844</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9471,7 +9813,7 @@
         <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9487,6 +9829,9 @@
       <c r="D366" t="s">
         <v>596</v>
       </c>
+      <c r="E366" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1">
@@ -9502,7 +9847,7 @@
         <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9519,7 +9864,7 @@
         <v>616</v>
       </c>
       <c r="E368" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9536,7 +9881,7 @@
         <v>595</v>
       </c>
       <c r="E369" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9553,7 +9898,7 @@
         <v>595</v>
       </c>
       <c r="E370" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9570,7 +9915,7 @@
         <v>610</v>
       </c>
       <c r="E371" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9586,6 +9931,9 @@
       <c r="D372" t="s">
         <v>596</v>
       </c>
+      <c r="E372" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1">
@@ -9600,6 +9948,9 @@
       <c r="D373" t="s">
         <v>596</v>
       </c>
+      <c r="E373" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1">
@@ -9614,6 +9965,9 @@
       <c r="D374" t="s">
         <v>595</v>
       </c>
+      <c r="E374" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1">
@@ -9629,7 +9983,7 @@
         <v>595</v>
       </c>
       <c r="E375" t="s">
-        <v>806</v>
+        <v>851</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9646,7 +10000,7 @@
         <v>596</v>
       </c>
       <c r="E376" t="s">
-        <v>807</v>
+        <v>852</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9663,7 +10017,7 @@
         <v>596</v>
       </c>
       <c r="E377" t="s">
-        <v>808</v>
+        <v>853</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9680,7 +10034,7 @@
         <v>596</v>
       </c>
       <c r="E378" t="s">
-        <v>809</v>
+        <v>854</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9697,7 +10051,7 @@
         <v>604</v>
       </c>
       <c r="E379" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9714,7 +10068,7 @@
         <v>595</v>
       </c>
       <c r="E380" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9731,7 +10085,7 @@
         <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>812</v>
+        <v>857</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9748,7 +10102,7 @@
         <v>594</v>
       </c>
       <c r="E382" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9765,7 +10119,7 @@
         <v>596</v>
       </c>
       <c r="E383" t="s">
-        <v>814</v>
+        <v>859</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9782,7 +10136,7 @@
         <v>596</v>
       </c>
       <c r="E384" t="s">
-        <v>815</v>
+        <v>860</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9799,7 +10153,7 @@
         <v>607</v>
       </c>
       <c r="E385" t="s">
-        <v>705</v>
+        <v>861</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9816,7 +10170,7 @@
         <v>594</v>
       </c>
       <c r="E386" t="s">
-        <v>717</v>
+        <v>862</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9833,7 +10187,7 @@
         <v>615</v>
       </c>
       <c r="E387" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9850,7 +10204,7 @@
         <v>596</v>
       </c>
       <c r="E388" t="s">
-        <v>817</v>
+        <v>864</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9867,7 +10221,7 @@
         <v>595</v>
       </c>
       <c r="E389" t="s">
-        <v>818</v>
+        <v>865</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9884,7 +10238,7 @@
         <v>595</v>
       </c>
       <c r="E390" t="s">
-        <v>802</v>
+        <v>866</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9901,7 +10255,7 @@
         <v>588</v>
       </c>
       <c r="E391" t="s">
-        <v>819</v>
+        <v>867</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9918,7 +10272,7 @@
         <v>595</v>
       </c>
       <c r="E392" t="s">
-        <v>820</v>
+        <v>647</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9934,6 +10288,9 @@
       <c r="D393" t="s">
         <v>588</v>
       </c>
+      <c r="E393" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="1">
@@ -9949,7 +10306,7 @@
         <v>610</v>
       </c>
       <c r="E394" t="s">
-        <v>800</v>
+        <v>869</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9966,7 +10323,7 @@
         <v>595</v>
       </c>
       <c r="E395" t="s">
-        <v>821</v>
+        <v>870</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9982,6 +10339,9 @@
       <c r="D396" t="s">
         <v>596</v>
       </c>
+      <c r="E396" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="1">
@@ -9997,7 +10357,7 @@
         <v>596</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10014,7 +10374,7 @@
         <v>594</v>
       </c>
       <c r="E398" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10031,7 +10391,7 @@
         <v>595</v>
       </c>
       <c r="E399" t="s">
-        <v>823</v>
+        <v>873</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10048,7 +10408,7 @@
         <v>595</v>
       </c>
       <c r="E400" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10065,7 +10425,7 @@
         <v>598</v>
       </c>
       <c r="E401" t="s">
-        <v>667</v>
+        <v>875</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10082,7 +10442,7 @@
         <v>596</v>
       </c>
       <c r="E402" t="s">
-        <v>825</v>
+        <v>876</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10099,7 +10459,7 @@
         <v>595</v>
       </c>
       <c r="E403" t="s">
-        <v>826</v>
+        <v>877</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10116,7 +10476,7 @@
         <v>611</v>
       </c>
       <c r="E404" t="s">
-        <v>827</v>
+        <v>878</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10133,7 +10493,7 @@
         <v>594</v>
       </c>
       <c r="E405" t="s">
-        <v>828</v>
+        <v>879</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10150,7 +10510,7 @@
         <v>596</v>
       </c>
       <c r="E406" t="s">
-        <v>687</v>
+        <v>880</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10167,7 +10527,7 @@
         <v>604</v>
       </c>
       <c r="E407" t="s">
-        <v>829</v>
+        <v>881</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10184,7 +10544,7 @@
         <v>600</v>
       </c>
       <c r="E408" t="s">
-        <v>830</v>
+        <v>882</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10201,7 +10561,7 @@
         <v>596</v>
       </c>
       <c r="E409" t="s">
-        <v>831</v>
+        <v>657</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10218,7 +10578,7 @@
         <v>601</v>
       </c>
       <c r="E410" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10234,6 +10594,9 @@
       <c r="D411" t="s">
         <v>596</v>
       </c>
+      <c r="E411" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="1">
@@ -10249,7 +10612,7 @@
         <v>596</v>
       </c>
       <c r="E412" t="s">
-        <v>832</v>
+        <v>883</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10266,7 +10629,7 @@
         <v>588</v>
       </c>
       <c r="E413" t="s">
-        <v>833</v>
+        <v>884</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10283,7 +10646,7 @@
         <v>615</v>
       </c>
       <c r="E414" t="s">
-        <v>834</v>
+        <v>885</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10300,7 +10663,7 @@
         <v>594</v>
       </c>
       <c r="E415" t="s">
-        <v>835</v>
+        <v>886</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10317,7 +10680,7 @@
         <v>594</v>
       </c>
       <c r="E416" t="s">
-        <v>836</v>
+        <v>887</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10334,7 +10697,7 @@
         <v>594</v>
       </c>
       <c r="E417" t="s">
-        <v>837</v>
+        <v>888</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10350,6 +10713,9 @@
       <c r="D418" t="s">
         <v>594</v>
       </c>
+      <c r="E418" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="1">
@@ -10365,7 +10731,7 @@
         <v>596</v>
       </c>
       <c r="E419" t="s">
-        <v>679</v>
+        <v>889</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10382,7 +10748,7 @@
         <v>596</v>
       </c>
       <c r="E420" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10399,7 +10765,7 @@
         <v>588</v>
       </c>
       <c r="E421" t="s">
-        <v>839</v>
+        <v>890</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10416,7 +10782,7 @@
         <v>608</v>
       </c>
       <c r="E422" t="s">
-        <v>840</v>
+        <v>891</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10433,7 +10799,7 @@
         <v>596</v>
       </c>
       <c r="E423" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10450,7 +10816,7 @@
         <v>594</v>
       </c>
       <c r="E424" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10467,7 +10833,7 @@
         <v>621</v>
       </c>
       <c r="E425" t="s">
-        <v>843</v>
+        <v>894</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10484,7 +10850,7 @@
         <v>617</v>
       </c>
       <c r="E426" t="s">
-        <v>844</v>
+        <v>895</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10501,7 +10867,7 @@
         <v>595</v>
       </c>
       <c r="E427" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10517,6 +10883,9 @@
       <c r="D428" t="s">
         <v>588</v>
       </c>
+      <c r="E428" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="1">
@@ -10532,7 +10901,7 @@
         <v>598</v>
       </c>
       <c r="E429" t="s">
-        <v>712</v>
+        <v>898</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10549,7 +10918,7 @@
         <v>600</v>
       </c>
       <c r="E430" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10566,7 +10935,7 @@
         <v>594</v>
       </c>
       <c r="E431" t="s">
-        <v>847</v>
+        <v>900</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10583,7 +10952,7 @@
         <v>600</v>
       </c>
       <c r="E432" t="s">
-        <v>848</v>
+        <v>901</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10600,7 +10969,7 @@
         <v>596</v>
       </c>
       <c r="E433" t="s">
-        <v>849</v>
+        <v>902</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10617,7 +10986,7 @@
         <v>594</v>
       </c>
       <c r="E434" t="s">
-        <v>822</v>
+        <v>903</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10634,7 +11003,7 @@
         <v>595</v>
       </c>
       <c r="E435" t="s">
-        <v>850</v>
+        <v>745</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10651,7 +11020,7 @@
         <v>609</v>
       </c>
       <c r="E436" t="s">
-        <v>851</v>
+        <v>904</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10667,6 +11036,9 @@
       <c r="D437" t="s">
         <v>596</v>
       </c>
+      <c r="E437" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="1">
@@ -10682,7 +11054,7 @@
         <v>588</v>
       </c>
       <c r="E438" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10699,7 +11071,7 @@
         <v>594</v>
       </c>
       <c r="E439" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10716,7 +11088,7 @@
         <v>596</v>
       </c>
       <c r="E440" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10733,7 +11105,7 @@
         <v>595</v>
       </c>
       <c r="E441" t="s">
-        <v>853</v>
+        <v>906</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10750,7 +11122,7 @@
         <v>594</v>
       </c>
       <c r="E442" t="s">
-        <v>667</v>
+        <v>907</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10767,7 +11139,7 @@
         <v>595</v>
       </c>
       <c r="E443" t="s">
-        <v>831</v>
+        <v>908</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10784,7 +11156,7 @@
         <v>596</v>
       </c>
       <c r="E444" t="s">
-        <v>854</v>
+        <v>909</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10800,6 +11172,9 @@
       <c r="D445" t="s">
         <v>596</v>
       </c>
+      <c r="E445" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="1">
@@ -10815,7 +11190,7 @@
         <v>607</v>
       </c>
       <c r="E446" t="s">
-        <v>761</v>
+        <v>911</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10832,7 +11207,7 @@
         <v>595</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10848,6 +11223,9 @@
       <c r="D448" t="s">
         <v>596</v>
       </c>
+      <c r="E448" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="1">
@@ -10863,7 +11241,7 @@
         <v>596</v>
       </c>
       <c r="E449" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10879,6 +11257,9 @@
       <c r="D450" t="s">
         <v>596</v>
       </c>
+      <c r="E450" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1">
@@ -10894,7 +11275,7 @@
         <v>595</v>
       </c>
       <c r="E451" t="s">
-        <v>857</v>
+        <v>915</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10911,7 +11292,7 @@
         <v>588</v>
       </c>
       <c r="E452" t="s">
-        <v>858</v>
+        <v>916</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10927,9 +11308,6 @@
       <c r="D453" t="s">
         <v>596</v>
       </c>
-      <c r="E453" t="s">
-        <v>859</v>
-      </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1">
@@ -10945,7 +11323,7 @@
         <v>595</v>
       </c>
       <c r="E454" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10962,7 +11340,7 @@
         <v>595</v>
       </c>
       <c r="E455" t="s">
-        <v>861</v>
+        <v>653</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10978,6 +11356,9 @@
       <c r="D456" t="s">
         <v>596</v>
       </c>
+      <c r="E456" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="1">
@@ -10993,7 +11374,7 @@
         <v>596</v>
       </c>
       <c r="E457" t="s">
-        <v>862</v>
+        <v>918</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11010,7 +11391,7 @@
         <v>617</v>
       </c>
       <c r="E458" t="s">
-        <v>863</v>
+        <v>919</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11027,7 +11408,7 @@
         <v>602</v>
       </c>
       <c r="E459" t="s">
-        <v>864</v>
+        <v>920</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11044,7 +11425,7 @@
         <v>594</v>
       </c>
       <c r="E460" t="s">
-        <v>769</v>
+        <v>921</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11061,7 +11442,7 @@
         <v>597</v>
       </c>
       <c r="E461" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11078,7 +11459,7 @@
         <v>622</v>
       </c>
       <c r="E462" t="s">
-        <v>866</v>
+        <v>922</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11095,7 +11476,7 @@
         <v>600</v>
       </c>
       <c r="E463" t="s">
-        <v>678</v>
+        <v>923</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11111,6 +11492,9 @@
       <c r="D464" t="s">
         <v>596</v>
       </c>
+      <c r="E464" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="1">
@@ -11126,7 +11510,7 @@
         <v>594</v>
       </c>
       <c r="E465" t="s">
-        <v>867</v>
+        <v>668</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11143,7 +11527,7 @@
         <v>594</v>
       </c>
       <c r="E466" t="s">
-        <v>868</v>
+        <v>924</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11160,7 +11544,7 @@
         <v>596</v>
       </c>
       <c r="E467" t="s">
-        <v>869</v>
+        <v>925</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11177,7 +11561,7 @@
         <v>596</v>
       </c>
       <c r="E468" t="s">
-        <v>838</v>
+        <v>667</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11194,7 +11578,7 @@
         <v>596</v>
       </c>
       <c r="E469" t="s">
-        <v>870</v>
+        <v>714</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11211,7 +11595,7 @@
         <v>597</v>
       </c>
       <c r="E470" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11228,7 +11612,7 @@
         <v>601</v>
       </c>
       <c r="E471" t="s">
-        <v>872</v>
+        <v>927</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11245,7 +11629,7 @@
         <v>600</v>
       </c>
       <c r="E472" t="s">
-        <v>873</v>
+        <v>928</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11262,7 +11646,7 @@
         <v>596</v>
       </c>
       <c r="E473" t="s">
-        <v>679</v>
+        <v>843</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11279,7 +11663,7 @@
         <v>623</v>
       </c>
       <c r="E474" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11295,6 +11679,9 @@
       <c r="D475" t="s">
         <v>596</v>
       </c>
+      <c r="E475" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="1">
@@ -11310,7 +11697,7 @@
         <v>596</v>
       </c>
       <c r="E476" t="s">
-        <v>769</v>
+        <v>930</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11327,7 +11714,7 @@
         <v>596</v>
       </c>
       <c r="E477" t="s">
-        <v>875</v>
+        <v>931</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11344,7 +11731,7 @@
         <v>596</v>
       </c>
       <c r="E478" t="s">
-        <v>876</v>
+        <v>932</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11361,7 +11748,7 @@
         <v>600</v>
       </c>
       <c r="E479" t="s">
-        <v>877</v>
+        <v>933</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11378,7 +11765,7 @@
         <v>600</v>
       </c>
       <c r="E480" t="s">
-        <v>878</v>
+        <v>934</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11395,7 +11782,7 @@
         <v>595</v>
       </c>
       <c r="E481" t="s">
-        <v>879</v>
+        <v>935</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11412,7 +11799,7 @@
         <v>621</v>
       </c>
       <c r="E482" t="s">
-        <v>880</v>
+        <v>936</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11429,7 +11816,7 @@
         <v>595</v>
       </c>
       <c r="E483" t="s">
-        <v>881</v>
+        <v>937</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11446,7 +11833,7 @@
         <v>596</v>
       </c>
       <c r="E484" t="s">
-        <v>882</v>
+        <v>653</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11463,7 +11850,7 @@
         <v>600</v>
       </c>
       <c r="E485" t="s">
-        <v>883</v>
+        <v>938</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11480,7 +11867,7 @@
         <v>613</v>
       </c>
       <c r="E486" t="s">
-        <v>884</v>
+        <v>667</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11496,9 +11883,6 @@
       <c r="D487" t="s">
         <v>596</v>
       </c>
-      <c r="E487" t="s">
-        <v>885</v>
-      </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="1">
@@ -11514,7 +11898,7 @@
         <v>601</v>
       </c>
       <c r="E488" t="s">
-        <v>676</v>
+        <v>939</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11530,6 +11914,9 @@
       <c r="D489" t="s">
         <v>595</v>
       </c>
+      <c r="E489" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="1">
@@ -11545,7 +11932,7 @@
         <v>608</v>
       </c>
       <c r="E490" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11562,7 +11949,7 @@
         <v>595</v>
       </c>
       <c r="E491" t="s">
-        <v>886</v>
+        <v>667</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11579,7 +11966,7 @@
         <v>596</v>
       </c>
       <c r="E492" t="s">
-        <v>887</v>
+        <v>941</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11596,7 +11983,7 @@
         <v>615</v>
       </c>
       <c r="E493" t="s">
-        <v>888</v>
+        <v>942</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11613,7 +12000,7 @@
         <v>594</v>
       </c>
       <c r="E494" t="s">
-        <v>706</v>
+        <v>943</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11629,6 +12016,9 @@
       <c r="D495" t="s">
         <v>595</v>
       </c>
+      <c r="E495" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="1">
@@ -11644,7 +12034,7 @@
         <v>596</v>
       </c>
       <c r="E496" t="s">
-        <v>838</v>
+        <v>653</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11661,7 +12051,7 @@
         <v>608</v>
       </c>
       <c r="E497" t="s">
-        <v>889</v>
+        <v>945</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11677,6 +12067,9 @@
       <c r="D498" t="s">
         <v>596</v>
       </c>
+      <c r="E498" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="1">
@@ -11692,7 +12085,7 @@
         <v>594</v>
       </c>
       <c r="E499" t="s">
-        <v>667</v>
+        <v>947</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11709,7 +12102,7 @@
         <v>595</v>
       </c>
       <c r="E500" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11726,7 +12119,7 @@
         <v>595</v>
       </c>
       <c r="E501" t="s">
-        <v>891</v>
+        <v>949</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11743,7 +12136,7 @@
         <v>592</v>
       </c>
       <c r="E502" t="s">
-        <v>892</v>
+        <v>950</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11760,7 +12153,7 @@
         <v>596</v>
       </c>
       <c r="E503" t="s">
-        <v>893</v>
+        <v>951</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11777,7 +12170,7 @@
         <v>588</v>
       </c>
       <c r="E504" t="s">
-        <v>687</v>
+        <v>952</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11794,7 +12187,7 @@
         <v>588</v>
       </c>
       <c r="E505" t="s">
-        <v>894</v>
+        <v>653</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11811,7 +12204,7 @@
         <v>601</v>
       </c>
       <c r="E506" t="s">
-        <v>895</v>
+        <v>953</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11828,7 +12221,7 @@
         <v>588</v>
       </c>
       <c r="E507" t="s">
-        <v>834</v>
+        <v>954</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11845,7 +12238,7 @@
         <v>596</v>
       </c>
       <c r="E508" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11861,6 +12254,9 @@
       <c r="D509" t="s">
         <v>596</v>
       </c>
+      <c r="E509" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="1">
@@ -11876,7 +12272,7 @@
         <v>601</v>
       </c>
       <c r="E510" t="s">
-        <v>897</v>
+        <v>956</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11893,7 +12289,7 @@
         <v>594</v>
       </c>
       <c r="E511" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11910,7 +12306,7 @@
         <v>596</v>
       </c>
       <c r="E512" t="s">
-        <v>898</v>
+        <v>957</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11927,7 +12323,7 @@
         <v>600</v>
       </c>
       <c r="E513" t="s">
-        <v>899</v>
+        <v>958</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11943,6 +12339,9 @@
       <c r="D514" t="s">
         <v>595</v>
       </c>
+      <c r="E514" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="1">
@@ -11957,6 +12356,9 @@
       <c r="D515" t="s">
         <v>596</v>
       </c>
+      <c r="E515" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="1">
@@ -11972,7 +12374,7 @@
         <v>596</v>
       </c>
       <c r="E516" t="s">
-        <v>695</v>
+        <v>854</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11989,7 +12391,7 @@
         <v>596</v>
       </c>
       <c r="E517" t="s">
-        <v>668</v>
+        <v>960</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12006,7 +12408,7 @@
         <v>595</v>
       </c>
       <c r="E518" t="s">
-        <v>695</v>
+        <v>961</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12023,7 +12425,7 @@
         <v>596</v>
       </c>
       <c r="E519" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12040,7 +12442,7 @@
         <v>594</v>
       </c>
       <c r="E520" t="s">
-        <v>667</v>
+        <v>962</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12057,7 +12459,7 @@
         <v>595</v>
       </c>
       <c r="E521" t="s">
-        <v>699</v>
+        <v>963</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12073,9 +12475,6 @@
       <c r="D522" t="s">
         <v>588</v>
       </c>
-      <c r="E522" t="s">
-        <v>901</v>
-      </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="1">
@@ -12091,7 +12490,7 @@
         <v>588</v>
       </c>
       <c r="E523" t="s">
-        <v>687</v>
+        <v>964</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12108,7 +12507,7 @@
         <v>607</v>
       </c>
       <c r="E524" t="s">
-        <v>902</v>
+        <v>965</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12125,7 +12524,7 @@
         <v>595</v>
       </c>
       <c r="E525" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12142,7 +12541,7 @@
         <v>588</v>
       </c>
       <c r="E526" t="s">
-        <v>699</v>
+        <v>967</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12159,7 +12558,7 @@
         <v>616</v>
       </c>
       <c r="E527" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12176,7 +12575,7 @@
         <v>596</v>
       </c>
       <c r="E528" t="s">
-        <v>904</v>
+        <v>635</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12193,7 +12592,7 @@
         <v>596</v>
       </c>
       <c r="E529" t="s">
-        <v>905</v>
+        <v>667</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12210,7 +12609,7 @@
         <v>595</v>
       </c>
       <c r="E530" t="s">
-        <v>906</v>
+        <v>968</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12227,7 +12626,7 @@
         <v>594</v>
       </c>
       <c r="E531" t="s">
-        <v>717</v>
+        <v>862</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12243,6 +12642,9 @@
       <c r="D532" t="s">
         <v>596</v>
       </c>
+      <c r="E532" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="1">
@@ -12258,7 +12660,7 @@
         <v>588</v>
       </c>
       <c r="E533" t="s">
-        <v>687</v>
+        <v>817</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12275,7 +12677,7 @@
         <v>597</v>
       </c>
       <c r="E534" t="s">
-        <v>667</v>
+        <v>969</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12292,7 +12694,7 @@
         <v>595</v>
       </c>
       <c r="E535" t="s">
-        <v>907</v>
+        <v>970</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12309,7 +12711,7 @@
         <v>594</v>
       </c>
       <c r="E536" t="s">
-        <v>712</v>
+        <v>971</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12326,7 +12728,7 @@
         <v>601</v>
       </c>
       <c r="E537" t="s">
-        <v>908</v>
+        <v>667</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12343,7 +12745,7 @@
         <v>588</v>
       </c>
       <c r="E538" t="s">
-        <v>737</v>
+        <v>972</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12360,7 +12762,7 @@
         <v>624</v>
       </c>
       <c r="E539" t="s">
-        <v>909</v>
+        <v>973</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12377,7 +12779,7 @@
         <v>588</v>
       </c>
       <c r="E540" t="s">
-        <v>910</v>
+        <v>974</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12408,7 +12810,7 @@
         <v>588</v>
       </c>
       <c r="E542" t="s">
-        <v>699</v>
+        <v>975</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12425,7 +12827,7 @@
         <v>594</v>
       </c>
       <c r="E543" t="s">
-        <v>911</v>
+        <v>753</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12442,7 +12844,7 @@
         <v>596</v>
       </c>
       <c r="E544" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12458,6 +12860,9 @@
       <c r="D545" t="s">
         <v>596</v>
       </c>
+      <c r="E545" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="1">
@@ -12473,7 +12878,7 @@
         <v>588</v>
       </c>
       <c r="E546" t="s">
-        <v>913</v>
+        <v>977</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12490,7 +12895,7 @@
         <v>596</v>
       </c>
       <c r="E547" t="s">
-        <v>759</v>
+        <v>803</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12507,7 +12912,7 @@
         <v>596</v>
       </c>
       <c r="E548" t="s">
-        <v>796</v>
+        <v>978</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12524,7 +12929,7 @@
         <v>598</v>
       </c>
       <c r="E549" t="s">
-        <v>737</v>
+        <v>979</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12540,6 +12945,9 @@
       <c r="D550" t="s">
         <v>596</v>
       </c>
+      <c r="E550" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="1">
@@ -12555,7 +12963,7 @@
         <v>596</v>
       </c>
       <c r="E551" t="s">
-        <v>914</v>
+        <v>980</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12572,7 +12980,7 @@
         <v>607</v>
       </c>
       <c r="E552" t="s">
-        <v>915</v>
+        <v>714</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12589,7 +12997,7 @@
         <v>595</v>
       </c>
       <c r="E553" t="s">
-        <v>916</v>
+        <v>723</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12606,7 +13014,7 @@
         <v>596</v>
       </c>
       <c r="E554" t="s">
-        <v>917</v>
+        <v>714</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12623,7 +13031,7 @@
         <v>594</v>
       </c>
       <c r="E555" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12640,7 +13048,7 @@
         <v>594</v>
       </c>
       <c r="E556" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12657,7 +13065,7 @@
         <v>596</v>
       </c>
       <c r="E557" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12674,7 +13082,7 @@
         <v>604</v>
       </c>
       <c r="E558" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12691,7 +13099,7 @@
         <v>594</v>
       </c>
       <c r="E559" t="s">
-        <v>873</v>
+        <v>985</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12708,7 +13116,7 @@
         <v>607</v>
       </c>
       <c r="E560" t="s">
-        <v>922</v>
+        <v>986</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12725,7 +13133,7 @@
         <v>610</v>
       </c>
       <c r="E561" t="s">
-        <v>923</v>
+        <v>987</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12742,7 +13150,7 @@
         <v>600</v>
       </c>
       <c r="E562" t="s">
-        <v>640</v>
+        <v>767</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12759,7 +13167,7 @@
         <v>595</v>
       </c>
       <c r="E563" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12776,7 +13184,7 @@
         <v>596</v>
       </c>
       <c r="E564" t="s">
-        <v>687</v>
+        <v>988</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12793,7 +13201,7 @@
         <v>610</v>
       </c>
       <c r="E565" t="s">
-        <v>925</v>
+        <v>989</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12810,7 +13218,7 @@
         <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>926</v>
+        <v>990</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12827,7 +13235,7 @@
         <v>595</v>
       </c>
       <c r="E567" t="s">
-        <v>927</v>
+        <v>991</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12844,7 +13252,7 @@
         <v>594</v>
       </c>
       <c r="E568" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12861,7 +13269,7 @@
         <v>596</v>
       </c>
       <c r="E569" t="s">
-        <v>928</v>
+        <v>992</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12878,7 +13286,7 @@
         <v>596</v>
       </c>
       <c r="E570" t="s">
-        <v>765</v>
+        <v>993</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12894,6 +13302,9 @@
       <c r="D571" t="s">
         <v>595</v>
       </c>
+      <c r="E571" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="1">
@@ -12909,7 +13320,7 @@
         <v>594</v>
       </c>
       <c r="E572" t="s">
-        <v>828</v>
+        <v>994</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12926,7 +13337,7 @@
         <v>609</v>
       </c>
       <c r="E573" t="s">
-        <v>929</v>
+        <v>817</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12943,7 +13354,7 @@
         <v>601</v>
       </c>
       <c r="E574" t="s">
-        <v>930</v>
+        <v>995</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12974,7 +13385,7 @@
         <v>594</v>
       </c>
       <c r="E576" t="s">
-        <v>873</v>
+        <v>996</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12991,7 +13402,7 @@
         <v>625</v>
       </c>
       <c r="E577" t="s">
-        <v>931</v>
+        <v>997</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -13007,9 +13418,6 @@
       <c r="D578" t="s">
         <v>604</v>
       </c>
-      <c r="E578" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="1">
@@ -13025,7 +13433,7 @@
         <v>595</v>
       </c>
       <c r="E579" t="s">
-        <v>933</v>
+        <v>998</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -13042,7 +13450,7 @@
         <v>612</v>
       </c>
       <c r="E580" t="s">
-        <v>934</v>
+        <v>999</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -13059,7 +13467,7 @@
         <v>588</v>
       </c>
       <c r="E581" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -13076,7 +13484,7 @@
         <v>626</v>
       </c>
       <c r="E582" t="s">
-        <v>935</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -13093,7 +13501,7 @@
         <v>595</v>
       </c>
       <c r="E583" t="s">
-        <v>936</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -13110,7 +13518,7 @@
         <v>600</v>
       </c>
       <c r="E584" t="s">
-        <v>937</v>
+        <v>878</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -13127,7 +13535,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>938</v>
+        <v>653</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -13144,7 +13552,7 @@
         <v>594</v>
       </c>
       <c r="E586" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13160,6 +13568,9 @@
       <c r="D587" t="s">
         <v>596</v>
       </c>
+      <c r="E587" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="1">
@@ -13175,7 +13586,7 @@
         <v>595</v>
       </c>
       <c r="E588" t="s">
-        <v>939</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13192,7 +13603,7 @@
         <v>595</v>
       </c>
       <c r="E589" t="s">
-        <v>687</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13209,7 +13620,7 @@
         <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>940</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13226,7 +13637,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>873</v>
+        <v>780</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13243,7 +13654,7 @@
         <v>609</v>
       </c>
       <c r="E592" t="s">
-        <v>941</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13260,7 +13671,7 @@
         <v>606</v>
       </c>
       <c r="E593" t="s">
-        <v>942</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13277,7 +13688,7 @@
         <v>588</v>
       </c>
       <c r="E594" t="s">
-        <v>919</v>
+        <v>715</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13294,7 +13705,7 @@
         <v>603</v>
       </c>
       <c r="E595" t="s">
-        <v>942</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13310,6 +13721,9 @@
       <c r="D596" t="s">
         <v>596</v>
       </c>
+      <c r="E596" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="1">
@@ -13325,7 +13739,7 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>941</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13342,7 +13756,7 @@
         <v>588</v>
       </c>
       <c r="E598" t="s">
-        <v>943</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13359,7 +13773,7 @@
         <v>601</v>
       </c>
       <c r="E599" t="s">
-        <v>944</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13376,7 +13790,7 @@
         <v>627</v>
       </c>
       <c r="E600" t="s">
-        <v>945</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13393,7 +13807,7 @@
         <v>596</v>
       </c>
       <c r="E601" t="s">
-        <v>946</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13410,7 +13824,7 @@
         <v>594</v>
       </c>
       <c r="E602" t="s">
-        <v>947</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13426,6 +13840,9 @@
       <c r="D603" t="s">
         <v>596</v>
       </c>
+      <c r="E603" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="1">
@@ -13441,7 +13858,7 @@
         <v>595</v>
       </c>
       <c r="E604" t="s">
-        <v>769</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13458,7 +13875,7 @@
         <v>596</v>
       </c>
       <c r="E605" t="s">
-        <v>948</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13475,7 +13892,7 @@
         <v>596</v>
       </c>
       <c r="E606" t="s">
-        <v>949</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13492,7 +13909,7 @@
         <v>598</v>
       </c>
       <c r="E607" t="s">
-        <v>950</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13509,7 +13926,7 @@
         <v>596</v>
       </c>
       <c r="E608" t="s">
-        <v>905</v>
+        <v>667</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13526,7 +13943,7 @@
         <v>594</v>
       </c>
       <c r="E609" t="s">
-        <v>951</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13543,7 +13960,7 @@
         <v>595</v>
       </c>
       <c r="E610" t="s">
-        <v>952</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13559,6 +13976,9 @@
       <c r="D611" t="s">
         <v>596</v>
       </c>
+      <c r="E611" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="1">
@@ -13574,7 +13994,7 @@
         <v>609</v>
       </c>
       <c r="E612" t="s">
-        <v>737</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13590,6 +14010,9 @@
       <c r="D613" t="s">
         <v>596</v>
       </c>
+      <c r="E613" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="1">
@@ -13605,7 +14028,7 @@
         <v>604</v>
       </c>
       <c r="E614" t="s">
-        <v>953</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -13622,7 +14045,7 @@
         <v>592</v>
       </c>
       <c r="E615" t="s">
-        <v>892</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13639,7 +14062,7 @@
         <v>601</v>
       </c>
       <c r="E616" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13656,7 +14079,7 @@
         <v>628</v>
       </c>
       <c r="E617" t="s">
-        <v>873</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13672,6 +14095,9 @@
       <c r="D618" t="s">
         <v>594</v>
       </c>
+      <c r="E618" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="1">
@@ -13687,7 +14113,7 @@
         <v>596</v>
       </c>
       <c r="E619" t="s">
-        <v>955</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13704,7 +14130,7 @@
         <v>596</v>
       </c>
       <c r="E620" t="s">
-        <v>956</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13734,6 +14160,9 @@
       <c r="D622" t="s">
         <v>588</v>
       </c>
+      <c r="E622" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="1">
@@ -13748,6 +14177,9 @@
       <c r="D623" t="s">
         <v>596</v>
       </c>
+      <c r="E623" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="1">
@@ -13762,6 +14194,9 @@
       <c r="D624" t="s">
         <v>596</v>
       </c>
+      <c r="E624" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="1">
@@ -13777,7 +14212,7 @@
         <v>592</v>
       </c>
       <c r="E625" t="s">
-        <v>957</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13794,7 +14229,7 @@
         <v>595</v>
       </c>
       <c r="E626" t="s">
-        <v>672</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -13810,6 +14245,9 @@
       <c r="D627" t="s">
         <v>596</v>
       </c>
+      <c r="E627" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="1">
@@ -13825,7 +14263,7 @@
         <v>598</v>
       </c>
       <c r="E628" t="s">
-        <v>667</v>
+        <v>875</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13841,6 +14279,9 @@
       <c r="D629" t="s">
         <v>596</v>
       </c>
+      <c r="E629" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="1">
@@ -13856,7 +14297,7 @@
         <v>598</v>
       </c>
       <c r="E630" t="s">
-        <v>892</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13873,7 +14314,7 @@
         <v>588</v>
       </c>
       <c r="E631" t="s">
-        <v>901</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13889,6 +14330,9 @@
       <c r="D632" t="s">
         <v>588</v>
       </c>
+      <c r="E632" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="1">
@@ -13904,7 +14348,7 @@
         <v>595</v>
       </c>
       <c r="E633" t="s">
-        <v>958</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13921,7 +14365,7 @@
         <v>594</v>
       </c>
       <c r="E634" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13938,7 +14382,7 @@
         <v>607</v>
       </c>
       <c r="E635" t="s">
-        <v>959</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13955,7 +14399,7 @@
         <v>596</v>
       </c>
       <c r="E636" t="s">
-        <v>699</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13972,7 +14416,7 @@
         <v>588</v>
       </c>
       <c r="E637" t="s">
-        <v>960</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13989,7 +14433,7 @@
         <v>595</v>
       </c>
       <c r="E638" t="s">
-        <v>838</v>
+        <v>667</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -14006,7 +14450,7 @@
         <v>595</v>
       </c>
       <c r="E639" t="s">
-        <v>961</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -14023,7 +14467,7 @@
         <v>594</v>
       </c>
       <c r="E640" t="s">
-        <v>706</v>
+        <v>943</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -14040,7 +14484,7 @@
         <v>600</v>
       </c>
       <c r="E641" t="s">
-        <v>658</v>
+        <v>926</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -14057,7 +14501,7 @@
         <v>596</v>
       </c>
       <c r="E642" t="s">
-        <v>962</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14074,7 +14518,7 @@
         <v>596</v>
       </c>
       <c r="E643" t="s">
-        <v>658</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -14091,7 +14535,7 @@
         <v>596</v>
       </c>
       <c r="E644" t="s">
-        <v>963</v>
+        <v>653</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -14108,7 +14552,7 @@
         <v>596</v>
       </c>
       <c r="E645" t="s">
-        <v>964</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14125,7 +14569,7 @@
         <v>595</v>
       </c>
       <c r="E646" t="s">
-        <v>965</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14142,7 +14586,7 @@
         <v>595</v>
       </c>
       <c r="E647" t="s">
-        <v>966</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14159,7 +14603,7 @@
         <v>621</v>
       </c>
       <c r="E648" t="s">
-        <v>967</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -14176,7 +14620,7 @@
         <v>596</v>
       </c>
       <c r="E649" t="s">
-        <v>968</v>
+        <v>809</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14193,7 +14637,7 @@
         <v>600</v>
       </c>
       <c r="E650" t="s">
-        <v>969</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14210,7 +14654,7 @@
         <v>588</v>
       </c>
       <c r="E651" t="s">
-        <v>970</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -14227,7 +14671,7 @@
         <v>596</v>
       </c>
       <c r="E652" t="s">
-        <v>745</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -14244,7 +14688,7 @@
         <v>594</v>
       </c>
       <c r="E653" t="s">
-        <v>971</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14261,7 +14705,7 @@
         <v>594</v>
       </c>
       <c r="E654" t="s">
-        <v>972</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14278,7 +14722,7 @@
         <v>629</v>
       </c>
       <c r="E655" t="s">
-        <v>973</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14295,7 +14739,7 @@
         <v>603</v>
       </c>
       <c r="E656" t="s">
-        <v>734</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14326,7 +14770,7 @@
         <v>594</v>
       </c>
       <c r="E658" t="s">
-        <v>974</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14343,7 +14787,7 @@
         <v>594</v>
       </c>
       <c r="E659" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14360,7 +14804,7 @@
         <v>594</v>
       </c>
       <c r="E660" t="s">
-        <v>975</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14377,7 +14821,7 @@
         <v>592</v>
       </c>
       <c r="E661" t="s">
-        <v>976</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14393,6 +14837,9 @@
       <c r="D662" t="s">
         <v>607</v>
       </c>
+      <c r="E662" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="1">
@@ -14408,7 +14855,7 @@
         <v>588</v>
       </c>
       <c r="E663" t="s">
-        <v>854</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14425,7 +14872,7 @@
         <v>598</v>
       </c>
       <c r="E664" t="s">
-        <v>977</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14442,7 +14889,7 @@
         <v>596</v>
       </c>
       <c r="E665" t="s">
-        <v>699</v>
+        <v>963</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14458,6 +14905,9 @@
       <c r="D666" t="s">
         <v>596</v>
       </c>
+      <c r="E666" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="1">
@@ -14473,7 +14923,7 @@
         <v>594</v>
       </c>
       <c r="E667" t="s">
-        <v>978</v>
+        <v>715</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -14490,7 +14940,7 @@
         <v>594</v>
       </c>
       <c r="E668" t="s">
-        <v>979</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14507,7 +14957,7 @@
         <v>599</v>
       </c>
       <c r="E669" t="s">
-        <v>980</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14524,7 +14974,7 @@
         <v>595</v>
       </c>
       <c r="E670" t="s">
-        <v>981</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14541,7 +14991,7 @@
         <v>596</v>
       </c>
       <c r="E671" t="s">
-        <v>982</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -14558,7 +15008,7 @@
         <v>595</v>
       </c>
       <c r="E672" t="s">
-        <v>983</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14575,7 +15025,7 @@
         <v>630</v>
       </c>
       <c r="E673" t="s">
-        <v>984</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14592,7 +15042,7 @@
         <v>594</v>
       </c>
       <c r="E674" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14609,7 +15059,7 @@
         <v>588</v>
       </c>
       <c r="E675" t="s">
-        <v>737</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14626,7 +15076,7 @@
         <v>595</v>
       </c>
       <c r="E676" t="s">
-        <v>985</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14643,7 +15093,7 @@
         <v>616</v>
       </c>
       <c r="E677" t="s">
-        <v>986</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14660,7 +15110,7 @@
         <v>616</v>
       </c>
       <c r="E678" t="s">
-        <v>987</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14677,7 +15127,7 @@
         <v>631</v>
       </c>
       <c r="E679" t="s">
-        <v>988</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14694,7 +15144,7 @@
         <v>596</v>
       </c>
       <c r="E680" t="s">
-        <v>941</v>
+        <v>902</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14711,7 +15161,7 @@
         <v>596</v>
       </c>
       <c r="E681" t="s">
-        <v>989</v>
+        <v>940</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14727,6 +15177,9 @@
       <c r="D682" t="s">
         <v>588</v>
       </c>
+      <c r="E682" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="1">
@@ -14742,7 +15195,7 @@
         <v>588</v>
       </c>
       <c r="E683" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14759,7 +15212,7 @@
         <v>588</v>
       </c>
       <c r="E684" t="s">
-        <v>901</v>
+        <v>653</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14776,7 +15229,7 @@
         <v>588</v>
       </c>
       <c r="E685" t="s">
-        <v>901</v>
+        <v>653</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14793,7 +15246,7 @@
         <v>588</v>
       </c>
       <c r="E686" t="s">
-        <v>901</v>
+        <v>653</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -14810,7 +15263,7 @@
         <v>588</v>
       </c>
       <c r="E687" t="s">
-        <v>990</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14827,7 +15280,7 @@
         <v>588</v>
       </c>
       <c r="E688" t="s">
-        <v>991</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -14844,7 +15297,7 @@
         <v>588</v>
       </c>
       <c r="E689" t="s">
-        <v>901</v>
+        <v>653</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -14861,7 +15314,7 @@
         <v>588</v>
       </c>
       <c r="E690" t="s">
-        <v>737</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14877,6 +15330,9 @@
       <c r="D691" t="s">
         <v>588</v>
       </c>
+      <c r="E691" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="1">
@@ -14892,7 +15348,7 @@
         <v>588</v>
       </c>
       <c r="E692" t="s">
-        <v>992</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -14909,7 +15365,7 @@
         <v>588</v>
       </c>
       <c r="E693" t="s">
-        <v>993</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -14926,7 +15382,7 @@
         <v>588</v>
       </c>
       <c r="E694" t="s">
-        <v>994</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -14943,7 +15399,7 @@
         <v>588</v>
       </c>
       <c r="E695" t="s">
-        <v>995</v>
+        <v>697</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -14960,7 +15416,7 @@
         <v>588</v>
       </c>
       <c r="E696" t="s">
-        <v>737</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14977,7 +15433,7 @@
         <v>588</v>
       </c>
       <c r="E697" t="s">
-        <v>737</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14994,7 +15450,7 @@
         <v>588</v>
       </c>
       <c r="E698" t="s">
-        <v>737</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -15011,7 +15467,7 @@
         <v>588</v>
       </c>
       <c r="E699" t="s">
-        <v>996</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -15028,7 +15484,7 @@
         <v>588</v>
       </c>
       <c r="E700" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/lda.xlsx
+++ b/lda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1030">
   <si>
     <t>id</t>
   </si>
@@ -1912,1354 +1912,1198 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>price|place|time|u|rice|</t>
-  </si>
-  <si>
-    <t>food|high|price|pay|going|view|u|rice|</t>
-  </si>
-  <si>
-    <t>food|high|price|bad|rice|</t>
-  </si>
-  <si>
-    <t>food|price|rice|</t>
-  </si>
-  <si>
-    <t>food|high|price|would|good|u|rice|</t>
-  </si>
-  <si>
-    <t>great|place|u|value|</t>
-  </si>
-  <si>
-    <t>food|price|reasonably|flavorful|plentiful|u|rice|</t>
-  </si>
-  <si>
-    <t>relaxed|atmosphere|casual|u|</t>
-  </si>
-  <si>
-    <t>price|u|rice||amazing</t>
-  </si>
-  <si>
-    <t>u|value||amazing</t>
-  </si>
-  <si>
-    <t>high|price|u|rice|</t>
-  </si>
-  <si>
-    <t>food|price|service|great|good|rice|</t>
-  </si>
-  <si>
-    <t>food|price|bad|u|rice|</t>
-  </si>
-  <si>
-    <t>service|great|place|pizza||amazing</t>
-  </si>
-  <si>
-    <t>food|high|price|u|rice|</t>
-  </si>
-  <si>
-    <t>price|u|rice|</t>
-  </si>
-  <si>
-    <t>price|friendly|u|id|rice|</t>
-  </si>
-  <si>
-    <t>place|like|staff|u|</t>
-  </si>
-  <si>
-    <t>food|portion|u|salty|</t>
-  </si>
-  <si>
-    <t>food|always|way|good|time|u|</t>
-  </si>
-  <si>
-    <t>always|duck|world|way|u||amazing</t>
-  </si>
-  <si>
-    <t>u|</t>
-  </si>
-  <si>
-    <t>price|service|u|rice|</t>
-  </si>
-  <si>
-    <t>always|service|decor|way|cool|u||ever</t>
-  </si>
-  <si>
-    <t>duck|u|</t>
-  </si>
-  <si>
-    <t>food|u||ever</t>
-  </si>
-  <si>
-    <t>tasty|u|though||ever</t>
-  </si>
-  <si>
-    <t>really|place|decor|u|</t>
-  </si>
-  <si>
-    <t>great|good|u|</t>
-  </si>
-  <si>
-    <t>service|great|u|id|</t>
-  </si>
-  <si>
-    <t>food|bad|</t>
-  </si>
-  <si>
-    <t>friendly|service|attentive|</t>
-  </si>
-  <si>
-    <t>relaxed|</t>
-  </si>
-  <si>
-    <t>service|bad|taste|u||ever</t>
-  </si>
-  <si>
-    <t>like|bad|u|little|id|</t>
-  </si>
-  <si>
-    <t>food|u|</t>
-  </si>
-  <si>
-    <t>service|</t>
-  </si>
-  <si>
-    <t>sea|sushi|u|</t>
-  </si>
-  <si>
-    <t>portion|sushi|u|one|</t>
-  </si>
-  <si>
-    <t>fish|try|good|id|rice|</t>
-  </si>
-  <si>
-    <t>price|sushi|u|rice|</t>
-  </si>
-  <si>
-    <t>food|service|</t>
-  </si>
-  <si>
-    <t>get|u||menu|ever</t>
-  </si>
-  <si>
-    <t>food|tasty|u|</t>
-  </si>
-  <si>
-    <t>get|bad|u|dish|</t>
-  </si>
-  <si>
-    <t>food|good|</t>
-  </si>
-  <si>
-    <t>like|u|</t>
-  </si>
-  <si>
-    <t>service|nice|time|</t>
-  </si>
-  <si>
-    <t>food|like|u|bland|</t>
-  </si>
-  <si>
-    <t>casual|best|nice|would|u|lunch|</t>
-  </si>
-  <si>
-    <t>view|u|id||ever</t>
-  </si>
-  <si>
-    <t>food|price|service|great|u|rice|even|</t>
-  </si>
-  <si>
-    <t>terrible|</t>
-  </si>
-  <si>
-    <t>u|small|</t>
-  </si>
-  <si>
-    <t>get|u|</t>
-  </si>
-  <si>
-    <t>food|way|french|u|</t>
-  </si>
-  <si>
-    <t>pizza|u|even|</t>
-  </si>
-  <si>
-    <t>price|pizza|rice|</t>
-  </si>
-  <si>
-    <t>get|good|pizza|u|one|even|</t>
-  </si>
-  <si>
-    <t>|worst</t>
-  </si>
-  <si>
-    <t>food|always|great|way|sea|good|u|wine||menu|ever|amazing</t>
-  </si>
-  <si>
-    <t>really|u|dish|</t>
-  </si>
-  <si>
-    <t>portion|great|best|u|id||ever</t>
-  </si>
-  <si>
-    <t>always|friendly|staff|way|u||ever</t>
-  </si>
-  <si>
-    <t>food|portion|service|great|decor|u|</t>
-  </si>
-  <si>
-    <t>place|</t>
-  </si>
-  <si>
-    <t>u|hostess|</t>
-  </si>
-  <si>
-    <t>food|bland|</t>
-  </si>
-  <si>
-    <t>food|always|service|great|place|way|time|wine|</t>
-  </si>
-  <si>
-    <t>get|would|u|</t>
-  </si>
-  <si>
-    <t>service|fast|great|</t>
-  </si>
-  <si>
-    <t>get|always|friendly|new|way|time|u|</t>
-  </si>
-  <si>
-    <t>like|pizza|u|</t>
-  </si>
-  <si>
-    <t>way|pizza|u|</t>
-  </si>
-  <si>
-    <t>good|view|u|lunch|</t>
-  </si>
-  <si>
-    <t>food|u|id|</t>
-  </si>
-  <si>
-    <t>friendly|service|great|</t>
-  </si>
-  <si>
-    <t>service|bad|pizza|</t>
-  </si>
-  <si>
-    <t>new|best|sushi|u|</t>
-  </si>
-  <si>
-    <t>food|place|u|small|</t>
-  </si>
-  <si>
-    <t>price|atmosphere|great|u|rice|</t>
-  </si>
-  <si>
-    <t>food|service|u||amazing</t>
-  </si>
-  <si>
-    <t>great|u|</t>
-  </si>
-  <si>
-    <t>u|id|</t>
-  </si>
-  <si>
-    <t>food|best|french|good|u|</t>
-  </si>
-  <si>
-    <t>like|best|taste|pizza|u|</t>
-  </si>
-  <si>
-    <t>food|great|view|u|</t>
-  </si>
-  <si>
-    <t>high|service|nice|id|</t>
-  </si>
-  <si>
-    <t>u|salty|</t>
-  </si>
-  <si>
-    <t>always|way|good|u|</t>
-  </si>
-  <si>
-    <t>staff|attentive|u|</t>
-  </si>
-  <si>
-    <t>u||ever</t>
-  </si>
-  <si>
-    <t>friendly|u|</t>
-  </si>
-  <si>
-    <t>bad|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|world|way|cool|u|id|even|</t>
-  </si>
-  <si>
-    <t>service|u|</t>
-  </si>
-  <si>
-    <t>food|service|bad|</t>
-  </si>
-  <si>
-    <t>pizza|u|</t>
-  </si>
-  <si>
-    <t>get|nice|would|u||menu|selection</t>
-  </si>
-  <si>
-    <t>best|staff|u|</t>
-  </si>
-  <si>
-    <t>food|fast|u||worst</t>
-  </si>
-  <si>
-    <t>staff|</t>
-  </si>
-  <si>
-    <t>bagel|better|would|u|</t>
-  </si>
-  <si>
-    <t>service|attentive|good|u|</t>
-  </si>
-  <si>
-    <t>food|get|good|u|id|though||selection</t>
-  </si>
-  <si>
-    <t>pleasant|french|u|though|</t>
-  </si>
-  <si>
-    <t>always|way|sea|u|though|even|</t>
-  </si>
-  <si>
-    <t>food|good|u|id|though|</t>
-  </si>
-  <si>
-    <t>great|decor|id||ever</t>
-  </si>
-  <si>
-    <t>atmosphere|time|</t>
-  </si>
-  <si>
-    <t>best|</t>
-  </si>
-  <si>
-    <t>food|really|cool|served|u|drink|</t>
-  </si>
-  <si>
-    <t>place|decor|good|u|id|</t>
-  </si>
-  <si>
-    <t>food|u|dish|</t>
-  </si>
-  <si>
-    <t>great|u|dinner|</t>
-  </si>
-  <si>
-    <t>bagel|small|</t>
-  </si>
-  <si>
-    <t>get|cream|bagel|u|little|</t>
-  </si>
-  <si>
-    <t>food|service|time|u|</t>
-  </si>
-  <si>
-    <t>high|u|</t>
-  </si>
-  <si>
-    <t>fish|pizza|u|</t>
-  </si>
-  <si>
-    <t>food|high|service|u|</t>
-  </si>
-  <si>
-    <t>staff|u|</t>
-  </si>
-  <si>
-    <t>really|u|bland|</t>
-  </si>
-  <si>
-    <t>sushi|u|id|</t>
-  </si>
-  <si>
-    <t>price|service|u|though|rice|</t>
-  </si>
-  <si>
-    <t>fish||amazing</t>
-  </si>
-  <si>
-    <t>great|</t>
-  </si>
-  <si>
-    <t>atmosphere|like|u|id|</t>
-  </si>
-  <si>
-    <t>good|u|though|</t>
-  </si>
-  <si>
-    <t>bad|</t>
-  </si>
-  <si>
-    <t>great|u|though|</t>
-  </si>
-  <si>
-    <t>really|sushi|good|u|</t>
-  </si>
-  <si>
-    <t>price|best|u|rice|</t>
-  </si>
-  <si>
-    <t>good|u|</t>
-  </si>
-  <si>
-    <t>food|going|u||menu|limited|ever</t>
-  </si>
-  <si>
-    <t>food|price|service|great|rice|</t>
-  </si>
-  <si>
-    <t>atmosphere|fast|u|</t>
-  </si>
-  <si>
-    <t>price|dish|rice|</t>
-  </si>
-  <si>
-    <t>high|great|u|</t>
-  </si>
-  <si>
-    <t>nice|tasty|goat|u|</t>
-  </si>
-  <si>
-    <t>served|time|dish|</t>
-  </si>
-  <si>
-    <t>food|place|staff|u|</t>
-  </si>
-  <si>
-    <t>u|even|</t>
-  </si>
-  <si>
-    <t>food|get|service|bad|good|time|</t>
-  </si>
-  <si>
-    <t>atmosphere|place|served|u|wine|dish|</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza|</t>
-  </si>
-  <si>
-    <t>goat|u|little|though|</t>
-  </si>
-  <si>
-    <t>better|taste|pizza|u|</t>
-  </si>
-  <si>
-    <t>friendly|service|u|</t>
-  </si>
-  <si>
-    <t>place|nice|</t>
-  </si>
-  <si>
-    <t>pizza|terrific|</t>
-  </si>
-  <si>
-    <t>service|u|impeccable|</t>
-  </si>
-  <si>
-    <t>food|pay|u|</t>
-  </si>
-  <si>
-    <t>like|taste|u|</t>
-  </si>
-  <si>
-    <t>service|great|</t>
-  </si>
-  <si>
-    <t>food|service|view|time|u|</t>
-  </si>
-  <si>
-    <t>u|dish|</t>
-  </si>
-  <si>
-    <t>like|</t>
-  </si>
-  <si>
-    <t>sushi|u||amazing</t>
-  </si>
-  <si>
-    <t>place|good|</t>
-  </si>
-  <si>
-    <t>place|good|u||ever</t>
-  </si>
-  <si>
-    <t>really|service|place|pizza|u|wine|</t>
-  </si>
-  <si>
-    <t>place|try|nice|u|one||ever</t>
-  </si>
-  <si>
-    <t>place|sea|view|</t>
-  </si>
-  <si>
-    <t>u|one|bland|</t>
-  </si>
-  <si>
-    <t>fish|one|</t>
-  </si>
-  <si>
-    <t>one|</t>
-  </si>
-  <si>
-    <t>service|fish|bad|u||ever</t>
-  </si>
-  <si>
-    <t>way|pizza|</t>
-  </si>
-  <si>
-    <t>service|place|cool|u|</t>
-  </si>
-  <si>
-    <t>food|atmosphere|service|great|try|pleasant|u|</t>
-  </si>
-  <si>
-    <t>food|</t>
-  </si>
-  <si>
-    <t>service|staff|u|impeccable||menu</t>
-  </si>
-  <si>
-    <t>new|try|u|</t>
-  </si>
-  <si>
-    <t>service|view|u|</t>
-  </si>
-  <si>
-    <t>service|staff|impeccable|</t>
-  </si>
-  <si>
-    <t>new|good|u|</t>
-  </si>
-  <si>
-    <t>good|</t>
-  </si>
-  <si>
-    <t>food|get|like|u|</t>
-  </si>
-  <si>
-    <t>food|service|terrific|</t>
-  </si>
-  <si>
-    <t>always|portion|way|u|</t>
-  </si>
-  <si>
-    <t>food|get|u|wine||menu|selection|amazing</t>
-  </si>
-  <si>
-    <t>food|price|get|great|like|good|u|rice||menu</t>
-  </si>
-  <si>
-    <t>u||menu|limited</t>
-  </si>
-  <si>
-    <t>u|one|</t>
-  </si>
-  <si>
-    <t>place|u|</t>
-  </si>
-  <si>
-    <t>food|great|u|</t>
-  </si>
-  <si>
-    <t>really|portion|</t>
-  </si>
-  <si>
-    <t>new|staff|</t>
-  </si>
-  <si>
-    <t>food|portion|good|u|</t>
-  </si>
-  <si>
-    <t>really|</t>
-  </si>
-  <si>
-    <t>food|get|service|u|though|</t>
-  </si>
-  <si>
-    <t>great|place|pizza|u|lunch|</t>
-  </si>
-  <si>
-    <t>great|pizza|</t>
-  </si>
-  <si>
-    <t>fast|</t>
-  </si>
-  <si>
-    <t>friendly|service|fast|great|sea|sushi|u|</t>
-  </si>
-  <si>
-    <t>best|bagel|id|</t>
-  </si>
-  <si>
-    <t>always|bagel|way|u|size|id|</t>
-  </si>
-  <si>
-    <t>great|cream|u||selection</t>
-  </si>
-  <si>
-    <t>always|way|</t>
-  </si>
-  <si>
-    <t>service|great|nice|u|</t>
-  </si>
-  <si>
-    <t>food|like|taste|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|like|sushi|u|</t>
-  </si>
-  <si>
-    <t>food|u|one||menu|limited|ever</t>
-  </si>
-  <si>
-    <t>food|price|service|u|rice|</t>
-  </si>
-  <si>
-    <t>|ever|worst</t>
-  </si>
-  <si>
-    <t>service|good|wine|</t>
-  </si>
-  <si>
-    <t>food|u|dish||menu|ever</t>
-  </si>
-  <si>
-    <t>sea|u|one|</t>
-  </si>
-  <si>
-    <t>food|price|u|wine|rice|</t>
-  </si>
-  <si>
-    <t>food|service|time|u|value||ever</t>
-  </si>
-  <si>
-    <t>best|pizza|</t>
-  </si>
-  <si>
-    <t>great|staff|</t>
-  </si>
-  <si>
-    <t>always|service|great|way|</t>
-  </si>
-  <si>
-    <t>u|hostess|id||ever</t>
-  </si>
-  <si>
-    <t>best|u|dish|</t>
-  </si>
-  <si>
-    <t>get|u|dish||selection</t>
-  </si>
-  <si>
-    <t>service|decor|nice|u|though|</t>
-  </si>
-  <si>
-    <t>food|id|</t>
-  </si>
-  <si>
-    <t>fish|taste|rice|</t>
-  </si>
-  <si>
-    <t>sushi|u||ever|worst</t>
-  </si>
-  <si>
-    <t>sushi|u|one||worst</t>
-  </si>
-  <si>
-    <t>sushi|u|</t>
-  </si>
-  <si>
-    <t>fish|u|rice||menu|limited</t>
-  </si>
-  <si>
-    <t>really|fish|taste|u|rice|even|salty|</t>
-  </si>
-  <si>
-    <t>nice|staff|u|though|</t>
-  </si>
-  <si>
-    <t>service|time|u|</t>
-  </si>
-  <si>
-    <t>would|u|dinner|</t>
-  </si>
-  <si>
-    <t>u||worst</t>
-  </si>
-  <si>
-    <t>way|u|</t>
-  </si>
-  <si>
-    <t>service|attentive|</t>
-  </si>
-  <si>
-    <t>food|atmosphere|drink|</t>
-  </si>
-  <si>
-    <t>price|try|u|rice|</t>
-  </si>
-  <si>
-    <t>food|portion|great|u|small|</t>
-  </si>
-  <si>
-    <t>like|id|</t>
-  </si>
-  <si>
-    <t>atmosphere|u|</t>
-  </si>
-  <si>
-    <t>sea|u|</t>
-  </si>
-  <si>
-    <t>great|nice|staff|u|</t>
-  </si>
-  <si>
-    <t>food|portion|tasty|size|</t>
-  </si>
-  <si>
-    <t>fish|</t>
-  </si>
-  <si>
-    <t>friendly|staff|</t>
-  </si>
-  <si>
-    <t>u|dish||menu|limited</t>
-  </si>
-  <si>
-    <t>great|good|</t>
-  </si>
-  <si>
-    <t>service|good|u|</t>
-  </si>
-  <si>
-    <t>food|high|price|sea|good|u|though|rice|even|</t>
-  </si>
-  <si>
-    <t>price|good|u|though|rice|</t>
-  </si>
-  <si>
-    <t>food|service|u|</t>
-  </si>
-  <si>
-    <t>attentive|u|</t>
-  </si>
-  <si>
-    <t>food|place|view|u|</t>
-  </si>
-  <si>
-    <t>fish|u|</t>
-  </si>
-  <si>
-    <t>food|nice|</t>
-  </si>
-  <si>
-    <t>always|try|way|sea|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|great|would|view|u|</t>
-  </si>
-  <si>
-    <t>food|great|place|good|</t>
-  </si>
-  <si>
-    <t>like|staff|u|little|</t>
-  </si>
-  <si>
-    <t>terrible|service|served||ever</t>
-  </si>
-  <si>
-    <t>way|u|dinner|</t>
-  </si>
-  <si>
-    <t>good|pizza|</t>
-  </si>
-  <si>
-    <t>decor|</t>
-  </si>
-  <si>
-    <t>food|price|really|great|tasty|u|rice|</t>
-  </si>
-  <si>
-    <t>like|sea|would|u|</t>
-  </si>
-  <si>
-    <t>service|u||ever|worst</t>
-  </si>
-  <si>
-    <t>friendly|atmosphere|service|good|u|dish|</t>
-  </si>
-  <si>
-    <t>food|staff|u|drink||ever</t>
-  </si>
-  <si>
-    <t>food|price|great|reasonably|rice|</t>
-  </si>
-  <si>
-    <t>try|nice|u|id|</t>
-  </si>
-  <si>
-    <t>really|nice|staff|u|</t>
-  </si>
-  <si>
-    <t>like|staff|u||ever</t>
-  </si>
-  <si>
-    <t>relaxed|staff|time|u|id|</t>
-  </si>
-  <si>
-    <t>high|service|u|one|</t>
-  </si>
-  <si>
-    <t>|ever</t>
-  </si>
-  <si>
-    <t>friendly|staff|u|</t>
-  </si>
-  <si>
-    <t>cool|u|</t>
-  </si>
-  <si>
-    <t>nice|u||selection</t>
-  </si>
-  <si>
-    <t>food|tasty|u|dish|</t>
-  </si>
-  <si>
-    <t>service|good|</t>
-  </si>
-  <si>
-    <t>nice||ever</t>
-  </si>
-  <si>
-    <t>food|would|u|</t>
-  </si>
-  <si>
-    <t>like|u|id|</t>
-  </si>
-  <si>
-    <t>food|really|place|u|</t>
-  </si>
-  <si>
-    <t>food|way|time|u|dish|</t>
-  </si>
-  <si>
-    <t>place|good|u|</t>
-  </si>
-  <si>
-    <t>food|u|lunch|</t>
-  </si>
-  <si>
-    <t>nice|pizza|u||ever</t>
-  </si>
-  <si>
-    <t>pleasant|u|personal|</t>
-  </si>
-  <si>
-    <t>portion|best|french|u|id|even||ever</t>
-  </si>
-  <si>
-    <t>food|get|place|u|</t>
-  </si>
-  <si>
-    <t>food|service|great|good|u|size||menu</t>
-  </si>
-  <si>
-    <t>cream|best|tasty|u|dish||ever|amazing</t>
-  </si>
-  <si>
-    <t>fast|best|</t>
-  </si>
-  <si>
-    <t>sushi|u||ever</t>
-  </si>
-  <si>
-    <t>food|terrible|good|u|</t>
-  </si>
-  <si>
-    <t>nice|</t>
-  </si>
-  <si>
-    <t>food|new|good|u|drink|dish|</t>
-  </si>
-  <si>
-    <t>food|service|great|</t>
-  </si>
-  <si>
-    <t>really|great|like|good|u|id|</t>
-  </si>
-  <si>
-    <t>food|friendly|service|u|</t>
-  </si>
-  <si>
-    <t>fish|u||menu</t>
-  </si>
-  <si>
-    <t>really|fish|</t>
-  </si>
-  <si>
-    <t>price|better|pizza|rice|even|terrific|</t>
-  </si>
-  <si>
-    <t>high|pizza|</t>
-  </si>
-  <si>
-    <t>food|service|best|u||ever</t>
-  </si>
-  <si>
-    <t>food|service|great|place|u|id|</t>
-  </si>
-  <si>
-    <t>sushi|time|u|little|bland|</t>
-  </si>
-  <si>
-    <t>service|great|decor|u|</t>
-  </si>
-  <si>
-    <t>food|world|sushi|u|</t>
-  </si>
-  <si>
-    <t>always|service|best|way|attentive|u|</t>
-  </si>
-  <si>
-    <t>bland|small|</t>
-  </si>
-  <si>
-    <t>u||menu</t>
-  </si>
-  <si>
-    <t>like|way|taste|u|dish|</t>
-  </si>
-  <si>
-    <t>food|atmosphere|nice|u|</t>
-  </si>
-  <si>
-    <t>staff|attentive|</t>
-  </si>
-  <si>
-    <t>really|like|mahi|u|</t>
-  </si>
-  <si>
-    <t>food|great|place|good|u|id|even|</t>
-  </si>
-  <si>
-    <t>bad|u|one|</t>
-  </si>
-  <si>
-    <t>service|bad|u|</t>
-  </si>
-  <si>
-    <t>u|one|personal|drink|</t>
-  </si>
-  <si>
-    <t>price|way|taste|rice|</t>
-  </si>
-  <si>
-    <t>food|atmosphere|service|u|</t>
-  </si>
-  <si>
-    <t>food|best||ever</t>
-  </si>
-  <si>
-    <t>place|u|id|</t>
-  </si>
-  <si>
-    <t>food|good|u|drink|dish|</t>
-  </si>
-  <si>
-    <t>great|place|u|</t>
-  </si>
-  <si>
-    <t>great|sushi|u|</t>
-  </si>
-  <si>
-    <t>really|great|bagel|tasty|good||ever|selection</t>
-  </si>
-  <si>
-    <t>pizza|u|one|</t>
-  </si>
-  <si>
-    <t>nice|pizza|u|one|</t>
-  </si>
-  <si>
-    <t>world|cream|u|</t>
-  </si>
-  <si>
-    <t>bad|u|rice|</t>
-  </si>
-  <si>
-    <t>sea|sushi|u|bland|rice|</t>
-  </si>
-  <si>
-    <t>service|fast|good|</t>
-  </si>
-  <si>
-    <t>food|great|</t>
-  </si>
-  <si>
-    <t>place|u|even|</t>
-  </si>
-  <si>
-    <t>pay|great|like|u|</t>
-  </si>
-  <si>
-    <t>pizza|</t>
-  </si>
-  <si>
-    <t>great||ever</t>
-  </si>
-  <si>
-    <t>try|u||menu</t>
-  </si>
-  <si>
-    <t>food|service|good|u|</t>
-  </si>
-  <si>
-    <t>try|good|u|id|</t>
-  </si>
-  <si>
-    <t>pleasant|staff|way|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|best|u|</t>
-  </si>
-  <si>
-    <t>get|great|u|drink|</t>
-  </si>
-  <si>
-    <t>taste|good|u|</t>
-  </si>
-  <si>
-    <t>great|u|id|</t>
-  </si>
-  <si>
-    <t>food|better|</t>
-  </si>
-  <si>
-    <t>casual|u|</t>
-  </si>
-  <si>
-    <t>cream|try|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|like|u|</t>
-  </si>
-  <si>
-    <t>one|wine|</t>
-  </si>
-  <si>
-    <t>service|place|better|served|would|u|</t>
-  </si>
-  <si>
-    <t>terrible|u|</t>
-  </si>
-  <si>
-    <t>bagel|u|</t>
-  </si>
-  <si>
-    <t>price|great|u|though|rice|</t>
-  </si>
-  <si>
-    <t>friendly|service|fast|</t>
-  </si>
-  <si>
-    <t>food|best|u|id|though|</t>
-  </si>
-  <si>
-    <t>place|like|staff|time|u|</t>
-  </si>
-  <si>
-    <t>food|place|</t>
-  </si>
-  <si>
-    <t>service|great|place|u|dinner||ever</t>
-  </si>
-  <si>
-    <t>really|bagel|u|little|</t>
-  </si>
-  <si>
-    <t>great|bagel|way|one|</t>
-  </si>
-  <si>
-    <t>food|u||amazing</t>
-  </si>
-  <si>
-    <t>best|u||ever</t>
-  </si>
-  <si>
-    <t>attentive|</t>
-  </si>
-  <si>
-    <t>good|small|</t>
-  </si>
-  <si>
-    <t>get|friendly|service|u|one||ever</t>
-  </si>
-  <si>
-    <t>portion|world|u|one|</t>
-  </si>
-  <si>
-    <t>price|reasonably|u|wine|rice|</t>
-  </si>
-  <si>
-    <t>food|service|great|decor|</t>
-  </si>
-  <si>
-    <t>food|great|cool|</t>
-  </si>
-  <si>
-    <t>plentiful|u|</t>
-  </si>
-  <si>
-    <t>food|sea|taste|u|</t>
-  </si>
-  <si>
-    <t>place|best|</t>
-  </si>
-  <si>
-    <t>dish|id|rice|</t>
-  </si>
-  <si>
-    <t>high|world|u|id||ever</t>
-  </si>
-  <si>
-    <t>food|friendly|service|tasty|u|</t>
-  </si>
-  <si>
-    <t>food|friendly|service|fast|best|tasty|u|</t>
-  </si>
-  <si>
-    <t>like||ever</t>
-  </si>
-  <si>
-    <t>friendly|sea|u|terrific|</t>
-  </si>
-  <si>
-    <t>food|price|great|good|wine|rice|</t>
-  </si>
-  <si>
-    <t>food|atmosphere|service|great|better|u|</t>
-  </si>
-  <si>
-    <t>food|good|time|</t>
-  </si>
-  <si>
-    <t>get|friendly|service||ever</t>
-  </si>
-  <si>
-    <t>food|u|bland|</t>
-  </si>
-  <si>
-    <t>pizza|little|</t>
-  </si>
-  <si>
-    <t>price|good|u|rice||ever</t>
-  </si>
-  <si>
-    <t>atmosphere|service|like||ever</t>
-  </si>
-  <si>
-    <t>always|friendly|way|</t>
-  </si>
-  <si>
-    <t>food|good|u|</t>
-  </si>
-  <si>
-    <t>best||ever</t>
-  </si>
-  <si>
-    <t>atmosphere|good|u|</t>
-  </si>
-  <si>
-    <t>fish|sea|taste|goat|u|one|bland||ever</t>
-  </si>
-  <si>
-    <t>atmosphere|service|pleasant|nice|good|</t>
-  </si>
-  <si>
-    <t>food|pizza|u||amazing</t>
-  </si>
-  <si>
-    <t>friendly|service|fast|best|u|</t>
-  </si>
-  <si>
-    <t>nice|u|</t>
-  </si>
-  <si>
-    <t>place|try||amazing</t>
-  </si>
-  <si>
-    <t>really|u|</t>
-  </si>
-  <si>
-    <t>food|good||ever</t>
-  </si>
-  <si>
-    <t>food|best|one|</t>
-  </si>
-  <si>
-    <t>food|service|decor|nice|good|u|</t>
-  </si>
-  <si>
-    <t>best|u|rice|</t>
-  </si>
-  <si>
-    <t>food|best|</t>
-  </si>
-  <si>
-    <t>atmosphere|service|best|</t>
-  </si>
-  <si>
-    <t>try|sea|u|id|</t>
-  </si>
-  <si>
-    <t>portion|sushi|good|u|size|</t>
-  </si>
-  <si>
-    <t>decor|served|u|id|</t>
-  </si>
-  <si>
-    <t>great|u||ever</t>
-  </si>
-  <si>
-    <t>decor|u|</t>
-  </si>
-  <si>
-    <t>food|portion|good|u|small|</t>
-  </si>
-  <si>
-    <t>food|price|great|rice|</t>
-  </si>
-  <si>
-    <t>food|service|great|one|</t>
-  </si>
-  <si>
-    <t>get|always|way|dish||ever</t>
-  </si>
-  <si>
-    <t>like|try|u|</t>
-  </si>
-  <si>
-    <t>food|price|good|rice|</t>
-  </si>
-  <si>
-    <t>food|price|service|great|good|u|rice|</t>
-  </si>
-  <si>
-    <t>always|service|way|good|drink|</t>
-  </si>
-  <si>
-    <t>relaxed|atmosphere|nice|</t>
-  </si>
-  <si>
-    <t>tasty|</t>
-  </si>
-  <si>
-    <t>sea|u|wine|id|</t>
-  </si>
-  <si>
-    <t>get|would|u|one|drink|even|</t>
-  </si>
-  <si>
-    <t>food|price|service|staff|good|u|rice|</t>
-  </si>
-  <si>
-    <t>food|price|service|new|u|id|though|rice|</t>
-  </si>
-  <si>
-    <t>service|u|personal|</t>
-  </si>
-  <si>
-    <t>friendly|attentive|u|</t>
-  </si>
-  <si>
-    <t>food|relaxed|service|great|</t>
-  </si>
-  <si>
-    <t>food|new|like|good|view|even|terrific|</t>
-  </si>
-  <si>
-    <t>high|would|u|</t>
-  </si>
-  <si>
-    <t>service|place|like|would|good|u|though|</t>
-  </si>
-  <si>
-    <t>u|size|personal|</t>
-  </si>
-  <si>
-    <t>always|way|u||ever</t>
-  </si>
-  <si>
-    <t>place|nice|u|</t>
-  </si>
-  <si>
-    <t>good|pizza|u|</t>
-  </si>
-  <si>
-    <t>food|portion|u|size|</t>
-  </si>
-  <si>
-    <t>cream|would|tasty|pizza|u|little|</t>
-  </si>
-  <si>
-    <t>service|decor|good|u|wine||selection</t>
-  </si>
-  <si>
-    <t>atmosphere|like|</t>
-  </si>
-  <si>
-    <t>going|u|</t>
-  </si>
-  <si>
-    <t>service|great|staff|good|u|</t>
-  </si>
-  <si>
-    <t>always|way|u|little|though|even||amazing</t>
-  </si>
-  <si>
-    <t>new|best|pizza|u||menu</t>
-  </si>
-  <si>
-    <t>nice|view|</t>
-  </si>
-  <si>
-    <t>nice|id|</t>
-  </si>
-  <si>
-    <t>great|nice|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|</t>
-  </si>
-  <si>
-    <t>new|u|</t>
-  </si>
-  <si>
-    <t>atmosphere|place|small||amazing</t>
-  </si>
-  <si>
-    <t>atmosphere|great|place|nice|</t>
-  </si>
-  <si>
-    <t>new|place|u|value||worst</t>
-  </si>
-  <si>
-    <t>atmosphere||amazing</t>
-  </si>
-  <si>
-    <t>atmosphere|great|decor|u|</t>
+    <t>place|price|time|rice</t>
+  </si>
+  <si>
+    <t>food|price|high|view|going|rice</t>
+  </si>
+  <si>
+    <t>food|price|high|rice</t>
+  </si>
+  <si>
+    <t>food|price|rice</t>
+  </si>
+  <si>
+    <t>food|good|would|price|high|rice</t>
+  </si>
+  <si>
+    <t>great|place|value</t>
+  </si>
+  <si>
+    <t>food|price|flavorful|plentiful|reasonably|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|relaxed|casual</t>
+  </si>
+  <si>
+    <t>price|amazing|rice</t>
+  </si>
+  <si>
+    <t>value|amazing</t>
+  </si>
+  <si>
+    <t>price|high|rice</t>
+  </si>
+  <si>
+    <t>food|good|great|service|price|rice</t>
+  </si>
+  <si>
+    <t>great|service|place|pizza|amazing|cozy</t>
+  </si>
+  <si>
+    <t>price|absolutely|appropriate|moderate|rice</t>
+  </si>
+  <si>
+    <t>price|friendly|rice</t>
+  </si>
+  <si>
+    <t>like|place|staff|rude</t>
+  </si>
+  <si>
+    <t>food|portion</t>
+  </si>
+  <si>
+    <t>food|good|time|always</t>
+  </si>
+  <si>
+    <t>world|amazing|always</t>
+  </si>
+  <si>
+    <t>family|rude</t>
+  </si>
+  <si>
+    <t>service|price|rice</t>
+  </si>
+  <si>
+    <t>service|decor|always|excellent|ever</t>
+  </si>
+  <si>
+    <t>food|ever</t>
+  </si>
+  <si>
+    <t>moderate|enjoy</t>
+  </si>
+  <si>
+    <t>never|ever</t>
+  </si>
+  <si>
+    <t>place|decor</t>
+  </si>
+  <si>
+    <t>good|great|spicy|roll|tempura</t>
+  </si>
+  <si>
+    <t>great|service</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>service|friendly</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>service|ever</t>
+  </si>
+  <si>
+    <t>like|waiter</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>restaurant|sushi</t>
+  </si>
+  <si>
+    <t>sushi|fresh|portion</t>
+  </si>
+  <si>
+    <t>good|fish|rice</t>
+  </si>
+  <si>
+    <t>well|worth|price|sushi|rice</t>
+  </si>
+  <si>
+    <t>well|food|service</t>
+  </si>
+  <si>
+    <t>worth|ever</t>
+  </si>
+  <si>
+    <t>food|fresh</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>food|good</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>service|time|nice</t>
+  </si>
+  <si>
+    <t>like|food|bland|spicy</t>
+  </si>
+  <si>
+    <t>best|would|nice|casual</t>
+  </si>
+  <si>
+    <t>view|ever</t>
+  </si>
+  <si>
+    <t>food|great|service|price|rice|even</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>restaurant|cozy</t>
+  </si>
+  <si>
+    <t>pizza|even</t>
+  </si>
+  <si>
+    <t>price|pizza|rice</t>
+  </si>
+  <si>
+    <t>good|pizza|even</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>food|good|great|amazing|always|ever</t>
+  </si>
+  <si>
+    <t>dish|delicious|fresh</t>
+  </si>
+  <si>
+    <t>best|great|portion|ever</t>
+  </si>
+  <si>
+    <t>well|never|friendly|always|staff|enjoy|ever</t>
+  </si>
+  <si>
+    <t>food|great|service|delicious|decor|portion|excellent</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>food|great|service|place|time|always</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>time|friendly|always</t>
+  </si>
+  <si>
+    <t>like|pizza</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>good|view</t>
+  </si>
+  <si>
+    <t>great|service|friendly</t>
+  </si>
+  <si>
+    <t>service|pizza</t>
+  </si>
+  <si>
+    <t>best|sushi</t>
+  </si>
+  <si>
+    <t>food|place</t>
+  </si>
+  <si>
+    <t>great|atmosphere|price|rice</t>
+  </si>
+  <si>
+    <t>garden|enjoy</t>
+  </si>
+  <si>
+    <t>food|service|amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>best|food|good</t>
+  </si>
+  <si>
+    <t>like|best|pizza|fresh</t>
+  </si>
+  <si>
+    <t>food|great|view</t>
+  </si>
+  <si>
+    <t>service|high|nice|recommend</t>
+  </si>
+  <si>
+    <t>excellent|lobster</t>
+  </si>
+  <si>
+    <t>price|rice</t>
+  </si>
+  <si>
+    <t>good|always</t>
+  </si>
+  <si>
+    <t>food|delicious|beautiful</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>world|atmosphere|wonderful|away|even</t>
+  </si>
+  <si>
+    <t>food|service</t>
+  </si>
+  <si>
+    <t>delicious|pizza|fresh</t>
+  </si>
+  <si>
+    <t>selection|would|nice</t>
+  </si>
+  <si>
+    <t>best|staff</t>
+  </si>
+  <si>
+    <t>food|restaurant|salad</t>
+  </si>
+  <si>
+    <t>would|bagel</t>
+  </si>
+  <si>
+    <t>good|service</t>
+  </si>
+  <si>
+    <t>well|food|good|selection</t>
+  </si>
+  <si>
+    <t>restaurant|always|even</t>
+  </si>
+  <si>
+    <t>food|good|fresh</t>
+  </si>
+  <si>
+    <t>great|decor|ever</t>
+  </si>
+  <si>
+    <t>atmosphere|time|salad|lobster</t>
+  </si>
+  <si>
+    <t>best|meal</t>
+  </si>
+  <si>
+    <t>food|delicious|made</t>
+  </si>
+  <si>
+    <t>good|place|decor|made</t>
+  </si>
+  <si>
+    <t>food|dish|delicious|made|recommend</t>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>absolutely|bagel</t>
+  </si>
+  <si>
+    <t>food|service|time</t>
+  </si>
+  <si>
+    <t>high|fresh|roll|recommend|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad|enjoy|fish</t>
+  </si>
+  <si>
+    <t>food|service|high|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>absolutely|staff</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>sushi|roll</t>
+  </si>
+  <si>
+    <t>delicious|ever</t>
+  </si>
+  <si>
+    <t>delicious|fresh|salad|spicy</t>
+  </si>
+  <si>
+    <t>amazing|fish</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great|salad</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>best|price|rice|spicy|roll</t>
+  </si>
+  <si>
+    <t>well|good</t>
+  </si>
+  <si>
+    <t>food|going|ever</t>
+  </si>
+  <si>
+    <t>food|great|service|price|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|waiter</t>
+  </si>
+  <si>
+    <t>dish|price|rice</t>
+  </si>
+  <si>
+    <t>well|great|high</t>
+  </si>
+  <si>
+    <t>nice|salad|enjoy</t>
+  </si>
+  <si>
+    <t>dish|time|fresh|pasta</t>
+  </si>
+  <si>
+    <t>food|place|delicious|absolutely|staff</t>
+  </si>
+  <si>
+    <t>want|enjoy|even</t>
+  </si>
+  <si>
+    <t>food|good|service|time</t>
+  </si>
+  <si>
+    <t>place|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>good|place|pizza|cozy|nice</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>food|delicious</t>
+  </si>
+  <si>
+    <t>pizza|pasta|made</t>
+  </si>
+  <si>
+    <t>food|restaurant|service|time|view|excellent</t>
+  </si>
+  <si>
+    <t>dish|filet</t>
+  </si>
+  <si>
+    <t>sushi|amazing</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>good|meal|place</t>
+  </si>
+  <si>
+    <t>good|place|ever</t>
+  </si>
+  <si>
+    <t>service|place|pizza|made|excellent</t>
+  </si>
+  <si>
+    <t>restaurant|place|nice|ever</t>
+  </si>
+  <si>
+    <t>place|view</t>
+  </si>
+  <si>
+    <t>meal|bland|made</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>service|never|delicious|fresh|fish|ever</t>
+  </si>
+  <si>
+    <t>pizza|away|family</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>food|restaurant|great|service|atmosphere</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>meal|service|staff</t>
+  </si>
+  <si>
+    <t>restaurant|meal|enjoy</t>
+  </si>
+  <si>
+    <t>service|wonderful|view</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>good|lobster</t>
+  </si>
+  <si>
+    <t>like|food|spicy</t>
+  </si>
+  <si>
+    <t>always|portion</t>
+  </si>
+  <si>
+    <t>food|selection|amazing</t>
+  </si>
+  <si>
+    <t>like|food|good|great|price|rice</t>
+  </si>
+  <si>
+    <t>restaurant|never|family|ever</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>food|good|portion</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great|place|pizza</t>
+  </si>
+  <si>
+    <t>great|pizza</t>
+  </si>
+  <si>
+    <t>great|service|sushi|friendly|excellent</t>
+  </si>
+  <si>
+    <t>best|bagel</t>
+  </si>
+  <si>
+    <t>outside|always|bagel</t>
+  </si>
+  <si>
+    <t>great|selection|salad</t>
+  </si>
+  <si>
+    <t>fresh|always</t>
+  </si>
+  <si>
+    <t>great|service|nice</t>
+  </si>
+  <si>
+    <t>like|food|restaurant</t>
+  </si>
+  <si>
+    <t>like|atmosphere|sushi</t>
+  </si>
+  <si>
+    <t>food|fresh|ever</t>
+  </si>
+  <si>
+    <t>food|service|price|rice</t>
+  </si>
+  <si>
+    <t>food|never|dish|delicious|ever</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>food|service|value|time|ever</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>best|pizza</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>great|service|always</t>
+  </si>
+  <si>
+    <t>rude|ever</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>selection|dish</t>
+  </si>
+  <si>
+    <t>service|decor|nice</t>
+  </si>
+  <si>
+    <t>fresh|fish|rice</t>
+  </si>
+  <si>
+    <t>sushi|ever</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>fish|rice|even</t>
+  </si>
+  <si>
+    <t>nice|staff</t>
+  </si>
+  <si>
+    <t>service|time|rude</t>
+  </si>
+  <si>
+    <t>meal|delicious|away|beautiful</t>
+  </si>
+  <si>
+    <t>food|atmosphere</t>
+  </si>
+  <si>
+    <t>food|great|portion</t>
+  </si>
+  <si>
+    <t>like|sandwich</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>food|appropriate|portion</t>
+  </si>
+  <si>
+    <t>fresh|fish</t>
+  </si>
+  <si>
+    <t>friendly|staff</t>
+  </si>
+  <si>
+    <t>dish|excellent</t>
+  </si>
+  <si>
+    <t>good|great|lobster|sandwich</t>
+  </si>
+  <si>
+    <t>food|good|price|high|rice|even</t>
+  </si>
+  <si>
+    <t>good|price|rice|lobster|sandwich</t>
+  </si>
+  <si>
+    <t>food|service|delicious</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>food|place|view</t>
+  </si>
+  <si>
+    <t>fish|recommend</t>
+  </si>
+  <si>
+    <t>food|waiter|nice</t>
+  </si>
+  <si>
+    <t>food|excellent|ever</t>
+  </si>
+  <si>
+    <t>delicious|always</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would|view</t>
+  </si>
+  <si>
+    <t>food|good|great|place</t>
+  </si>
+  <si>
+    <t>like|staff</t>
+  </si>
+  <si>
+    <t>service|terrible|ever</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>good|pizza</t>
+  </si>
+  <si>
+    <t>meal|delicious|salad</t>
+  </si>
+  <si>
+    <t>decor</t>
+  </si>
+  <si>
+    <t>food|great|price|rice</t>
+  </si>
+  <si>
+    <t>like|would|recommend</t>
+  </si>
+  <si>
+    <t>restaurant|service|ever</t>
+  </si>
+  <si>
+    <t>good|service|atmosphere|dish|delicious|friendly|excellent</t>
+  </si>
+  <si>
+    <t>food|wonderful|staff|ever</t>
+  </si>
+  <si>
+    <t>food|great|price|reasonably|rice</t>
+  </si>
+  <si>
+    <t>outside|nice</t>
+  </si>
+  <si>
+    <t>like|caviar|staff|enjoy|ever</t>
+  </si>
+  <si>
+    <t>time|relaxed|staff|made</t>
+  </si>
+  <si>
+    <t>service|delicious|high|caviar|want|recommend</t>
+  </si>
+  <si>
+    <t>fresh|made|ever</t>
+  </si>
+  <si>
+    <t>meal|friendly|staff|enjoy</t>
+  </si>
+  <si>
+    <t>food|dish</t>
+  </si>
+  <si>
+    <t>well|worth</t>
+  </si>
+  <si>
+    <t>selection|nice</t>
+  </si>
+  <si>
+    <t>nice|excellent|ever</t>
+  </si>
+  <si>
+    <t>food|would|recommend</t>
+  </si>
+  <si>
+    <t>like|made</t>
+  </si>
+  <si>
+    <t>food|restaurant|place</t>
+  </si>
+  <si>
+    <t>food|dish|time|away|spicy</t>
+  </si>
+  <si>
+    <t>good|place|want</t>
+  </si>
+  <si>
+    <t>never|pizza|nice|excellent|spicy|ever</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>lobster|sandwich</t>
+  </si>
+  <si>
+    <t>best|portion|even|ever</t>
+  </si>
+  <si>
+    <t>delicious|wonderful</t>
+  </si>
+  <si>
+    <t>food|good|great|service</t>
+  </si>
+  <si>
+    <t>best|dish|amazing|fresh|lamb|ever</t>
+  </si>
+  <si>
+    <t>best|fresh</t>
+  </si>
+  <si>
+    <t>food|service|delicious|excellent</t>
+  </si>
+  <si>
+    <t>sushi|roll|tempura|ever</t>
+  </si>
+  <si>
+    <t>food|good|terrible</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>waiter|nice</t>
+  </si>
+  <si>
+    <t>food|good|dish</t>
+  </si>
+  <si>
+    <t>great|waiter|recommend</t>
+  </si>
+  <si>
+    <t>food|great|service</t>
+  </si>
+  <si>
+    <t>like|good|great|filet</t>
+  </si>
+  <si>
+    <t>food|service|friendly</t>
+  </si>
+  <si>
+    <t>friendly|fresh|staff</t>
+  </si>
+  <si>
+    <t>price|pizza|rice|even</t>
+  </si>
+  <si>
+    <t>high|pizza|recommend</t>
+  </si>
+  <si>
+    <t>best|food|service|never|made|ever</t>
+  </si>
+  <si>
+    <t>food|great|service|place|want</t>
+  </si>
+  <si>
+    <t>time|sushi|bland</t>
+  </si>
+  <si>
+    <t>great|service|decor|excellent</t>
+  </si>
+  <si>
+    <t>world|food|delicious|sushi</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>best|service|always</t>
+  </si>
+  <si>
+    <t>food|restaurant|beautiful</t>
+  </si>
+  <si>
+    <t>like|dish</t>
+  </si>
+  <si>
+    <t>food|atmosphere|delicious|nice</t>
+  </si>
+  <si>
+    <t>food|outside|good|great|place|garden|even</t>
+  </si>
+  <si>
+    <t>price|rice|sandwich</t>
+  </si>
+  <si>
+    <t>food|service|atmosphere|cant</t>
+  </si>
+  <si>
+    <t>best|food|ever</t>
+  </si>
+  <si>
+    <t>outside|place</t>
+  </si>
+  <si>
+    <t>restaurant|beautiful</t>
+  </si>
+  <si>
+    <t>food|good|dish|delicious</t>
+  </si>
+  <si>
+    <t>great|place</t>
+  </si>
+  <si>
+    <t>great|sushi</t>
+  </si>
+  <si>
+    <t>good|great|selection|bagel|ever</t>
+  </si>
+  <si>
+    <t>delicious|pizza|nice</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>sushi|bland|rice</t>
+  </si>
+  <si>
+    <t>well|place|even</t>
+  </si>
+  <si>
+    <t>like|great|want</t>
+  </si>
+  <si>
+    <t>worth|great|ever</t>
+  </si>
+  <si>
+    <t>food|price|moderate|rice</t>
+  </si>
+  <si>
+    <t>food|good|service|wonderful</t>
+  </si>
+  <si>
+    <t>good|caviar|salad</t>
+  </si>
+  <si>
+    <t>wonderful|staff</t>
+  </si>
+  <si>
+    <t>food|spicy</t>
+  </si>
+  <si>
+    <t>best|atmosphere</t>
+  </si>
+  <si>
+    <t>great|recommend</t>
+  </si>
+  <si>
+    <t>outside|great</t>
+  </si>
+  <si>
+    <t>restaurant|staff</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>food|excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>lamb|excellent</t>
+  </si>
+  <si>
+    <t>restaurant|meal|great|enjoy</t>
+  </si>
+  <si>
+    <t>service|place|would</t>
+  </si>
+  <si>
+    <t>delicious|bagel</t>
+  </si>
+  <si>
+    <t>great|price|rice</t>
+  </si>
+  <si>
+    <t>well|best|food</t>
+  </si>
+  <si>
+    <t>like|place|time|staff|excellent</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>great|service|place|never|want|ever</t>
+  </si>
+  <si>
+    <t>great|made|bagel</t>
+  </si>
+  <si>
+    <t>food|amazing|absolutely</t>
+  </si>
+  <si>
+    <t>best|ever</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
+  </si>
+  <si>
+    <t>service|friendly|treated|ever</t>
+  </si>
+  <si>
+    <t>world|restaurant|portion|family</t>
+  </si>
+  <si>
+    <t>pasta|excellent</t>
+  </si>
+  <si>
+    <t>meal|price|reasonably|rice</t>
+  </si>
+  <si>
+    <t>food|great|service|decor</t>
+  </si>
+  <si>
+    <t>food|great|excellent</t>
+  </si>
+  <si>
+    <t>plentiful|excellent</t>
+  </si>
+  <si>
+    <t>food|service|wonderful</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>food|pasta</t>
+  </si>
+  <si>
+    <t>best|place</t>
+  </si>
+  <si>
+    <t>dish|rice|recommend</t>
+  </si>
+  <si>
+    <t>world|outside|never|high|ever</t>
+  </si>
+  <si>
+    <t>food|service|wonderful|friendly</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>best|food|meal|service|friendly</t>
+  </si>
+  <si>
+    <t>like|never|ever</t>
+  </si>
+  <si>
+    <t>food|good|great|price|rice</t>
+  </si>
+  <si>
+    <t>food|great|service|atmosphere</t>
+  </si>
+  <si>
+    <t>food|good|time</t>
+  </si>
+  <si>
+    <t>service|never|friendly|ever</t>
+  </si>
+  <si>
+    <t>best|sandwich|ever</t>
+  </si>
+  <si>
+    <t>food|fresh|bland</t>
+  </si>
+  <si>
+    <t>good|price|rice|ever</t>
+  </si>
+  <si>
+    <t>like|service|atmosphere|excellent|ever</t>
+  </si>
+  <si>
+    <t>friendly|always</t>
+  </si>
+  <si>
+    <t>good|atmosphere</t>
+  </si>
+  <si>
+    <t>salad|bland|fish|ever</t>
+  </si>
+  <si>
+    <t>good|service|atmosphere|nice</t>
+  </si>
+  <si>
+    <t>food|pizza|amazing|fresh|pasta</t>
+  </si>
+  <si>
+    <t>best|service|friendly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>place|amazing|roll</t>
+  </si>
+  <si>
+    <t>roll|recommend</t>
+  </si>
+  <si>
+    <t>food|good|ever</t>
+  </si>
+  <si>
+    <t>best|food</t>
+  </si>
+  <si>
+    <t>food|good|service|decor|nice|excellent</t>
+  </si>
+  <si>
+    <t>best|rice|spicy</t>
+  </si>
+  <si>
+    <t>best|service|atmosphere</t>
+  </si>
+  <si>
+    <t>good|sushi|portion</t>
+  </si>
+  <si>
+    <t>decor|excellent</t>
+  </si>
+  <si>
+    <t>great|ever</t>
+  </si>
+  <si>
+    <t>food|great|service|cant</t>
+  </si>
+  <si>
+    <t>never|dish|always|ever</t>
+  </si>
+  <si>
+    <t>like|delicious</t>
+  </si>
+  <si>
+    <t>food|good|price|rice</t>
+  </si>
+  <si>
+    <t>good|service|always</t>
+  </si>
+  <si>
+    <t>atmosphere|relaxed|nice</t>
+  </si>
+  <si>
+    <t>outside|waiter</t>
+  </si>
+  <si>
+    <t>waiter|would|even</t>
+  </si>
+  <si>
+    <t>food|restaurant|good|service|price|staff|rice</t>
+  </si>
+  <si>
+    <t>food|great|service|cozy|relaxed|excellent</t>
+  </si>
+  <si>
+    <t>like|food|good|view|even</t>
+  </si>
+  <si>
+    <t>would|high|recommend</t>
+  </si>
+  <si>
+    <t>like|good|service|place|would</t>
+  </si>
+  <si>
+    <t>never|always|ever</t>
+  </si>
+  <si>
+    <t>food|portion|family</t>
+  </si>
+  <si>
+    <t>would|pizza|pasta</t>
+  </si>
+  <si>
+    <t>good|service|selection|decor</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>good|great|service|staff</t>
+  </si>
+  <si>
+    <t>amazing|always|treated|family|even</t>
+  </si>
+  <si>
+    <t>best|garden|pizza</t>
+  </si>
+  <si>
+    <t>meal|never|ever</t>
+  </si>
+  <si>
+    <t>meal|made</t>
+  </si>
+  <si>
+    <t>view|nice</t>
+  </si>
+  <si>
+    <t>great|nice</t>
+  </si>
+  <si>
+    <t>place|atmosphere|amazing</t>
+  </si>
+  <si>
+    <t>great|place|atmosphere|nice</t>
+  </si>
+  <si>
+    <t>place|value</t>
+  </si>
+  <si>
+    <t>atmosphere|amazing</t>
+  </si>
+  <si>
+    <t>atmosphere|cozy</t>
+  </si>
+  <si>
+    <t>restaurant|great|atmosphere|decor</t>
+  </si>
+  <si>
+    <t>restaurant|great</t>
   </si>
 </sst>
 </file>
@@ -5674,7 +5518,7 @@
         <v>591</v>
       </c>
       <c r="E121" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5691,7 +5535,7 @@
         <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5708,7 +5552,7 @@
         <v>591</v>
       </c>
       <c r="E123" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5725,7 +5569,7 @@
         <v>583</v>
       </c>
       <c r="E124" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5742,7 +5586,7 @@
         <v>583</v>
       </c>
       <c r="E125" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5759,7 +5603,7 @@
         <v>583</v>
       </c>
       <c r="E126" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5776,7 +5620,7 @@
         <v>583</v>
       </c>
       <c r="E127" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5793,7 +5637,7 @@
         <v>583</v>
       </c>
       <c r="E128" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5810,7 +5654,7 @@
         <v>583</v>
       </c>
       <c r="E129" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5827,7 +5671,7 @@
         <v>583</v>
       </c>
       <c r="E130" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5844,7 +5688,7 @@
         <v>583</v>
       </c>
       <c r="E131" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5861,7 +5705,7 @@
         <v>583</v>
       </c>
       <c r="E132" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5878,7 +5722,7 @@
         <v>583</v>
       </c>
       <c r="E133" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5895,7 +5739,7 @@
         <v>583</v>
       </c>
       <c r="E134" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5912,7 +5756,7 @@
         <v>583</v>
       </c>
       <c r="E135" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5929,7 +5773,7 @@
         <v>583</v>
       </c>
       <c r="E136" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5946,7 +5790,7 @@
         <v>593</v>
       </c>
       <c r="E137" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5963,7 +5807,7 @@
         <v>594</v>
       </c>
       <c r="E138" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5980,7 +5824,7 @@
         <v>595</v>
       </c>
       <c r="E139" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5997,7 +5841,7 @@
         <v>596</v>
       </c>
       <c r="E140" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6014,7 +5858,7 @@
         <v>595</v>
       </c>
       <c r="E141" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6031,7 +5875,7 @@
         <v>595</v>
       </c>
       <c r="E142" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6048,7 +5892,7 @@
         <v>597</v>
       </c>
       <c r="E143" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6065,7 +5909,7 @@
         <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6081,9 +5925,6 @@
       <c r="D145" t="s">
         <v>596</v>
       </c>
-      <c r="E145" t="s">
-        <v>656</v>
-      </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
@@ -6099,7 +5940,7 @@
         <v>595</v>
       </c>
       <c r="E146" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6116,7 +5957,7 @@
         <v>596</v>
       </c>
       <c r="E147" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6133,7 +5974,7 @@
         <v>595</v>
       </c>
       <c r="E148" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6150,7 +5991,7 @@
         <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6167,7 +6008,7 @@
         <v>595</v>
       </c>
       <c r="E150" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6184,7 +6025,7 @@
         <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6201,7 +6042,7 @@
         <v>596</v>
       </c>
       <c r="E152" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6218,7 +6059,7 @@
         <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6235,7 +6076,7 @@
         <v>588</v>
       </c>
       <c r="E154" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6252,7 +6093,7 @@
         <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6269,7 +6110,7 @@
         <v>594</v>
       </c>
       <c r="E156" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6286,7 +6127,7 @@
         <v>596</v>
       </c>
       <c r="E157" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6303,7 +6144,7 @@
         <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6320,7 +6161,7 @@
         <v>596</v>
       </c>
       <c r="E159" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6337,7 +6178,7 @@
         <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6354,7 +6195,7 @@
         <v>596</v>
       </c>
       <c r="E161" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6371,7 +6212,7 @@
         <v>596</v>
       </c>
       <c r="E162" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6388,7 +6229,7 @@
         <v>600</v>
       </c>
       <c r="E163" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6405,7 +6246,7 @@
         <v>601</v>
       </c>
       <c r="E164" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6422,7 +6263,7 @@
         <v>601</v>
       </c>
       <c r="E165" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6439,7 +6280,7 @@
         <v>596</v>
       </c>
       <c r="E166" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6456,7 +6297,7 @@
         <v>596</v>
       </c>
       <c r="E167" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6473,7 +6314,7 @@
         <v>602</v>
       </c>
       <c r="E168" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6490,7 +6331,7 @@
         <v>594</v>
       </c>
       <c r="E169" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6507,7 +6348,7 @@
         <v>596</v>
       </c>
       <c r="E170" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6524,7 +6365,7 @@
         <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6541,7 +6382,7 @@
         <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6558,7 +6399,7 @@
         <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6575,7 +6416,7 @@
         <v>596</v>
       </c>
       <c r="E174" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6591,9 +6432,6 @@
       <c r="D175" t="s">
         <v>588</v>
       </c>
-      <c r="E175" t="s">
-        <v>685</v>
-      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
@@ -6609,7 +6447,7 @@
         <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6626,7 +6464,7 @@
         <v>604</v>
       </c>
       <c r="E177" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6643,7 +6481,7 @@
         <v>595</v>
       </c>
       <c r="E178" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6660,7 +6498,7 @@
         <v>595</v>
       </c>
       <c r="E179" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6677,7 +6515,7 @@
         <v>601</v>
       </c>
       <c r="E180" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6694,7 +6532,7 @@
         <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6711,7 +6549,7 @@
         <v>601</v>
       </c>
       <c r="E182" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6728,7 +6566,7 @@
         <v>596</v>
       </c>
       <c r="E183" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6745,7 +6583,7 @@
         <v>595</v>
       </c>
       <c r="E184" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6761,9 +6599,6 @@
       <c r="D185" t="s">
         <v>595</v>
       </c>
-      <c r="E185" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1">
@@ -6779,7 +6614,7 @@
         <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6796,7 +6631,7 @@
         <v>605</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6813,7 +6648,7 @@
         <v>588</v>
       </c>
       <c r="E188" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6830,7 +6665,7 @@
         <v>594</v>
       </c>
       <c r="E189" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6847,7 +6682,7 @@
         <v>596</v>
       </c>
       <c r="E190" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6864,7 +6699,7 @@
         <v>606</v>
       </c>
       <c r="E191" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6881,7 +6716,7 @@
         <v>594</v>
       </c>
       <c r="E192" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6898,7 +6733,7 @@
         <v>594</v>
       </c>
       <c r="E193" t="s">
-        <v>702</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6915,7 +6750,7 @@
         <v>594</v>
       </c>
       <c r="E194" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6932,7 +6767,7 @@
         <v>607</v>
       </c>
       <c r="E195" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6949,7 +6784,7 @@
         <v>596</v>
       </c>
       <c r="E196" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6966,7 +6801,7 @@
         <v>596</v>
       </c>
       <c r="E197" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6983,7 +6818,7 @@
         <v>595</v>
       </c>
       <c r="E198" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7000,7 +6835,7 @@
         <v>597</v>
       </c>
       <c r="E199" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7017,7 +6852,7 @@
         <v>594</v>
       </c>
       <c r="E200" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7034,7 +6869,7 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7050,9 +6885,6 @@
       <c r="D202" t="s">
         <v>594</v>
       </c>
-      <c r="E202" t="s">
-        <v>685</v>
-      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
@@ -7068,7 +6900,7 @@
         <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7085,7 +6917,7 @@
         <v>608</v>
       </c>
       <c r="E204" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7102,7 +6934,7 @@
         <v>588</v>
       </c>
       <c r="E205" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7118,6 +6950,9 @@
       <c r="D206" t="s">
         <v>588</v>
       </c>
+      <c r="E206" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1">
@@ -7133,7 +6968,7 @@
         <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7150,7 +6985,7 @@
         <v>596</v>
       </c>
       <c r="E208" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7167,7 +7002,7 @@
         <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7184,7 +7019,7 @@
         <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7201,7 +7036,7 @@
         <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7218,7 +7053,7 @@
         <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7235,7 +7070,7 @@
         <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7252,7 +7087,7 @@
         <v>595</v>
       </c>
       <c r="E214" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7269,7 +7104,7 @@
         <v>594</v>
       </c>
       <c r="E215" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7286,7 +7121,7 @@
         <v>601</v>
       </c>
       <c r="E216" t="s">
-        <v>647</v>
+        <v>715</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7303,7 +7138,7 @@
         <v>588</v>
       </c>
       <c r="E217" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7320,7 +7155,7 @@
         <v>588</v>
       </c>
       <c r="E218" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7337,7 +7172,7 @@
         <v>595</v>
       </c>
       <c r="E219" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7354,7 +7189,7 @@
         <v>594</v>
       </c>
       <c r="E220" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7371,7 +7206,7 @@
         <v>609</v>
       </c>
       <c r="E221" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7388,7 +7223,7 @@
         <v>594</v>
       </c>
       <c r="E222" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7405,7 +7240,7 @@
         <v>596</v>
       </c>
       <c r="E223" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7421,9 +7256,6 @@
       <c r="D224" t="s">
         <v>595</v>
       </c>
-      <c r="E224" t="s">
-        <v>725</v>
-      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1">
@@ -7439,7 +7271,7 @@
         <v>588</v>
       </c>
       <c r="E225" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7456,7 +7288,7 @@
         <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7473,7 +7305,7 @@
         <v>597</v>
       </c>
       <c r="E227" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7490,7 +7322,7 @@
         <v>595</v>
       </c>
       <c r="E228" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7507,7 +7339,7 @@
         <v>596</v>
       </c>
       <c r="E229" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7524,7 +7356,7 @@
         <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7541,7 +7373,7 @@
         <v>596</v>
       </c>
       <c r="E231" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7558,7 +7390,7 @@
         <v>596</v>
       </c>
       <c r="E232" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7575,7 +7407,7 @@
         <v>611</v>
       </c>
       <c r="E233" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7592,7 +7424,7 @@
         <v>594</v>
       </c>
       <c r="E234" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7609,7 +7441,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7626,7 +7458,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7643,7 +7475,7 @@
         <v>595</v>
       </c>
       <c r="E237" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7660,7 +7492,7 @@
         <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7677,7 +7509,7 @@
         <v>594</v>
       </c>
       <c r="E239" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7694,7 +7526,7 @@
         <v>595</v>
       </c>
       <c r="E240" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7711,7 +7543,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7728,7 +7560,7 @@
         <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7745,7 +7577,7 @@
         <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7762,7 +7594,7 @@
         <v>595</v>
       </c>
       <c r="E244" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7779,7 +7611,7 @@
         <v>594</v>
       </c>
       <c r="E245" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7796,7 +7628,7 @@
         <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7813,7 +7645,7 @@
         <v>601</v>
       </c>
       <c r="E247" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7830,7 +7662,7 @@
         <v>588</v>
       </c>
       <c r="E248" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7847,7 +7679,7 @@
         <v>596</v>
       </c>
       <c r="E249" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7864,7 +7696,7 @@
         <v>596</v>
       </c>
       <c r="E250" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7881,7 +7713,7 @@
         <v>600</v>
       </c>
       <c r="E251" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7898,7 +7730,7 @@
         <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7915,7 +7747,7 @@
         <v>601</v>
       </c>
       <c r="E253" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7932,7 +7764,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7949,7 +7781,7 @@
         <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7966,7 +7798,7 @@
         <v>596</v>
       </c>
       <c r="E256" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7983,7 +7815,7 @@
         <v>601</v>
       </c>
       <c r="E257" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8000,7 +7832,7 @@
         <v>596</v>
       </c>
       <c r="E258" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8017,7 +7849,7 @@
         <v>594</v>
       </c>
       <c r="E259" t="s">
-        <v>756</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8034,7 +7866,7 @@
         <v>596</v>
       </c>
       <c r="E260" t="s">
-        <v>653</v>
+        <v>748</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8051,7 +7883,7 @@
         <v>596</v>
       </c>
       <c r="E261" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8068,7 +7900,7 @@
         <v>588</v>
       </c>
       <c r="E262" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8085,7 +7917,7 @@
         <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8102,7 +7934,7 @@
         <v>588</v>
       </c>
       <c r="E264" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8119,7 +7951,7 @@
         <v>596</v>
       </c>
       <c r="E265" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8136,7 +7968,7 @@
         <v>596</v>
       </c>
       <c r="E266" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8152,9 +7984,6 @@
       <c r="D267" t="s">
         <v>596</v>
       </c>
-      <c r="E267" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1">
@@ -8170,7 +7999,7 @@
         <v>595</v>
       </c>
       <c r="E268" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8187,7 +8016,7 @@
         <v>601</v>
       </c>
       <c r="E269" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8204,7 +8033,7 @@
         <v>596</v>
       </c>
       <c r="E270" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8221,7 +8050,7 @@
         <v>595</v>
       </c>
       <c r="E271" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8238,7 +8067,7 @@
         <v>600</v>
       </c>
       <c r="E272" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8255,7 +8084,7 @@
         <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8272,7 +8101,7 @@
         <v>601</v>
       </c>
       <c r="E274" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8289,7 +8118,7 @@
         <v>594</v>
       </c>
       <c r="E275" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8306,7 +8135,7 @@
         <v>595</v>
       </c>
       <c r="E276" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8323,7 +8152,7 @@
         <v>596</v>
       </c>
       <c r="E277" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8340,7 +8169,7 @@
         <v>613</v>
       </c>
       <c r="E278" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8357,7 +8186,7 @@
         <v>594</v>
       </c>
       <c r="E279" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8374,7 +8203,7 @@
         <v>614</v>
       </c>
       <c r="E280" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8391,7 +8220,7 @@
         <v>615</v>
       </c>
       <c r="E281" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8408,7 +8237,7 @@
         <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8425,7 +8254,7 @@
         <v>596</v>
       </c>
       <c r="E283" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8442,7 +8271,7 @@
         <v>596</v>
       </c>
       <c r="E284" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8459,7 +8288,7 @@
         <v>616</v>
       </c>
       <c r="E285" t="s">
-        <v>780</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8476,7 +8305,7 @@
         <v>588</v>
       </c>
       <c r="E286" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8493,7 +8322,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8510,7 +8339,7 @@
         <v>595</v>
       </c>
       <c r="E288" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8527,7 +8356,7 @@
         <v>610</v>
       </c>
       <c r="E289" t="s">
-        <v>783</v>
+        <v>665</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8544,7 +8373,7 @@
         <v>596</v>
       </c>
       <c r="E290" t="s">
-        <v>784</v>
+        <v>660</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8561,7 +8390,7 @@
         <v>595</v>
       </c>
       <c r="E291" t="s">
-        <v>785</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8578,7 +8407,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="s">
-        <v>786</v>
+        <v>659</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8595,7 +8424,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8612,7 +8441,7 @@
         <v>596</v>
       </c>
       <c r="E294" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8629,7 +8458,7 @@
         <v>588</v>
       </c>
       <c r="E295" t="s">
-        <v>789</v>
+        <v>675</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8646,7 +8475,7 @@
         <v>596</v>
       </c>
       <c r="E296" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8662,6 +8491,9 @@
       <c r="D297" t="s">
         <v>588</v>
       </c>
+      <c r="E297" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1">
@@ -8677,7 +8509,7 @@
         <v>596</v>
       </c>
       <c r="E298" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8694,7 +8526,7 @@
         <v>588</v>
       </c>
       <c r="E299" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8711,7 +8543,7 @@
         <v>617</v>
       </c>
       <c r="E300" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8728,7 +8560,7 @@
         <v>588</v>
       </c>
       <c r="E301" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8745,7 +8577,7 @@
         <v>588</v>
       </c>
       <c r="E302" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8762,7 +8594,7 @@
         <v>594</v>
       </c>
       <c r="E303" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8779,7 +8611,7 @@
         <v>595</v>
       </c>
       <c r="E304" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8796,7 +8628,7 @@
         <v>596</v>
       </c>
       <c r="E305" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8813,7 +8645,7 @@
         <v>596</v>
       </c>
       <c r="E306" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8830,7 +8662,7 @@
         <v>597</v>
       </c>
       <c r="E307" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8846,9 +8678,6 @@
       <c r="D308" t="s">
         <v>596</v>
       </c>
-      <c r="E308" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1">
@@ -8864,7 +8693,7 @@
         <v>596</v>
       </c>
       <c r="E309" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8881,7 +8710,7 @@
         <v>598</v>
       </c>
       <c r="E310" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8898,7 +8727,7 @@
         <v>618</v>
       </c>
       <c r="E311" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8915,7 +8744,7 @@
         <v>596</v>
       </c>
       <c r="E312" t="s">
-        <v>803</v>
+        <v>672</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8932,7 +8761,7 @@
         <v>588</v>
       </c>
       <c r="E313" t="s">
-        <v>653</v>
+        <v>789</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8949,7 +8778,7 @@
         <v>616</v>
       </c>
       <c r="E314" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8966,7 +8795,7 @@
         <v>607</v>
       </c>
       <c r="E315" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8983,7 +8812,7 @@
         <v>619</v>
       </c>
       <c r="E316" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -9000,7 +8829,7 @@
         <v>594</v>
       </c>
       <c r="E317" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -9017,7 +8846,7 @@
         <v>595</v>
       </c>
       <c r="E318" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -9034,7 +8863,7 @@
         <v>596</v>
       </c>
       <c r="E319" t="s">
-        <v>809</v>
+        <v>751</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9051,7 +8880,7 @@
         <v>596</v>
       </c>
       <c r="E320" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9068,7 +8897,7 @@
         <v>596</v>
       </c>
       <c r="E321" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9085,7 +8914,7 @@
         <v>597</v>
       </c>
       <c r="E322" t="s">
-        <v>811</v>
+        <v>722</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9102,7 +8931,7 @@
         <v>596</v>
       </c>
       <c r="E323" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9119,7 +8948,7 @@
         <v>601</v>
       </c>
       <c r="E324" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9136,7 +8965,7 @@
         <v>601</v>
       </c>
       <c r="E325" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9152,9 +8981,6 @@
       <c r="D326" t="s">
         <v>596</v>
       </c>
-      <c r="E326" t="s">
-        <v>815</v>
-      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1">
@@ -9169,9 +8995,6 @@
       <c r="D327" t="s">
         <v>596</v>
       </c>
-      <c r="E327" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1">
@@ -9187,7 +9010,7 @@
         <v>588</v>
       </c>
       <c r="E328" t="s">
-        <v>817</v>
+        <v>692</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9204,7 +9027,7 @@
         <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>723</v>
+        <v>799</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9221,7 +9044,7 @@
         <v>596</v>
       </c>
       <c r="E330" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9238,7 +9061,7 @@
         <v>596</v>
       </c>
       <c r="E331" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9255,7 +9078,7 @@
         <v>594</v>
       </c>
       <c r="E332" t="s">
-        <v>820</v>
+        <v>718</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9272,7 +9095,7 @@
         <v>595</v>
       </c>
       <c r="E333" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9289,7 +9112,7 @@
         <v>588</v>
       </c>
       <c r="E334" t="s">
-        <v>817</v>
+        <v>692</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9306,7 +9129,7 @@
         <v>588</v>
       </c>
       <c r="E335" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9323,7 +9146,7 @@
         <v>594</v>
       </c>
       <c r="E336" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9340,7 +9163,7 @@
         <v>596</v>
       </c>
       <c r="E337" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9357,7 +9180,7 @@
         <v>594</v>
       </c>
       <c r="E338" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9374,7 +9197,7 @@
         <v>596</v>
       </c>
       <c r="E339" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9390,9 +9213,6 @@
       <c r="D340" t="s">
         <v>594</v>
       </c>
-      <c r="E340" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1">
@@ -9408,7 +9228,7 @@
         <v>620</v>
       </c>
       <c r="E341" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9425,7 +9245,7 @@
         <v>596</v>
       </c>
       <c r="E342" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9442,7 +9262,7 @@
         <v>595</v>
       </c>
       <c r="E343" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9459,7 +9279,7 @@
         <v>595</v>
       </c>
       <c r="E344" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9476,7 +9296,7 @@
         <v>596</v>
       </c>
       <c r="E345" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9493,7 +9313,7 @@
         <v>596</v>
       </c>
       <c r="E346" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9510,7 +9330,7 @@
         <v>610</v>
       </c>
       <c r="E347" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9527,7 +9347,7 @@
         <v>607</v>
       </c>
       <c r="E348" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9543,9 +9363,6 @@
       <c r="D349" t="s">
         <v>596</v>
       </c>
-      <c r="E349" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1">
@@ -9561,7 +9378,7 @@
         <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9578,7 +9395,7 @@
         <v>596</v>
       </c>
       <c r="E351" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9609,7 +9426,7 @@
         <v>597</v>
       </c>
       <c r="E353" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9626,7 +9443,7 @@
         <v>596</v>
       </c>
       <c r="E354" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9643,7 +9460,7 @@
         <v>596</v>
       </c>
       <c r="E355" t="s">
-        <v>837</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9660,7 +9477,7 @@
         <v>600</v>
       </c>
       <c r="E356" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9677,7 +9494,7 @@
         <v>604</v>
       </c>
       <c r="E357" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9694,7 +9511,7 @@
         <v>595</v>
       </c>
       <c r="E358" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9711,7 +9528,7 @@
         <v>604</v>
       </c>
       <c r="E359" t="s">
-        <v>841</v>
+        <v>635</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9728,7 +9545,7 @@
         <v>600</v>
       </c>
       <c r="E360" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9745,7 +9562,7 @@
         <v>596</v>
       </c>
       <c r="E361" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9762,7 +9579,7 @@
         <v>594</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>819</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9779,7 +9596,7 @@
         <v>596</v>
       </c>
       <c r="E363" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9796,7 +9613,7 @@
         <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9813,7 +9630,7 @@
         <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9830,7 +9647,7 @@
         <v>596</v>
       </c>
       <c r="E366" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9847,7 +9664,7 @@
         <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9864,7 +9681,7 @@
         <v>616</v>
       </c>
       <c r="E368" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9881,7 +9698,7 @@
         <v>595</v>
       </c>
       <c r="E369" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9898,7 +9715,7 @@
         <v>595</v>
       </c>
       <c r="E370" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9915,7 +9732,7 @@
         <v>610</v>
       </c>
       <c r="E371" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9932,7 +9749,7 @@
         <v>596</v>
       </c>
       <c r="E372" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9949,7 +9766,7 @@
         <v>596</v>
       </c>
       <c r="E373" t="s">
-        <v>850</v>
+        <v>660</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9966,7 +9783,7 @@
         <v>595</v>
       </c>
       <c r="E374" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9983,7 +9800,7 @@
         <v>595</v>
       </c>
       <c r="E375" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10000,7 +9817,7 @@
         <v>596</v>
       </c>
       <c r="E376" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -10017,7 +9834,7 @@
         <v>596</v>
       </c>
       <c r="E377" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -10034,7 +9851,7 @@
         <v>596</v>
       </c>
       <c r="E378" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10051,7 +9868,7 @@
         <v>604</v>
       </c>
       <c r="E379" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10068,7 +9885,7 @@
         <v>595</v>
       </c>
       <c r="E380" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10085,7 +9902,7 @@
         <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10102,7 +9919,7 @@
         <v>594</v>
       </c>
       <c r="E382" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10119,7 +9936,7 @@
         <v>596</v>
       </c>
       <c r="E383" t="s">
-        <v>859</v>
+        <v>696</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10135,9 +9952,6 @@
       <c r="D384" t="s">
         <v>596</v>
       </c>
-      <c r="E384" t="s">
-        <v>860</v>
-      </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="1">
@@ -10153,7 +9967,7 @@
         <v>607</v>
       </c>
       <c r="E385" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10170,7 +9984,7 @@
         <v>594</v>
       </c>
       <c r="E386" t="s">
-        <v>862</v>
+        <v>665</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10187,7 +10001,7 @@
         <v>615</v>
       </c>
       <c r="E387" t="s">
-        <v>863</v>
+        <v>834</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10204,7 +10018,7 @@
         <v>596</v>
       </c>
       <c r="E388" t="s">
-        <v>864</v>
+        <v>715</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10221,7 +10035,7 @@
         <v>595</v>
       </c>
       <c r="E389" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10238,7 +10052,7 @@
         <v>595</v>
       </c>
       <c r="E390" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10255,7 +10069,7 @@
         <v>588</v>
       </c>
       <c r="E391" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10272,7 +10086,7 @@
         <v>595</v>
       </c>
       <c r="E392" t="s">
-        <v>647</v>
+        <v>715</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10288,9 +10102,6 @@
       <c r="D393" t="s">
         <v>588</v>
       </c>
-      <c r="E393" t="s">
-        <v>868</v>
-      </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="1">
@@ -10306,7 +10117,7 @@
         <v>610</v>
       </c>
       <c r="E394" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10323,7 +10134,7 @@
         <v>595</v>
       </c>
       <c r="E395" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10340,7 +10151,7 @@
         <v>596</v>
       </c>
       <c r="E396" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10357,7 +10168,7 @@
         <v>596</v>
       </c>
       <c r="E397" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10374,7 +10185,7 @@
         <v>594</v>
       </c>
       <c r="E398" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10391,7 +10202,7 @@
         <v>595</v>
       </c>
       <c r="E399" t="s">
-        <v>873</v>
+        <v>842</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10408,7 +10219,7 @@
         <v>595</v>
       </c>
       <c r="E400" t="s">
-        <v>874</v>
+        <v>843</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10425,7 +10236,7 @@
         <v>598</v>
       </c>
       <c r="E401" t="s">
-        <v>875</v>
+        <v>728</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10442,7 +10253,7 @@
         <v>596</v>
       </c>
       <c r="E402" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10459,7 +10270,7 @@
         <v>595</v>
       </c>
       <c r="E403" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10476,7 +10287,7 @@
         <v>611</v>
       </c>
       <c r="E404" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10493,7 +10304,7 @@
         <v>594</v>
       </c>
       <c r="E405" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10510,7 +10321,7 @@
         <v>596</v>
       </c>
       <c r="E406" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10527,7 +10338,7 @@
         <v>604</v>
       </c>
       <c r="E407" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10544,7 +10355,7 @@
         <v>600</v>
       </c>
       <c r="E408" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10561,7 +10372,7 @@
         <v>596</v>
       </c>
       <c r="E409" t="s">
-        <v>657</v>
+        <v>851</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10578,7 +10389,7 @@
         <v>601</v>
       </c>
       <c r="E410" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10594,9 +10405,6 @@
       <c r="D411" t="s">
         <v>596</v>
       </c>
-      <c r="E411" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="1">
@@ -10612,7 +10420,7 @@
         <v>596</v>
       </c>
       <c r="E412" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10629,7 +10437,7 @@
         <v>588</v>
       </c>
       <c r="E413" t="s">
-        <v>884</v>
+        <v>853</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10646,7 +10454,7 @@
         <v>615</v>
       </c>
       <c r="E414" t="s">
-        <v>885</v>
+        <v>854</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10663,7 +10471,7 @@
         <v>594</v>
       </c>
       <c r="E415" t="s">
-        <v>886</v>
+        <v>855</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10680,7 +10488,7 @@
         <v>594</v>
       </c>
       <c r="E416" t="s">
-        <v>887</v>
+        <v>856</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10697,7 +10505,7 @@
         <v>594</v>
       </c>
       <c r="E417" t="s">
-        <v>888</v>
+        <v>857</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10714,7 +10522,7 @@
         <v>594</v>
       </c>
       <c r="E418" t="s">
-        <v>715</v>
+        <v>858</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10731,7 +10539,7 @@
         <v>596</v>
       </c>
       <c r="E419" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10748,7 +10556,7 @@
         <v>596</v>
       </c>
       <c r="E420" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10765,7 +10573,7 @@
         <v>588</v>
       </c>
       <c r="E421" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10782,7 +10590,7 @@
         <v>608</v>
       </c>
       <c r="E422" t="s">
-        <v>891</v>
+        <v>862</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10799,7 +10607,7 @@
         <v>596</v>
       </c>
       <c r="E423" t="s">
-        <v>892</v>
+        <v>863</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10816,7 +10624,7 @@
         <v>594</v>
       </c>
       <c r="E424" t="s">
-        <v>893</v>
+        <v>864</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10833,7 +10641,7 @@
         <v>621</v>
       </c>
       <c r="E425" t="s">
-        <v>894</v>
+        <v>865</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10850,7 +10658,7 @@
         <v>617</v>
       </c>
       <c r="E426" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10867,7 +10675,7 @@
         <v>595</v>
       </c>
       <c r="E427" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10884,7 +10692,7 @@
         <v>588</v>
       </c>
       <c r="E428" t="s">
-        <v>897</v>
+        <v>868</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10901,7 +10709,7 @@
         <v>598</v>
       </c>
       <c r="E429" t="s">
-        <v>898</v>
+        <v>831</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10918,7 +10726,7 @@
         <v>600</v>
       </c>
       <c r="E430" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10935,7 +10743,7 @@
         <v>594</v>
       </c>
       <c r="E431" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10952,7 +10760,7 @@
         <v>600</v>
       </c>
       <c r="E432" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10969,7 +10777,7 @@
         <v>596</v>
       </c>
       <c r="E433" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10986,7 +10794,7 @@
         <v>594</v>
       </c>
       <c r="E434" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -11003,7 +10811,7 @@
         <v>595</v>
       </c>
       <c r="E435" t="s">
-        <v>745</v>
+        <v>874</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -11020,7 +10828,7 @@
         <v>609</v>
       </c>
       <c r="E436" t="s">
-        <v>904</v>
+        <v>875</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -11037,7 +10845,7 @@
         <v>596</v>
       </c>
       <c r="E437" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -11054,7 +10862,7 @@
         <v>588</v>
       </c>
       <c r="E438" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -11071,7 +10879,7 @@
         <v>594</v>
       </c>
       <c r="E439" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -11088,7 +10896,7 @@
         <v>596</v>
       </c>
       <c r="E440" t="s">
-        <v>905</v>
+        <v>876</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -11105,7 +10913,7 @@
         <v>595</v>
       </c>
       <c r="E441" t="s">
-        <v>906</v>
+        <v>874</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -11122,7 +10930,7 @@
         <v>594</v>
       </c>
       <c r="E442" t="s">
-        <v>907</v>
+        <v>728</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -11139,7 +10947,7 @@
         <v>595</v>
       </c>
       <c r="E443" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -11156,7 +10964,7 @@
         <v>596</v>
       </c>
       <c r="E444" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -11173,7 +10981,7 @@
         <v>596</v>
       </c>
       <c r="E445" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -11190,7 +10998,7 @@
         <v>607</v>
       </c>
       <c r="E446" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11207,7 +11015,7 @@
         <v>595</v>
       </c>
       <c r="E447" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11223,9 +11031,6 @@
       <c r="D448" t="s">
         <v>596</v>
       </c>
-      <c r="E448" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="1">
@@ -11241,7 +11046,7 @@
         <v>596</v>
       </c>
       <c r="E449" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11258,7 +11063,7 @@
         <v>596</v>
       </c>
       <c r="E450" t="s">
-        <v>914</v>
+        <v>660</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11275,7 +11080,7 @@
         <v>595</v>
       </c>
       <c r="E451" t="s">
-        <v>915</v>
+        <v>883</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11292,7 +11097,7 @@
         <v>588</v>
       </c>
       <c r="E452" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11308,6 +11113,9 @@
       <c r="D453" t="s">
         <v>596</v>
       </c>
+      <c r="E453" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1">
@@ -11323,7 +11131,7 @@
         <v>595</v>
       </c>
       <c r="E454" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11340,7 +11148,7 @@
         <v>595</v>
       </c>
       <c r="E455" t="s">
-        <v>653</v>
+        <v>887</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11357,7 +11165,7 @@
         <v>596</v>
       </c>
       <c r="E456" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11374,7 +11182,7 @@
         <v>596</v>
       </c>
       <c r="E457" t="s">
-        <v>918</v>
+        <v>704</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11391,7 +11199,7 @@
         <v>617</v>
       </c>
       <c r="E458" t="s">
-        <v>919</v>
+        <v>888</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11408,7 +11216,7 @@
         <v>602</v>
       </c>
       <c r="E459" t="s">
-        <v>920</v>
+        <v>889</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11425,7 +11233,7 @@
         <v>594</v>
       </c>
       <c r="E460" t="s">
-        <v>921</v>
+        <v>890</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11442,7 +11250,7 @@
         <v>597</v>
       </c>
       <c r="E461" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11459,7 +11267,7 @@
         <v>622</v>
       </c>
       <c r="E462" t="s">
-        <v>922</v>
+        <v>892</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11476,7 +11284,7 @@
         <v>600</v>
       </c>
       <c r="E463" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11493,7 +11301,7 @@
         <v>596</v>
       </c>
       <c r="E464" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11510,7 +11318,7 @@
         <v>594</v>
       </c>
       <c r="E465" t="s">
-        <v>668</v>
+        <v>894</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11527,7 +11335,7 @@
         <v>594</v>
       </c>
       <c r="E466" t="s">
-        <v>924</v>
+        <v>895</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11544,7 +11352,7 @@
         <v>596</v>
       </c>
       <c r="E467" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11561,7 +11369,7 @@
         <v>596</v>
       </c>
       <c r="E468" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11578,7 +11386,7 @@
         <v>596</v>
       </c>
       <c r="E469" t="s">
-        <v>714</v>
+        <v>897</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11595,7 +11403,7 @@
         <v>597</v>
       </c>
       <c r="E470" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11612,7 +11420,7 @@
         <v>601</v>
       </c>
       <c r="E471" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11629,7 +11437,7 @@
         <v>600</v>
       </c>
       <c r="E472" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11646,7 +11454,7 @@
         <v>596</v>
       </c>
       <c r="E473" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11663,7 +11471,7 @@
         <v>623</v>
       </c>
       <c r="E474" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11680,7 +11488,7 @@
         <v>596</v>
       </c>
       <c r="E475" t="s">
-        <v>929</v>
+        <v>783</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11697,7 +11505,7 @@
         <v>596</v>
       </c>
       <c r="E476" t="s">
-        <v>930</v>
+        <v>840</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11714,7 +11522,7 @@
         <v>596</v>
       </c>
       <c r="E477" t="s">
-        <v>931</v>
+        <v>902</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11731,7 +11539,7 @@
         <v>596</v>
       </c>
       <c r="E478" t="s">
-        <v>932</v>
+        <v>903</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11748,7 +11556,7 @@
         <v>600</v>
       </c>
       <c r="E479" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11765,7 +11573,7 @@
         <v>600</v>
       </c>
       <c r="E480" t="s">
-        <v>934</v>
+        <v>905</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11782,7 +11590,7 @@
         <v>595</v>
       </c>
       <c r="E481" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11799,7 +11607,7 @@
         <v>621</v>
       </c>
       <c r="E482" t="s">
-        <v>936</v>
+        <v>907</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11816,7 +11624,7 @@
         <v>595</v>
       </c>
       <c r="E483" t="s">
-        <v>937</v>
+        <v>908</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11833,7 +11641,7 @@
         <v>596</v>
       </c>
       <c r="E484" t="s">
-        <v>653</v>
+        <v>909</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11850,7 +11658,7 @@
         <v>600</v>
       </c>
       <c r="E485" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11867,7 +11675,7 @@
         <v>613</v>
       </c>
       <c r="E486" t="s">
-        <v>667</v>
+        <v>911</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11898,7 +11706,7 @@
         <v>601</v>
       </c>
       <c r="E488" t="s">
-        <v>939</v>
+        <v>745</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11914,9 +11722,6 @@
       <c r="D489" t="s">
         <v>595</v>
       </c>
-      <c r="E489" t="s">
-        <v>940</v>
-      </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="1">
@@ -11932,7 +11737,7 @@
         <v>608</v>
       </c>
       <c r="E490" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11949,7 +11754,7 @@
         <v>595</v>
       </c>
       <c r="E491" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11966,7 +11771,7 @@
         <v>596</v>
       </c>
       <c r="E492" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11983,7 +11788,7 @@
         <v>615</v>
       </c>
       <c r="E493" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -12000,7 +11805,7 @@
         <v>594</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>718</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -12017,7 +11822,7 @@
         <v>595</v>
       </c>
       <c r="E495" t="s">
-        <v>944</v>
+        <v>675</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -12034,7 +11839,7 @@
         <v>596</v>
       </c>
       <c r="E496" t="s">
-        <v>653</v>
+        <v>769</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -12051,7 +11856,7 @@
         <v>608</v>
       </c>
       <c r="E497" t="s">
-        <v>945</v>
+        <v>914</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -12067,9 +11872,6 @@
       <c r="D498" t="s">
         <v>596</v>
       </c>
-      <c r="E498" t="s">
-        <v>946</v>
-      </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="1">
@@ -12085,7 +11887,7 @@
         <v>594</v>
       </c>
       <c r="E499" t="s">
-        <v>947</v>
+        <v>665</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -12101,9 +11903,6 @@
       <c r="D500" t="s">
         <v>595</v>
       </c>
-      <c r="E500" t="s">
-        <v>948</v>
-      </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="1">
@@ -12119,7 +11918,7 @@
         <v>595</v>
       </c>
       <c r="E501" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -12136,7 +11935,7 @@
         <v>592</v>
       </c>
       <c r="E502" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -12153,7 +11952,7 @@
         <v>596</v>
       </c>
       <c r="E503" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -12170,7 +11969,7 @@
         <v>588</v>
       </c>
       <c r="E504" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -12187,7 +11986,7 @@
         <v>588</v>
       </c>
       <c r="E505" t="s">
-        <v>653</v>
+        <v>919</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -12204,7 +12003,7 @@
         <v>601</v>
       </c>
       <c r="E506" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -12221,7 +12020,7 @@
         <v>588</v>
       </c>
       <c r="E507" t="s">
-        <v>954</v>
+        <v>921</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -12238,7 +12037,7 @@
         <v>596</v>
       </c>
       <c r="E508" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -12254,9 +12053,6 @@
       <c r="D509" t="s">
         <v>596</v>
       </c>
-      <c r="E509" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="1">
@@ -12272,7 +12068,7 @@
         <v>601</v>
       </c>
       <c r="E510" t="s">
-        <v>956</v>
+        <v>923</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -12289,7 +12085,7 @@
         <v>594</v>
       </c>
       <c r="E511" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12306,7 +12102,7 @@
         <v>596</v>
       </c>
       <c r="E512" t="s">
-        <v>957</v>
+        <v>699</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12323,7 +12119,7 @@
         <v>600</v>
       </c>
       <c r="E513" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12340,7 +12136,7 @@
         <v>595</v>
       </c>
       <c r="E514" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -12356,9 +12152,6 @@
       <c r="D515" t="s">
         <v>596</v>
       </c>
-      <c r="E515" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="1">
@@ -12374,7 +12167,7 @@
         <v>596</v>
       </c>
       <c r="E516" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12391,7 +12184,7 @@
         <v>596</v>
       </c>
       <c r="E517" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12408,7 +12201,7 @@
         <v>595</v>
       </c>
       <c r="E518" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12425,7 +12218,7 @@
         <v>596</v>
       </c>
       <c r="E519" t="s">
-        <v>881</v>
+        <v>783</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12442,7 +12235,7 @@
         <v>594</v>
       </c>
       <c r="E520" t="s">
-        <v>962</v>
+        <v>728</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12459,7 +12252,7 @@
         <v>595</v>
       </c>
       <c r="E521" t="s">
-        <v>963</v>
+        <v>800</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12490,7 +12283,7 @@
         <v>588</v>
       </c>
       <c r="E523" t="s">
-        <v>964</v>
+        <v>928</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12507,7 +12300,7 @@
         <v>607</v>
       </c>
       <c r="E524" t="s">
-        <v>965</v>
+        <v>929</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12524,7 +12317,7 @@
         <v>595</v>
       </c>
       <c r="E525" t="s">
-        <v>966</v>
+        <v>699</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12541,7 +12334,7 @@
         <v>588</v>
       </c>
       <c r="E526" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12558,7 +12351,7 @@
         <v>616</v>
       </c>
       <c r="E527" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12575,7 +12368,7 @@
         <v>596</v>
       </c>
       <c r="E528" t="s">
-        <v>635</v>
+        <v>931</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12592,7 +12385,7 @@
         <v>596</v>
       </c>
       <c r="E529" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12609,7 +12402,7 @@
         <v>595</v>
       </c>
       <c r="E530" t="s">
-        <v>968</v>
+        <v>769</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12626,7 +12419,7 @@
         <v>594</v>
       </c>
       <c r="E531" t="s">
-        <v>862</v>
+        <v>665</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12643,7 +12436,7 @@
         <v>596</v>
       </c>
       <c r="E532" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12660,7 +12453,7 @@
         <v>588</v>
       </c>
       <c r="E533" t="s">
-        <v>817</v>
+        <v>692</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12677,7 +12470,7 @@
         <v>597</v>
       </c>
       <c r="E534" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12694,7 +12487,7 @@
         <v>595</v>
       </c>
       <c r="E535" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12711,7 +12504,7 @@
         <v>594</v>
       </c>
       <c r="E536" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12728,7 +12521,7 @@
         <v>601</v>
       </c>
       <c r="E537" t="s">
-        <v>667</v>
+        <v>935</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12745,7 +12538,7 @@
         <v>588</v>
       </c>
       <c r="E538" t="s">
-        <v>972</v>
+        <v>936</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12762,7 +12555,7 @@
         <v>624</v>
       </c>
       <c r="E539" t="s">
-        <v>973</v>
+        <v>937</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12779,7 +12572,7 @@
         <v>588</v>
       </c>
       <c r="E540" t="s">
-        <v>974</v>
+        <v>751</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12810,7 +12603,7 @@
         <v>588</v>
       </c>
       <c r="E542" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12827,7 +12620,7 @@
         <v>594</v>
       </c>
       <c r="E543" t="s">
-        <v>753</v>
+        <v>939</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12844,7 +12637,7 @@
         <v>596</v>
       </c>
       <c r="E544" t="s">
-        <v>976</v>
+        <v>660</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12861,7 +12654,7 @@
         <v>596</v>
       </c>
       <c r="E545" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12878,7 +12671,7 @@
         <v>588</v>
       </c>
       <c r="E546" t="s">
-        <v>977</v>
+        <v>940</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12895,7 +12688,7 @@
         <v>596</v>
       </c>
       <c r="E547" t="s">
-        <v>803</v>
+        <v>941</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12912,7 +12705,7 @@
         <v>596</v>
       </c>
       <c r="E548" t="s">
-        <v>978</v>
+        <v>942</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12929,7 +12722,7 @@
         <v>598</v>
       </c>
       <c r="E549" t="s">
-        <v>979</v>
+        <v>750</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12946,7 +12739,7 @@
         <v>596</v>
       </c>
       <c r="E550" t="s">
-        <v>803</v>
+        <v>660</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12963,7 +12756,7 @@
         <v>596</v>
       </c>
       <c r="E551" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12980,7 +12773,7 @@
         <v>607</v>
       </c>
       <c r="E552" t="s">
-        <v>714</v>
+        <v>944</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12997,7 +12790,7 @@
         <v>595</v>
       </c>
       <c r="E553" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -13014,7 +12807,7 @@
         <v>596</v>
       </c>
       <c r="E554" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -13031,7 +12824,7 @@
         <v>594</v>
       </c>
       <c r="E555" t="s">
-        <v>981</v>
+        <v>945</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -13048,7 +12841,7 @@
         <v>594</v>
       </c>
       <c r="E556" t="s">
-        <v>982</v>
+        <v>681</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -13065,7 +12858,7 @@
         <v>596</v>
       </c>
       <c r="E557" t="s">
-        <v>983</v>
+        <v>946</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -13082,7 +12875,7 @@
         <v>604</v>
       </c>
       <c r="E558" t="s">
-        <v>984</v>
+        <v>947</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -13099,7 +12892,7 @@
         <v>594</v>
       </c>
       <c r="E559" t="s">
-        <v>985</v>
+        <v>661</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -13116,7 +12909,7 @@
         <v>607</v>
       </c>
       <c r="E560" t="s">
-        <v>986</v>
+        <v>948</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -13133,7 +12926,7 @@
         <v>610</v>
       </c>
       <c r="E561" t="s">
-        <v>987</v>
+        <v>949</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -13150,7 +12943,7 @@
         <v>600</v>
       </c>
       <c r="E562" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -13167,7 +12960,7 @@
         <v>595</v>
       </c>
       <c r="E563" t="s">
-        <v>913</v>
+        <v>950</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -13184,7 +12977,7 @@
         <v>596</v>
       </c>
       <c r="E564" t="s">
-        <v>988</v>
+        <v>704</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -13201,7 +12994,7 @@
         <v>610</v>
       </c>
       <c r="E565" t="s">
-        <v>989</v>
+        <v>951</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -13218,7 +13011,7 @@
         <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>990</v>
+        <v>738</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -13235,7 +13028,7 @@
         <v>595</v>
       </c>
       <c r="E567" t="s">
-        <v>991</v>
+        <v>952</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -13252,7 +13045,7 @@
         <v>594</v>
       </c>
       <c r="E568" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -13269,7 +13062,7 @@
         <v>596</v>
       </c>
       <c r="E569" t="s">
-        <v>992</v>
+        <v>953</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -13286,7 +13079,7 @@
         <v>596</v>
       </c>
       <c r="E570" t="s">
-        <v>993</v>
+        <v>954</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -13303,7 +13096,7 @@
         <v>595</v>
       </c>
       <c r="E571" t="s">
-        <v>653</v>
+        <v>817</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -13320,7 +13113,7 @@
         <v>594</v>
       </c>
       <c r="E572" t="s">
-        <v>994</v>
+        <v>847</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -13337,7 +13130,7 @@
         <v>609</v>
       </c>
       <c r="E573" t="s">
-        <v>817</v>
+        <v>955</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -13354,7 +13147,7 @@
         <v>601</v>
       </c>
       <c r="E574" t="s">
-        <v>995</v>
+        <v>751</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -13385,7 +13178,7 @@
         <v>594</v>
       </c>
       <c r="E576" t="s">
-        <v>996</v>
+        <v>956</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -13402,7 +13195,7 @@
         <v>625</v>
       </c>
       <c r="E577" t="s">
-        <v>997</v>
+        <v>957</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -13418,6 +13211,9 @@
       <c r="D578" t="s">
         <v>604</v>
       </c>
+      <c r="E578" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="1">
@@ -13433,7 +13229,7 @@
         <v>595</v>
       </c>
       <c r="E579" t="s">
-        <v>998</v>
+        <v>959</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -13450,7 +13246,7 @@
         <v>612</v>
       </c>
       <c r="E580" t="s">
-        <v>999</v>
+        <v>960</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -13467,7 +13263,7 @@
         <v>588</v>
       </c>
       <c r="E581" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -13484,7 +13280,7 @@
         <v>626</v>
       </c>
       <c r="E582" t="s">
-        <v>1000</v>
+        <v>961</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -13501,7 +13297,7 @@
         <v>595</v>
       </c>
       <c r="E583" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -13518,7 +13314,7 @@
         <v>600</v>
       </c>
       <c r="E584" t="s">
-        <v>878</v>
+        <v>963</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -13535,7 +13331,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>653</v>
+        <v>964</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -13552,7 +13348,7 @@
         <v>594</v>
       </c>
       <c r="E586" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13569,7 +13365,7 @@
         <v>596</v>
       </c>
       <c r="E587" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -13586,7 +13382,7 @@
         <v>595</v>
       </c>
       <c r="E588" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13603,7 +13399,7 @@
         <v>595</v>
       </c>
       <c r="E589" t="s">
-        <v>1003</v>
+        <v>966</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13620,7 +13416,7 @@
         <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>1004</v>
+        <v>967</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13637,7 +13433,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>780</v>
+        <v>661</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13654,7 +13450,7 @@
         <v>609</v>
       </c>
       <c r="E592" t="s">
-        <v>1005</v>
+        <v>968</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13671,7 +13467,7 @@
         <v>606</v>
       </c>
       <c r="E593" t="s">
-        <v>1006</v>
+        <v>969</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13688,7 +13484,7 @@
         <v>588</v>
       </c>
       <c r="E594" t="s">
-        <v>715</v>
+        <v>970</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13705,7 +13501,7 @@
         <v>603</v>
       </c>
       <c r="E595" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13722,7 +13518,7 @@
         <v>596</v>
       </c>
       <c r="E596" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -13739,7 +13535,7 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13756,7 +13552,7 @@
         <v>588</v>
       </c>
       <c r="E598" t="s">
-        <v>1009</v>
+        <v>720</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13773,7 +13569,7 @@
         <v>601</v>
       </c>
       <c r="E599" t="s">
-        <v>1010</v>
+        <v>973</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13790,7 +13586,7 @@
         <v>627</v>
       </c>
       <c r="E600" t="s">
-        <v>1011</v>
+        <v>974</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13807,7 +13603,7 @@
         <v>596</v>
       </c>
       <c r="E601" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13824,7 +13620,7 @@
         <v>594</v>
       </c>
       <c r="E602" t="s">
-        <v>1013</v>
+        <v>976</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13841,7 +13637,7 @@
         <v>596</v>
       </c>
       <c r="E603" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13858,7 +13654,7 @@
         <v>595</v>
       </c>
       <c r="E604" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13875,7 +13671,7 @@
         <v>596</v>
       </c>
       <c r="E605" t="s">
-        <v>1015</v>
+        <v>699</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13892,7 +13688,7 @@
         <v>596</v>
       </c>
       <c r="E606" t="s">
-        <v>1016</v>
+        <v>979</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13909,7 +13705,7 @@
         <v>598</v>
       </c>
       <c r="E607" t="s">
-        <v>1017</v>
+        <v>980</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13926,7 +13722,7 @@
         <v>596</v>
       </c>
       <c r="E608" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13943,7 +13739,7 @@
         <v>594</v>
       </c>
       <c r="E609" t="s">
-        <v>1018</v>
+        <v>981</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13960,7 +13756,7 @@
         <v>595</v>
       </c>
       <c r="E610" t="s">
-        <v>1019</v>
+        <v>674</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13977,7 +13773,7 @@
         <v>596</v>
       </c>
       <c r="E611" t="s">
-        <v>1020</v>
+        <v>954</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13994,7 +13790,7 @@
         <v>609</v>
       </c>
       <c r="E612" t="s">
-        <v>1021</v>
+        <v>982</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -14011,7 +13807,7 @@
         <v>596</v>
       </c>
       <c r="E613" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -14028,7 +13824,7 @@
         <v>604</v>
       </c>
       <c r="E614" t="s">
-        <v>1022</v>
+        <v>983</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -14045,7 +13841,7 @@
         <v>592</v>
       </c>
       <c r="E615" t="s">
-        <v>1023</v>
+        <v>984</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -14062,7 +13858,7 @@
         <v>601</v>
       </c>
       <c r="E616" t="s">
-        <v>1024</v>
+        <v>985</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -14079,7 +13875,7 @@
         <v>628</v>
       </c>
       <c r="E617" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -14096,7 +13892,7 @@
         <v>594</v>
       </c>
       <c r="E618" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -14113,7 +13909,7 @@
         <v>596</v>
       </c>
       <c r="E619" t="s">
-        <v>1027</v>
+        <v>988</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -14130,7 +13926,7 @@
         <v>596</v>
       </c>
       <c r="E620" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -14160,9 +13956,6 @@
       <c r="D622" t="s">
         <v>588</v>
       </c>
-      <c r="E622" t="s">
-        <v>798</v>
-      </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="1">
@@ -14178,7 +13971,7 @@
         <v>596</v>
       </c>
       <c r="E623" t="s">
-        <v>1029</v>
+        <v>990</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -14195,7 +13988,7 @@
         <v>596</v>
       </c>
       <c r="E624" t="s">
-        <v>1030</v>
+        <v>991</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -14212,7 +14005,7 @@
         <v>592</v>
       </c>
       <c r="E625" t="s">
-        <v>1031</v>
+        <v>992</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -14229,7 +14022,7 @@
         <v>595</v>
       </c>
       <c r="E626" t="s">
-        <v>1032</v>
+        <v>993</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -14246,7 +14039,7 @@
         <v>596</v>
       </c>
       <c r="E627" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -14263,7 +14056,7 @@
         <v>598</v>
       </c>
       <c r="E628" t="s">
-        <v>875</v>
+        <v>728</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -14280,7 +14073,7 @@
         <v>596</v>
       </c>
       <c r="E629" t="s">
-        <v>1033</v>
+        <v>991</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -14297,7 +14090,7 @@
         <v>598</v>
       </c>
       <c r="E630" t="s">
-        <v>1034</v>
+        <v>994</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -14313,9 +14106,6 @@
       <c r="D631" t="s">
         <v>588</v>
       </c>
-      <c r="E631" t="s">
-        <v>1035</v>
-      </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="1">
@@ -14331,7 +14121,7 @@
         <v>588</v>
       </c>
       <c r="E632" t="s">
-        <v>653</v>
+        <v>964</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -14348,7 +14138,7 @@
         <v>595</v>
       </c>
       <c r="E633" t="s">
-        <v>1036</v>
+        <v>995</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -14365,7 +14155,7 @@
         <v>594</v>
       </c>
       <c r="E634" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -14382,7 +14172,7 @@
         <v>607</v>
       </c>
       <c r="E635" t="s">
-        <v>1037</v>
+        <v>996</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -14399,7 +14189,7 @@
         <v>596</v>
       </c>
       <c r="E636" t="s">
-        <v>1038</v>
+        <v>997</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -14416,7 +14206,7 @@
         <v>588</v>
       </c>
       <c r="E637" t="s">
-        <v>1039</v>
+        <v>861</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -14433,7 +14223,7 @@
         <v>595</v>
       </c>
       <c r="E638" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -14450,7 +14240,7 @@
         <v>595</v>
       </c>
       <c r="E639" t="s">
-        <v>1040</v>
+        <v>802</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -14467,7 +14257,7 @@
         <v>594</v>
       </c>
       <c r="E640" t="s">
-        <v>943</v>
+        <v>718</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -14484,7 +14274,7 @@
         <v>600</v>
       </c>
       <c r="E641" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -14501,7 +14291,7 @@
         <v>596</v>
       </c>
       <c r="E642" t="s">
-        <v>1041</v>
+        <v>862</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -14518,7 +14308,7 @@
         <v>596</v>
       </c>
       <c r="E643" t="s">
-        <v>1042</v>
+        <v>998</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -14534,9 +14324,6 @@
       <c r="D644" t="s">
         <v>596</v>
       </c>
-      <c r="E644" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="1">
@@ -14552,7 +14339,7 @@
         <v>596</v>
       </c>
       <c r="E645" t="s">
-        <v>1043</v>
+        <v>999</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14569,7 +14356,7 @@
         <v>595</v>
       </c>
       <c r="E646" t="s">
-        <v>1044</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14586,7 +14373,7 @@
         <v>595</v>
       </c>
       <c r="E647" t="s">
-        <v>1045</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14603,7 +14390,7 @@
         <v>621</v>
       </c>
       <c r="E648" t="s">
-        <v>1046</v>
+        <v>643</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -14620,7 +14407,7 @@
         <v>596</v>
       </c>
       <c r="E649" t="s">
-        <v>809</v>
+        <v>751</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14637,7 +14424,7 @@
         <v>600</v>
       </c>
       <c r="E650" t="s">
-        <v>1047</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14654,7 +14441,7 @@
         <v>588</v>
       </c>
       <c r="E651" t="s">
-        <v>1048</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -14670,9 +14457,6 @@
       <c r="D652" t="s">
         <v>596</v>
       </c>
-      <c r="E652" t="s">
-        <v>1049</v>
-      </c>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="1">
@@ -14688,7 +14472,7 @@
         <v>594</v>
       </c>
       <c r="E653" t="s">
-        <v>1050</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14705,7 +14489,7 @@
         <v>594</v>
       </c>
       <c r="E654" t="s">
-        <v>1051</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14722,7 +14506,7 @@
         <v>629</v>
       </c>
       <c r="E655" t="s">
-        <v>1052</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14739,7 +14523,7 @@
         <v>603</v>
       </c>
       <c r="E656" t="s">
-        <v>1053</v>
+        <v>815</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14770,7 +14554,7 @@
         <v>594</v>
       </c>
       <c r="E658" t="s">
-        <v>1054</v>
+        <v>665</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14787,7 +14571,7 @@
         <v>594</v>
       </c>
       <c r="E659" t="s">
-        <v>727</v>
+        <v>665</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14804,7 +14588,7 @@
         <v>594</v>
       </c>
       <c r="E660" t="s">
-        <v>1055</v>
+        <v>720</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14821,7 +14605,7 @@
         <v>592</v>
       </c>
       <c r="E661" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14838,7 +14622,7 @@
         <v>607</v>
       </c>
       <c r="E662" t="s">
-        <v>1057</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -14855,7 +14639,7 @@
         <v>588</v>
       </c>
       <c r="E663" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14872,7 +14656,7 @@
         <v>598</v>
       </c>
       <c r="E664" t="s">
-        <v>1059</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14889,7 +14673,7 @@
         <v>596</v>
       </c>
       <c r="E665" t="s">
-        <v>963</v>
+        <v>800</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14905,9 +14689,6 @@
       <c r="D666" t="s">
         <v>596</v>
       </c>
-      <c r="E666" t="s">
-        <v>1060</v>
-      </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="1">
@@ -14922,9 +14703,6 @@
       <c r="D667" t="s">
         <v>594</v>
       </c>
-      <c r="E667" t="s">
-        <v>715</v>
-      </c>
     </row>
     <row r="668" spans="1:5">
       <c r="A668" s="1">
@@ -14940,7 +14718,7 @@
         <v>594</v>
       </c>
       <c r="E668" t="s">
-        <v>1061</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14957,7 +14735,7 @@
         <v>599</v>
       </c>
       <c r="E669" t="s">
-        <v>1062</v>
+        <v>770</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14974,7 +14752,7 @@
         <v>595</v>
       </c>
       <c r="E670" t="s">
-        <v>1063</v>
+        <v>859</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14991,7 +14769,7 @@
         <v>596</v>
       </c>
       <c r="E671" t="s">
-        <v>1064</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -15008,7 +14786,7 @@
         <v>595</v>
       </c>
       <c r="E672" t="s">
-        <v>1065</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -15025,7 +14803,7 @@
         <v>630</v>
       </c>
       <c r="E673" t="s">
-        <v>1066</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -15042,7 +14820,7 @@
         <v>594</v>
       </c>
       <c r="E674" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -15059,7 +14837,7 @@
         <v>588</v>
       </c>
       <c r="E675" t="s">
-        <v>1067</v>
+        <v>750</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -15076,7 +14854,7 @@
         <v>595</v>
       </c>
       <c r="E676" t="s">
-        <v>1068</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -15093,7 +14871,7 @@
         <v>616</v>
       </c>
       <c r="E677" t="s">
-        <v>1069</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -15110,7 +14888,7 @@
         <v>616</v>
       </c>
       <c r="E678" t="s">
-        <v>1070</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -15127,7 +14905,7 @@
         <v>631</v>
       </c>
       <c r="E679" t="s">
-        <v>1071</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -15144,7 +14922,7 @@
         <v>596</v>
       </c>
       <c r="E680" t="s">
-        <v>902</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -15161,7 +14939,7 @@
         <v>596</v>
       </c>
       <c r="E681" t="s">
-        <v>940</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -15178,7 +14956,7 @@
         <v>588</v>
       </c>
       <c r="E682" t="s">
-        <v>1072</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -15195,7 +14973,7 @@
         <v>588</v>
       </c>
       <c r="E683" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -15211,9 +14989,6 @@
       <c r="D684" t="s">
         <v>588</v>
       </c>
-      <c r="E684" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="1">
@@ -15228,9 +15003,6 @@
       <c r="D685" t="s">
         <v>588</v>
       </c>
-      <c r="E685" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="1">
@@ -15245,9 +15017,6 @@
       <c r="D686" t="s">
         <v>588</v>
       </c>
-      <c r="E686" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="1">
@@ -15263,7 +15032,7 @@
         <v>588</v>
       </c>
       <c r="E687" t="s">
-        <v>1073</v>
+        <v>987</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -15280,7 +15049,7 @@
         <v>588</v>
       </c>
       <c r="E688" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -15296,9 +15065,6 @@
       <c r="D689" t="s">
         <v>588</v>
       </c>
-      <c r="E689" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="690" spans="1:5">
       <c r="A690" s="1">
@@ -15314,7 +15080,7 @@
         <v>588</v>
       </c>
       <c r="E690" t="s">
-        <v>1075</v>
+        <v>837</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -15330,9 +15096,6 @@
       <c r="D691" t="s">
         <v>588</v>
       </c>
-      <c r="E691" t="s">
-        <v>1076</v>
-      </c>
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="1">
@@ -15348,7 +15111,7 @@
         <v>588</v>
       </c>
       <c r="E692" t="s">
-        <v>1077</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -15365,7 +15128,7 @@
         <v>588</v>
       </c>
       <c r="E693" t="s">
-        <v>1078</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -15382,7 +15145,7 @@
         <v>588</v>
       </c>
       <c r="E694" t="s">
-        <v>1079</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -15399,7 +15162,7 @@
         <v>588</v>
       </c>
       <c r="E695" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -15416,7 +15179,7 @@
         <v>588</v>
       </c>
       <c r="E696" t="s">
-        <v>1080</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -15433,7 +15196,7 @@
         <v>588</v>
       </c>
       <c r="E697" t="s">
-        <v>1080</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -15450,7 +15213,7 @@
         <v>588</v>
       </c>
       <c r="E698" t="s">
-        <v>1075</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -15467,7 +15230,7 @@
         <v>588</v>
       </c>
       <c r="E699" t="s">
-        <v>1081</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -15484,7 +15247,7 @@
         <v>588</v>
       </c>
       <c r="E700" t="s">
-        <v>975</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
